--- a/Modelling_input.xlsx
+++ b/Modelling_input.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Git\Modelling\Modelling\example\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Git\Modelling\Modelling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27D1CCD0-3203-4089-BB8C-9B65BA9517CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68CFD783-F75E-47E7-B79E-79A11F05B40C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A27B079D-2BA1-4558-8616-350C2F189F3B}"/>
   </bookViews>
@@ -24,6 +24,9 @@
     <sheet name="trackbeam node" sheetId="13" r:id="rId9"/>
     <sheet name="Sheet3" sheetId="15" r:id="rId10"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId11"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -298,7 +301,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="203">
   <si>
     <t>Pier ID</t>
   </si>
@@ -1058,9 +1061,6 @@
     <t>L22</t>
   </si>
   <si>
-    <t>P73</t>
-  </si>
-  <si>
     <t>station</t>
   </si>
   <si>
@@ -1081,17 +1081,52 @@
   <si>
     <t>Straight</t>
   </si>
+  <si>
+    <t>TS2</t>
+  </si>
+  <si>
+    <t>SC2</t>
+  </si>
+  <si>
+    <t>CS2</t>
+  </si>
+  <si>
+    <t>ST2</t>
+  </si>
+  <si>
+    <t>TS3</t>
+  </si>
+  <si>
+    <t>SC3</t>
+  </si>
+  <si>
+    <t>CS3</t>
+  </si>
+  <si>
+    <t>ST3</t>
+  </si>
+  <si>
+    <t>TS4</t>
+  </si>
+  <si>
+    <t>SC4</t>
+  </si>
+  <si>
+    <t>CS4</t>
+  </si>
+  <si>
+    <t>ST4</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="00\+000.000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
     <numFmt numFmtId="167" formatCode="0.0000"/>
-    <numFmt numFmtId="168" formatCode="0.00000000000"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -1439,7 +1474,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1474,10 +1509,8 @@
     <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1515,9 +1548,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1582,12 +1612,91 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{222C670F-C747-497D-AFA1-C62FE7EFCCB0}"/>
   </cellStyles>
   <dxfs count="273">
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Verdana"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="00\+000.000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="Verdana"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -7268,78 +7377,6 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="0.000"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Verdana"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="00\+000.000"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <name val="Verdana"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <border outline="0">
         <left style="thin">
           <color theme="4" tint="0.39997558519241921"/>
@@ -7359,16 +7396,41 @@
 </styleSheet>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="alignment"/>
+      <sheetName val="DBsub"/>
+      <sheetName val="DBsup"/>
+      <sheetName val="DBsoil"/>
+      <sheetName val="DBtendonA"/>
+      <sheetName val="DBtendonB"/>
+      <sheetName val="DBtendonC"/>
+      <sheetName val="tables"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{95188C6F-F670-47A8-BC6B-D62474C3AA1F}" name="alignment" displayName="alignment" ref="A1:H7" totalsRowShown="0" tableBorderDxfId="272">
-  <autoFilter ref="A1:H7" xr:uid="{E024F5FC-A93C-4D1F-BEAC-0117DCF3A65E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{95188C6F-F670-47A8-BC6B-D62474C3AA1F}" name="alignment" displayName="alignment" ref="A1:H19" totalsRowShown="0" tableBorderDxfId="272">
+  <autoFilter ref="A1:H19" xr:uid="{E024F5FC-A93C-4D1F-BEAC-0117DCF3A65E}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{2B257F85-578D-4C88-948F-C592FE07C259}" name="ID" dataDxfId="271"/>
-    <tableColumn id="2" xr3:uid="{6F5F163D-165E-4566-A9A1-ACFAA252626C}" name="Station PK" dataDxfId="270"/>
+    <tableColumn id="1" xr3:uid="{2B257F85-578D-4C88-948F-C592FE07C259}" name="ID" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{6F5F163D-165E-4566-A9A1-ACFAA252626C}" name="Station PK" dataDxfId="1"/>
     <tableColumn id="4" xr3:uid="{C0C5F32C-70EC-44C7-86D7-90211C46D474}" name="type"/>
-    <tableColumn id="5" xr3:uid="{5C2615EC-9CDA-4743-AC74-3C09A25B798C}" name="Lc/Ls" dataDxfId="269">
-      <calculatedColumnFormula>ROUND(B6-alignment[[#This Row],[Station PK]],3)</calculatedColumnFormula>
-    </tableColumn>
+    <tableColumn id="5" xr3:uid="{5C2615EC-9CDA-4743-AC74-3C09A25B798C}" name="Lc/Ls" dataDxfId="0"/>
     <tableColumn id="6" xr3:uid="{6DCFC3E8-4773-42AF-B984-F6CD87E1284F}" name="R"/>
     <tableColumn id="3" xr3:uid="{B2294638-3AEE-46E1-B0A7-EB9B5A577A4B}" name="direction"/>
     <tableColumn id="7" xr3:uid="{6D595DB9-CED4-448D-9815-AFE1CAFEDDB1}" name="CE_id"/>
@@ -7379,144 +7441,144 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{81D3F692-907D-45D8-A9AE-D9945411F29C}" name="PTprofA" displayName="PTprofA" ref="H2:AT14" totalsRowShown="0" headerRowDxfId="122" dataDxfId="121">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{81D3F692-907D-45D8-A9AE-D9945411F29C}" name="PTprofA" displayName="PTprofA" ref="H2:AT14" totalsRowShown="0" headerRowDxfId="125" dataDxfId="124">
   <autoFilter ref="H2:AT14" xr:uid="{CE10E60A-6F35-4DF0-B523-BCA50FACC2EB}"/>
   <tableColumns count="39">
-    <tableColumn id="1" xr3:uid="{96804B39-1D3E-4465-8F80-1BA8D28A4459}" name="Ptyp_s" dataDxfId="120"/>
-    <tableColumn id="2" xr3:uid="{F7CC03A2-A359-447D-ACE6-F61772794C51}" name="Ptyp_e" dataDxfId="119"/>
-    <tableColumn id="43" xr3:uid="{9BE79651-2BBC-4988-BD2A-1EF826711728}" name="PT type" dataDxfId="118"/>
-    <tableColumn id="13" xr3:uid="{CE17173D-242D-4D0D-9331-0069710968E5}" name="dLez1" dataDxfId="117"/>
-    <tableColumn id="14" xr3:uid="{352EB6AE-CB75-431E-BE77-F5EC417C1153}" name="dLez2" dataDxfId="116"/>
-    <tableColumn id="15" xr3:uid="{F0FBD6C6-04A4-4D4D-869C-55AF7632CF11}" name="dLez3" dataDxfId="115"/>
-    <tableColumn id="16" xr3:uid="{1FEB833B-FD98-4772-A979-AADE3455F8A1}" name="dLez4" dataDxfId="114"/>
-    <tableColumn id="17" xr3:uid="{52DBFE4C-E2DB-46F5-A20A-4FF0886CA3FB}" name="dLez5" dataDxfId="113"/>
-    <tableColumn id="37" xr3:uid="{612F49EC-E822-4468-9669-A8BA8483AE7A}" name="dLez6" dataDxfId="112"/>
-    <tableColumn id="38" xr3:uid="{7B6F2622-7429-478F-B70B-70E377F0326A}" name="dLez7" dataDxfId="111"/>
-    <tableColumn id="18" xr3:uid="{EFB8EA3C-45AE-4BEC-A55F-3DCB98905149}" name="dLez8" dataDxfId="110"/>
-    <tableColumn id="19" xr3:uid="{A11465F1-31A8-4685-84DC-5DC9062C4864}" name="dLez9" dataDxfId="109"/>
-    <tableColumn id="20" xr3:uid="{9F8873E8-BBB9-48F4-A0E3-BBE0CAF24E74}" name="dLez10" dataDxfId="108"/>
-    <tableColumn id="21" xr3:uid="{4F414859-1B04-43A1-8D03-49EAB613E5A2}" name="dLez11" dataDxfId="107"/>
-    <tableColumn id="22" xr3:uid="{544063BC-5D44-49C3-9213-BBB2FF2C150A}" name="dLez12" dataDxfId="106"/>
-    <tableColumn id="23" xr3:uid="{E2F474BD-645E-49E7-9BEC-659CAA378C6E}" name="ey1" dataDxfId="105"/>
-    <tableColumn id="24" xr3:uid="{5F77F2F2-2B1C-4480-A2D2-22007C9C2928}" name="ey2" dataDxfId="104"/>
-    <tableColumn id="25" xr3:uid="{AC3D6020-25DD-436F-A478-9DA2F3BD13FA}" name="ey3" dataDxfId="103"/>
-    <tableColumn id="26" xr3:uid="{785F8F80-4FF6-44BF-9FBE-7B0E4E6FBE61}" name="ey4" dataDxfId="102"/>
-    <tableColumn id="31" xr3:uid="{8709D02E-3719-44F3-A303-89500A713E65}" name="ey5" dataDxfId="101"/>
-    <tableColumn id="32" xr3:uid="{F3F9B365-BA50-4E72-B236-70122DD409B5}" name="ey6" dataDxfId="100"/>
-    <tableColumn id="33" xr3:uid="{F9F8732C-B32B-4BD9-A978-8C254AC6A204}" name="ey7" dataDxfId="99"/>
-    <tableColumn id="34" xr3:uid="{3F71720D-B2DD-4A46-AA2F-F754C41E5A3A}" name="ey8" dataDxfId="98"/>
-    <tableColumn id="35" xr3:uid="{BD69DB4E-E658-40D8-A926-17F52C034874}" name="ey9" dataDxfId="97"/>
-    <tableColumn id="36" xr3:uid="{3AC5002C-F63F-4B7B-A215-C3B6EDE1C678}" name="ey10" dataDxfId="96"/>
-    <tableColumn id="39" xr3:uid="{D38ED3D1-1BF4-446E-A198-16C7101D8330}" name="ey11" dataDxfId="95"/>
-    <tableColumn id="40" xr3:uid="{AED14997-2531-432E-91B4-740C2BDE0E7C}" name="ey12" dataDxfId="94"/>
-    <tableColumn id="3" xr3:uid="{BE9CA63E-8F9D-4ACE-82DC-F4FDEF1BDBE1}" name="ez1" dataDxfId="93"/>
-    <tableColumn id="4" xr3:uid="{792F49FD-D3C8-4AF8-81BA-9158BCB796EC}" name="ez2" dataDxfId="92"/>
-    <tableColumn id="5" xr3:uid="{39D5B6B5-A080-47EE-A1D1-62ABEAE96FA7}" name="ez3" dataDxfId="91"/>
-    <tableColumn id="6" xr3:uid="{8BA15695-2633-4B9C-8965-D6DD838E819E}" name="ez4" dataDxfId="90"/>
-    <tableColumn id="7" xr3:uid="{D332B0E6-0385-4E14-ADB2-D5454F632FD9}" name="ez5" dataDxfId="89"/>
-    <tableColumn id="41" xr3:uid="{9A90C0A9-97C2-4B8D-A7AE-3646AB382D9F}" name="ez6" dataDxfId="88"/>
-    <tableColumn id="42" xr3:uid="{15C36CBC-1324-449E-B884-B87A5BCC966E}" name="ez7" dataDxfId="87"/>
-    <tableColumn id="8" xr3:uid="{CC85B6CB-BC83-4C7A-87AA-C3F013923742}" name="ez8" dataDxfId="86"/>
-    <tableColumn id="9" xr3:uid="{B54D089D-3382-4B00-87D5-0E83694936F8}" name="ez9" dataDxfId="85"/>
-    <tableColumn id="10" xr3:uid="{C732C369-A735-476D-9D38-DEE8712D3F7F}" name="ez10" dataDxfId="84"/>
-    <tableColumn id="11" xr3:uid="{47B13914-AAA0-4568-85F8-987DA2725625}" name="ez11" dataDxfId="83"/>
-    <tableColumn id="12" xr3:uid="{3152FC18-DE27-4212-B8BE-5B4ECC4B119C}" name="ez12" dataDxfId="82"/>
+    <tableColumn id="1" xr3:uid="{96804B39-1D3E-4465-8F80-1BA8D28A4459}" name="Ptyp_s" dataDxfId="123"/>
+    <tableColumn id="2" xr3:uid="{F7CC03A2-A359-447D-ACE6-F61772794C51}" name="Ptyp_e" dataDxfId="122"/>
+    <tableColumn id="43" xr3:uid="{9BE79651-2BBC-4988-BD2A-1EF826711728}" name="PT type" dataDxfId="121"/>
+    <tableColumn id="13" xr3:uid="{CE17173D-242D-4D0D-9331-0069710968E5}" name="dLez1" dataDxfId="120"/>
+    <tableColumn id="14" xr3:uid="{352EB6AE-CB75-431E-BE77-F5EC417C1153}" name="dLez2" dataDxfId="119"/>
+    <tableColumn id="15" xr3:uid="{F0FBD6C6-04A4-4D4D-869C-55AF7632CF11}" name="dLez3" dataDxfId="118"/>
+    <tableColumn id="16" xr3:uid="{1FEB833B-FD98-4772-A979-AADE3455F8A1}" name="dLez4" dataDxfId="117"/>
+    <tableColumn id="17" xr3:uid="{52DBFE4C-E2DB-46F5-A20A-4FF0886CA3FB}" name="dLez5" dataDxfId="116"/>
+    <tableColumn id="37" xr3:uid="{612F49EC-E822-4468-9669-A8BA8483AE7A}" name="dLez6" dataDxfId="115"/>
+    <tableColumn id="38" xr3:uid="{7B6F2622-7429-478F-B70B-70E377F0326A}" name="dLez7" dataDxfId="114"/>
+    <tableColumn id="18" xr3:uid="{EFB8EA3C-45AE-4BEC-A55F-3DCB98905149}" name="dLez8" dataDxfId="113"/>
+    <tableColumn id="19" xr3:uid="{A11465F1-31A8-4685-84DC-5DC9062C4864}" name="dLez9" dataDxfId="112"/>
+    <tableColumn id="20" xr3:uid="{9F8873E8-BBB9-48F4-A0E3-BBE0CAF24E74}" name="dLez10" dataDxfId="111"/>
+    <tableColumn id="21" xr3:uid="{4F414859-1B04-43A1-8D03-49EAB613E5A2}" name="dLez11" dataDxfId="110"/>
+    <tableColumn id="22" xr3:uid="{544063BC-5D44-49C3-9213-BBB2FF2C150A}" name="dLez12" dataDxfId="109"/>
+    <tableColumn id="23" xr3:uid="{E2F474BD-645E-49E7-9BEC-659CAA378C6E}" name="ey1" dataDxfId="108"/>
+    <tableColumn id="24" xr3:uid="{5F77F2F2-2B1C-4480-A2D2-22007C9C2928}" name="ey2" dataDxfId="107"/>
+    <tableColumn id="25" xr3:uid="{AC3D6020-25DD-436F-A478-9DA2F3BD13FA}" name="ey3" dataDxfId="106"/>
+    <tableColumn id="26" xr3:uid="{785F8F80-4FF6-44BF-9FBE-7B0E4E6FBE61}" name="ey4" dataDxfId="105"/>
+    <tableColumn id="31" xr3:uid="{8709D02E-3719-44F3-A303-89500A713E65}" name="ey5" dataDxfId="104"/>
+    <tableColumn id="32" xr3:uid="{F3F9B365-BA50-4E72-B236-70122DD409B5}" name="ey6" dataDxfId="103"/>
+    <tableColumn id="33" xr3:uid="{F9F8732C-B32B-4BD9-A978-8C254AC6A204}" name="ey7" dataDxfId="102"/>
+    <tableColumn id="34" xr3:uid="{3F71720D-B2DD-4A46-AA2F-F754C41E5A3A}" name="ey8" dataDxfId="101"/>
+    <tableColumn id="35" xr3:uid="{BD69DB4E-E658-40D8-A926-17F52C034874}" name="ey9" dataDxfId="100"/>
+    <tableColumn id="36" xr3:uid="{3AC5002C-F63F-4B7B-A215-C3B6EDE1C678}" name="ey10" dataDxfId="99"/>
+    <tableColumn id="39" xr3:uid="{D38ED3D1-1BF4-446E-A198-16C7101D8330}" name="ey11" dataDxfId="98"/>
+    <tableColumn id="40" xr3:uid="{AED14997-2531-432E-91B4-740C2BDE0E7C}" name="ey12" dataDxfId="97"/>
+    <tableColumn id="3" xr3:uid="{BE9CA63E-8F9D-4ACE-82DC-F4FDEF1BDBE1}" name="ez1" dataDxfId="96"/>
+    <tableColumn id="4" xr3:uid="{792F49FD-D3C8-4AF8-81BA-9158BCB796EC}" name="ez2" dataDxfId="95"/>
+    <tableColumn id="5" xr3:uid="{39D5B6B5-A080-47EE-A1D1-62ABEAE96FA7}" name="ez3" dataDxfId="94"/>
+    <tableColumn id="6" xr3:uid="{8BA15695-2633-4B9C-8965-D6DD838E819E}" name="ez4" dataDxfId="93"/>
+    <tableColumn id="7" xr3:uid="{D332B0E6-0385-4E14-ADB2-D5454F632FD9}" name="ez5" dataDxfId="92"/>
+    <tableColumn id="41" xr3:uid="{9A90C0A9-97C2-4B8D-A7AE-3646AB382D9F}" name="ez6" dataDxfId="91"/>
+    <tableColumn id="42" xr3:uid="{15C36CBC-1324-449E-B884-B87A5BCC966E}" name="ez7" dataDxfId="90"/>
+    <tableColumn id="8" xr3:uid="{CC85B6CB-BC83-4C7A-87AA-C3F013923742}" name="ez8" dataDxfId="89"/>
+    <tableColumn id="9" xr3:uid="{B54D089D-3382-4B00-87D5-0E83694936F8}" name="ez9" dataDxfId="88"/>
+    <tableColumn id="10" xr3:uid="{C732C369-A735-476D-9D38-DEE8712D3F7F}" name="ez10" dataDxfId="87"/>
+    <tableColumn id="11" xr3:uid="{47B13914-AAA0-4568-85F8-987DA2725625}" name="ez11" dataDxfId="86"/>
+    <tableColumn id="12" xr3:uid="{3152FC18-DE27-4212-B8BE-5B4ECC4B119C}" name="ez12" dataDxfId="85"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{EF8A234E-A52F-4DB0-93F8-630C9C86A9A5}" name="PTprofB" displayName="PTprofB" ref="H16:AT22" totalsRowShown="0" headerRowDxfId="81" dataDxfId="80">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{EF8A234E-A52F-4DB0-93F8-630C9C86A9A5}" name="PTprofB" displayName="PTprofB" ref="H16:AT22" totalsRowShown="0" headerRowDxfId="84" dataDxfId="83">
   <autoFilter ref="H16:AT22" xr:uid="{78DF5DD3-DEF6-4782-B9E3-2730B99C4D92}"/>
   <tableColumns count="39">
-    <tableColumn id="1" xr3:uid="{3B61CB05-49FB-4E7E-A9E9-4B4C7BBE1626}" name="Ptyp_s" dataDxfId="79"/>
-    <tableColumn id="2" xr3:uid="{AD43C812-8605-4831-8F23-C18880F26A1D}" name="Ptyp_e" dataDxfId="78"/>
-    <tableColumn id="3" xr3:uid="{ED5EB3E6-53B4-4E9E-834C-EDE185A43765}" name="PT type" dataDxfId="77"/>
-    <tableColumn id="4" xr3:uid="{C8ACEB05-252F-4062-AEC3-25727EC556BC}" name="dLez1" dataDxfId="76"/>
-    <tableColumn id="5" xr3:uid="{FFECFB99-A82B-4DDB-A696-044A47062271}" name="dLez2" dataDxfId="75"/>
-    <tableColumn id="6" xr3:uid="{CF9FB9AB-A689-4279-B98A-CA7BD41C684B}" name="dLez3" dataDxfId="74"/>
-    <tableColumn id="7" xr3:uid="{CB0A5061-3CE4-430F-9F5C-CA24366E2CCC}" name="dLez4" dataDxfId="73"/>
-    <tableColumn id="8" xr3:uid="{0BA877B0-C5B2-40C6-91C0-3513FF92406F}" name="dLez5" dataDxfId="72"/>
-    <tableColumn id="9" xr3:uid="{90DDCE79-A427-417F-B80C-E84BD40735F5}" name="dLez6" dataDxfId="71"/>
-    <tableColumn id="10" xr3:uid="{087E916D-E73F-4CEC-8E18-69D929452090}" name="dLez7" dataDxfId="70"/>
-    <tableColumn id="11" xr3:uid="{25740901-3EE7-4447-84B3-A1AF359DB0D0}" name="dLez8" dataDxfId="69"/>
-    <tableColumn id="12" xr3:uid="{BCD8FE96-18CF-4DE3-998B-0E5EB5C8831D}" name="dLez9" dataDxfId="68"/>
-    <tableColumn id="13" xr3:uid="{8A330135-4DCF-4132-8B5B-B74B0A3037BF}" name="dLez10" dataDxfId="67"/>
-    <tableColumn id="14" xr3:uid="{EC7B4CFA-0A0C-4F37-AA41-D3C7BC1120F8}" name="dLez11" dataDxfId="66"/>
-    <tableColumn id="15" xr3:uid="{9BB987EB-D2DB-4B63-BA6B-57E7335A8D5D}" name="dLez12" dataDxfId="65"/>
-    <tableColumn id="16" xr3:uid="{A24EF61D-DDD3-4E6A-85A1-1537B0B9C859}" name="ey1" dataDxfId="64"/>
-    <tableColumn id="17" xr3:uid="{CF2567EC-C4C8-4191-A2A6-EEFCA6E9CDD6}" name="ey2" dataDxfId="63"/>
-    <tableColumn id="18" xr3:uid="{34591FA5-B020-461D-BBD5-AA16967C631B}" name="ey3" dataDxfId="62"/>
-    <tableColumn id="19" xr3:uid="{BFE62D8B-CB8C-4018-ADBA-43A75A403424}" name="ey4" dataDxfId="61"/>
-    <tableColumn id="20" xr3:uid="{B0798A18-94BB-4C2A-8FAE-1FB6A7EAF4E1}" name="ey5" dataDxfId="60"/>
-    <tableColumn id="21" xr3:uid="{40122CE7-F36D-48D3-89B7-C3DB752FEA80}" name="ey6" dataDxfId="59"/>
-    <tableColumn id="22" xr3:uid="{EEF76745-B277-4F36-AE65-381D36A5635E}" name="ey7" dataDxfId="58"/>
-    <tableColumn id="23" xr3:uid="{4590E24D-945A-497B-BE2C-BE2ED62964B3}" name="ey8" dataDxfId="57"/>
-    <tableColumn id="24" xr3:uid="{C7E700CD-C70F-41D4-A744-1806A5D59564}" name="ey9" dataDxfId="56"/>
-    <tableColumn id="25" xr3:uid="{67D2F965-2016-49D5-BD29-1607A65205E2}" name="ey10" dataDxfId="55"/>
-    <tableColumn id="26" xr3:uid="{5057CD24-99BB-4690-B2EF-6B29277D45B8}" name="ey11" dataDxfId="54"/>
-    <tableColumn id="27" xr3:uid="{8C7224CE-D24C-4C0C-B92E-E5C75D73B9D3}" name="ey12" dataDxfId="53"/>
-    <tableColumn id="28" xr3:uid="{013A0E31-BEAD-449A-B6D5-9698875D690F}" name="ez1" dataDxfId="52"/>
-    <tableColumn id="29" xr3:uid="{13FEBF0C-B6B4-467C-8296-53DE4B86BAB1}" name="ez2" dataDxfId="51"/>
-    <tableColumn id="30" xr3:uid="{86900EFC-5EC8-4095-B77B-42A22041FEA4}" name="ez3" dataDxfId="50"/>
-    <tableColumn id="31" xr3:uid="{938520AE-1A77-471E-B34E-9E60A8022077}" name="ez4" dataDxfId="49"/>
-    <tableColumn id="32" xr3:uid="{D9E5A65C-4F9F-4F31-83C6-39B01530AB0E}" name="ez5" dataDxfId="48"/>
-    <tableColumn id="33" xr3:uid="{2BEA984A-3A9F-481D-A111-C25C72010CFA}" name="ez6" dataDxfId="47"/>
-    <tableColumn id="34" xr3:uid="{A4BF6B25-78E2-41E0-A7AE-649C8F85F79B}" name="ez7" dataDxfId="46"/>
-    <tableColumn id="35" xr3:uid="{6FF5A9D9-5995-4FF1-BA1A-E4FC4F7CCCDB}" name="ez8" dataDxfId="45"/>
-    <tableColumn id="36" xr3:uid="{FABF2F97-DEB8-4929-BA79-0BCFBBA6B95F}" name="ez9" dataDxfId="44"/>
-    <tableColumn id="37" xr3:uid="{159F4439-6362-4375-AC7F-B35DE8CD6F2A}" name="ez10" dataDxfId="43"/>
-    <tableColumn id="38" xr3:uid="{EABD4FFF-87D0-4467-80D6-9DBAE83033A7}" name="ez11" dataDxfId="42"/>
-    <tableColumn id="39" xr3:uid="{8F2E28E0-1FAF-4A0D-9090-FBB6E41A06E9}" name="ez12" dataDxfId="41"/>
+    <tableColumn id="1" xr3:uid="{3B61CB05-49FB-4E7E-A9E9-4B4C7BBE1626}" name="Ptyp_s" dataDxfId="82"/>
+    <tableColumn id="2" xr3:uid="{AD43C812-8605-4831-8F23-C18880F26A1D}" name="Ptyp_e" dataDxfId="81"/>
+    <tableColumn id="3" xr3:uid="{ED5EB3E6-53B4-4E9E-834C-EDE185A43765}" name="PT type" dataDxfId="80"/>
+    <tableColumn id="4" xr3:uid="{C8ACEB05-252F-4062-AEC3-25727EC556BC}" name="dLez1" dataDxfId="79"/>
+    <tableColumn id="5" xr3:uid="{FFECFB99-A82B-4DDB-A696-044A47062271}" name="dLez2" dataDxfId="78"/>
+    <tableColumn id="6" xr3:uid="{CF9FB9AB-A689-4279-B98A-CA7BD41C684B}" name="dLez3" dataDxfId="77"/>
+    <tableColumn id="7" xr3:uid="{CB0A5061-3CE4-430F-9F5C-CA24366E2CCC}" name="dLez4" dataDxfId="76"/>
+    <tableColumn id="8" xr3:uid="{0BA877B0-C5B2-40C6-91C0-3513FF92406F}" name="dLez5" dataDxfId="75"/>
+    <tableColumn id="9" xr3:uid="{90DDCE79-A427-417F-B80C-E84BD40735F5}" name="dLez6" dataDxfId="74"/>
+    <tableColumn id="10" xr3:uid="{087E916D-E73F-4CEC-8E18-69D929452090}" name="dLez7" dataDxfId="73"/>
+    <tableColumn id="11" xr3:uid="{25740901-3EE7-4447-84B3-A1AF359DB0D0}" name="dLez8" dataDxfId="72"/>
+    <tableColumn id="12" xr3:uid="{BCD8FE96-18CF-4DE3-998B-0E5EB5C8831D}" name="dLez9" dataDxfId="71"/>
+    <tableColumn id="13" xr3:uid="{8A330135-4DCF-4132-8B5B-B74B0A3037BF}" name="dLez10" dataDxfId="70"/>
+    <tableColumn id="14" xr3:uid="{EC7B4CFA-0A0C-4F37-AA41-D3C7BC1120F8}" name="dLez11" dataDxfId="69"/>
+    <tableColumn id="15" xr3:uid="{9BB987EB-D2DB-4B63-BA6B-57E7335A8D5D}" name="dLez12" dataDxfId="68"/>
+    <tableColumn id="16" xr3:uid="{A24EF61D-DDD3-4E6A-85A1-1537B0B9C859}" name="ey1" dataDxfId="67"/>
+    <tableColumn id="17" xr3:uid="{CF2567EC-C4C8-4191-A2A6-EEFCA6E9CDD6}" name="ey2" dataDxfId="66"/>
+    <tableColumn id="18" xr3:uid="{34591FA5-B020-461D-BBD5-AA16967C631B}" name="ey3" dataDxfId="65"/>
+    <tableColumn id="19" xr3:uid="{BFE62D8B-CB8C-4018-ADBA-43A75A403424}" name="ey4" dataDxfId="64"/>
+    <tableColumn id="20" xr3:uid="{B0798A18-94BB-4C2A-8FAE-1FB6A7EAF4E1}" name="ey5" dataDxfId="63"/>
+    <tableColumn id="21" xr3:uid="{40122CE7-F36D-48D3-89B7-C3DB752FEA80}" name="ey6" dataDxfId="62"/>
+    <tableColumn id="22" xr3:uid="{EEF76745-B277-4F36-AE65-381D36A5635E}" name="ey7" dataDxfId="61"/>
+    <tableColumn id="23" xr3:uid="{4590E24D-945A-497B-BE2C-BE2ED62964B3}" name="ey8" dataDxfId="60"/>
+    <tableColumn id="24" xr3:uid="{C7E700CD-C70F-41D4-A744-1806A5D59564}" name="ey9" dataDxfId="59"/>
+    <tableColumn id="25" xr3:uid="{67D2F965-2016-49D5-BD29-1607A65205E2}" name="ey10" dataDxfId="58"/>
+    <tableColumn id="26" xr3:uid="{5057CD24-99BB-4690-B2EF-6B29277D45B8}" name="ey11" dataDxfId="57"/>
+    <tableColumn id="27" xr3:uid="{8C7224CE-D24C-4C0C-B92E-E5C75D73B9D3}" name="ey12" dataDxfId="56"/>
+    <tableColumn id="28" xr3:uid="{013A0E31-BEAD-449A-B6D5-9698875D690F}" name="ez1" dataDxfId="55"/>
+    <tableColumn id="29" xr3:uid="{13FEBF0C-B6B4-467C-8296-53DE4B86BAB1}" name="ez2" dataDxfId="54"/>
+    <tableColumn id="30" xr3:uid="{86900EFC-5EC8-4095-B77B-42A22041FEA4}" name="ez3" dataDxfId="53"/>
+    <tableColumn id="31" xr3:uid="{938520AE-1A77-471E-B34E-9E60A8022077}" name="ez4" dataDxfId="52"/>
+    <tableColumn id="32" xr3:uid="{D9E5A65C-4F9F-4F31-83C6-39B01530AB0E}" name="ez5" dataDxfId="51"/>
+    <tableColumn id="33" xr3:uid="{2BEA984A-3A9F-481D-A111-C25C72010CFA}" name="ez6" dataDxfId="50"/>
+    <tableColumn id="34" xr3:uid="{A4BF6B25-78E2-41E0-A7AE-649C8F85F79B}" name="ez7" dataDxfId="49"/>
+    <tableColumn id="35" xr3:uid="{6FF5A9D9-5995-4FF1-BA1A-E4FC4F7CCCDB}" name="ez8" dataDxfId="48"/>
+    <tableColumn id="36" xr3:uid="{FABF2F97-DEB8-4929-BA79-0BCFBBA6B95F}" name="ez9" dataDxfId="47"/>
+    <tableColumn id="37" xr3:uid="{159F4439-6362-4375-AC7F-B35DE8CD6F2A}" name="ez10" dataDxfId="46"/>
+    <tableColumn id="38" xr3:uid="{EABD4FFF-87D0-4467-80D6-9DBAE83033A7}" name="ez11" dataDxfId="45"/>
+    <tableColumn id="39" xr3:uid="{8F2E28E0-1FAF-4A0D-9090-FBB6E41A06E9}" name="ez12" dataDxfId="44"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{C5AE217F-B624-458A-8956-BF06823E825D}" name="PTprofC" displayName="PTprofC" ref="H25:AT31" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{C5AE217F-B624-458A-8956-BF06823E825D}" name="PTprofC" displayName="PTprofC" ref="H25:AT31" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42">
   <autoFilter ref="H25:AT31" xr:uid="{62EA2E5C-1C95-4A07-AE7B-5833FE9DA04E}"/>
   <tableColumns count="39">
-    <tableColumn id="1" xr3:uid="{277DDC95-B3B4-4507-8B8A-BB9170D295EE}" name="Ptyp_s" dataDxfId="38"/>
-    <tableColumn id="2" xr3:uid="{EFC8304E-C291-4AF0-9077-CEADBA6CF497}" name="Ptyp_e" dataDxfId="37"/>
-    <tableColumn id="3" xr3:uid="{A97232EC-612B-45D7-934C-1C28E4F73FA4}" name="PT type" dataDxfId="36"/>
-    <tableColumn id="4" xr3:uid="{5F09EE86-1FD0-4AF9-BCCA-F816F112FAB4}" name="dLez1" dataDxfId="35"/>
-    <tableColumn id="5" xr3:uid="{08F3E66F-B8BA-402B-8EB4-C9F7FE3D753E}" name="dLez2" dataDxfId="34"/>
-    <tableColumn id="6" xr3:uid="{7A259303-1913-40FE-954A-7D6F400215D7}" name="dLez3" dataDxfId="33"/>
-    <tableColumn id="7" xr3:uid="{D90F65E4-1175-461A-AC8A-566A26110B72}" name="dLez4" dataDxfId="32"/>
-    <tableColumn id="8" xr3:uid="{212BB878-EB2F-4839-AA11-8823D1D554F9}" name="dLez5" dataDxfId="31"/>
-    <tableColumn id="9" xr3:uid="{3F07D0FD-225F-48D7-A75E-A10C5564A00B}" name="dLez6" dataDxfId="30"/>
-    <tableColumn id="10" xr3:uid="{B95F969B-AE6D-4106-A72B-84B4FE89E650}" name="dLez7" dataDxfId="29"/>
-    <tableColumn id="11" xr3:uid="{E354C180-F577-4044-AAD4-D8FB98D31FD3}" name="dLez8" dataDxfId="28"/>
-    <tableColumn id="12" xr3:uid="{BB679D31-65A9-47C9-8A51-C28FCC6F65D1}" name="dLez9" dataDxfId="27"/>
-    <tableColumn id="13" xr3:uid="{16FC1DC4-EA25-4272-9F74-E9DC0998815C}" name="dLez10" dataDxfId="26"/>
-    <tableColumn id="14" xr3:uid="{BC4C5C0E-5440-4FD9-9578-2CA9BCA507C1}" name="dLez11" dataDxfId="25"/>
-    <tableColumn id="15" xr3:uid="{8C9B450A-D4DD-4435-8287-57F065A9B71E}" name="dLez12" dataDxfId="24"/>
-    <tableColumn id="16" xr3:uid="{4C58D719-50C2-4188-8069-774150CB0877}" name="ey1" dataDxfId="23"/>
-    <tableColumn id="17" xr3:uid="{1FF9961F-5F20-4045-B8AE-632DF1B580DC}" name="ey2" dataDxfId="22"/>
-    <tableColumn id="18" xr3:uid="{F9B24699-1CEF-416D-A385-2F8DB264994E}" name="ey3" dataDxfId="21"/>
-    <tableColumn id="19" xr3:uid="{C3A3DF96-837C-4E02-92CA-29D58B0EE388}" name="ey4" dataDxfId="20"/>
-    <tableColumn id="20" xr3:uid="{F31C8C7B-2D9D-43EC-A748-ADC40FF9EB94}" name="ey5" dataDxfId="19"/>
-    <tableColumn id="21" xr3:uid="{79210FFF-7D9C-4FD0-B76B-CF894D2C3FF8}" name="ey6" dataDxfId="18"/>
-    <tableColumn id="22" xr3:uid="{9EC03AD2-E575-46B9-8A59-FAA5A3B15C90}" name="ey7" dataDxfId="17"/>
-    <tableColumn id="23" xr3:uid="{4B0E735B-3AD0-41E0-B1C7-86A5560C841A}" name="ey8" dataDxfId="16"/>
-    <tableColumn id="24" xr3:uid="{F264B3AC-D3B3-4665-A127-DFEDC28ECA1B}" name="ey9" dataDxfId="15"/>
-    <tableColumn id="25" xr3:uid="{C0FDE415-FBAD-447B-85B8-FCC8EFED5DDD}" name="ey10" dataDxfId="14"/>
-    <tableColumn id="26" xr3:uid="{B0074D7D-3B58-4616-8108-111A8993AED8}" name="ey11" dataDxfId="13"/>
-    <tableColumn id="27" xr3:uid="{40E7D13E-FFB5-4F87-B4B0-5A9DB989DA8B}" name="ey12" dataDxfId="12"/>
-    <tableColumn id="28" xr3:uid="{C97151EC-87D0-4367-8A75-2025E6494DC7}" name="ez1" dataDxfId="11"/>
-    <tableColumn id="29" xr3:uid="{541E17F7-50F4-4307-9D50-B9E057BD7532}" name="ez2" dataDxfId="10"/>
-    <tableColumn id="30" xr3:uid="{083F0440-9822-4414-AFD3-EB61915D220B}" name="ez3" dataDxfId="9"/>
-    <tableColumn id="31" xr3:uid="{B99A133F-7662-49E7-A5C1-41EB7ACF0A1B}" name="ez4" dataDxfId="8"/>
-    <tableColumn id="32" xr3:uid="{6F859D8F-686E-461C-A880-A7F72EDA2CEC}" name="ez5" dataDxfId="7"/>
-    <tableColumn id="33" xr3:uid="{8BFE1D29-926C-40EA-B23E-60D527E142B9}" name="ez6" dataDxfId="6"/>
-    <tableColumn id="34" xr3:uid="{CBEB918A-3E95-4166-881F-467C282888E4}" name="ez7" dataDxfId="5"/>
-    <tableColumn id="35" xr3:uid="{E1368E9B-3BF3-48EB-AA72-9D83EB851788}" name="ez8" dataDxfId="4"/>
-    <tableColumn id="36" xr3:uid="{932B9382-0DCE-4686-837B-3A82E2795AFE}" name="ez9" dataDxfId="3"/>
-    <tableColumn id="37" xr3:uid="{59B3B040-71F9-488E-8E38-E0823893E0E0}" name="ez10" dataDxfId="2"/>
-    <tableColumn id="38" xr3:uid="{7DA40436-A696-461E-A554-6C685A43EB05}" name="ez11" dataDxfId="1"/>
-    <tableColumn id="39" xr3:uid="{04C99ABE-F7C7-4F28-9D5A-28A3A574F094}" name="ez12" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{277DDC95-B3B4-4507-8B8A-BB9170D295EE}" name="Ptyp_s" dataDxfId="41"/>
+    <tableColumn id="2" xr3:uid="{EFC8304E-C291-4AF0-9077-CEADBA6CF497}" name="Ptyp_e" dataDxfId="40"/>
+    <tableColumn id="3" xr3:uid="{A97232EC-612B-45D7-934C-1C28E4F73FA4}" name="PT type" dataDxfId="39"/>
+    <tableColumn id="4" xr3:uid="{5F09EE86-1FD0-4AF9-BCCA-F816F112FAB4}" name="dLez1" dataDxfId="38"/>
+    <tableColumn id="5" xr3:uid="{08F3E66F-B8BA-402B-8EB4-C9F7FE3D753E}" name="dLez2" dataDxfId="37"/>
+    <tableColumn id="6" xr3:uid="{7A259303-1913-40FE-954A-7D6F400215D7}" name="dLez3" dataDxfId="36"/>
+    <tableColumn id="7" xr3:uid="{D90F65E4-1175-461A-AC8A-566A26110B72}" name="dLez4" dataDxfId="35"/>
+    <tableColumn id="8" xr3:uid="{212BB878-EB2F-4839-AA11-8823D1D554F9}" name="dLez5" dataDxfId="34"/>
+    <tableColumn id="9" xr3:uid="{3F07D0FD-225F-48D7-A75E-A10C5564A00B}" name="dLez6" dataDxfId="33"/>
+    <tableColumn id="10" xr3:uid="{B95F969B-AE6D-4106-A72B-84B4FE89E650}" name="dLez7" dataDxfId="32"/>
+    <tableColumn id="11" xr3:uid="{E354C180-F577-4044-AAD4-D8FB98D31FD3}" name="dLez8" dataDxfId="31"/>
+    <tableColumn id="12" xr3:uid="{BB679D31-65A9-47C9-8A51-C28FCC6F65D1}" name="dLez9" dataDxfId="30"/>
+    <tableColumn id="13" xr3:uid="{16FC1DC4-EA25-4272-9F74-E9DC0998815C}" name="dLez10" dataDxfId="29"/>
+    <tableColumn id="14" xr3:uid="{BC4C5C0E-5440-4FD9-9578-2CA9BCA507C1}" name="dLez11" dataDxfId="28"/>
+    <tableColumn id="15" xr3:uid="{8C9B450A-D4DD-4435-8287-57F065A9B71E}" name="dLez12" dataDxfId="27"/>
+    <tableColumn id="16" xr3:uid="{4C58D719-50C2-4188-8069-774150CB0877}" name="ey1" dataDxfId="26"/>
+    <tableColumn id="17" xr3:uid="{1FF9961F-5F20-4045-B8AE-632DF1B580DC}" name="ey2" dataDxfId="25"/>
+    <tableColumn id="18" xr3:uid="{F9B24699-1CEF-416D-A385-2F8DB264994E}" name="ey3" dataDxfId="24"/>
+    <tableColumn id="19" xr3:uid="{C3A3DF96-837C-4E02-92CA-29D58B0EE388}" name="ey4" dataDxfId="23"/>
+    <tableColumn id="20" xr3:uid="{F31C8C7B-2D9D-43EC-A748-ADC40FF9EB94}" name="ey5" dataDxfId="22"/>
+    <tableColumn id="21" xr3:uid="{79210FFF-7D9C-4FD0-B76B-CF894D2C3FF8}" name="ey6" dataDxfId="21"/>
+    <tableColumn id="22" xr3:uid="{9EC03AD2-E575-46B9-8A59-FAA5A3B15C90}" name="ey7" dataDxfId="20"/>
+    <tableColumn id="23" xr3:uid="{4B0E735B-3AD0-41E0-B1C7-86A5560C841A}" name="ey8" dataDxfId="19"/>
+    <tableColumn id="24" xr3:uid="{F264B3AC-D3B3-4665-A127-DFEDC28ECA1B}" name="ey9" dataDxfId="18"/>
+    <tableColumn id="25" xr3:uid="{C0FDE415-FBAD-447B-85B8-FCC8EFED5DDD}" name="ey10" dataDxfId="17"/>
+    <tableColumn id="26" xr3:uid="{B0074D7D-3B58-4616-8108-111A8993AED8}" name="ey11" dataDxfId="16"/>
+    <tableColumn id="27" xr3:uid="{40E7D13E-FFB5-4F87-B4B0-5A9DB989DA8B}" name="ey12" dataDxfId="15"/>
+    <tableColumn id="28" xr3:uid="{C97151EC-87D0-4367-8A75-2025E6494DC7}" name="ez1" dataDxfId="14"/>
+    <tableColumn id="29" xr3:uid="{541E17F7-50F4-4307-9D50-B9E057BD7532}" name="ez2" dataDxfId="13"/>
+    <tableColumn id="30" xr3:uid="{083F0440-9822-4414-AFD3-EB61915D220B}" name="ez3" dataDxfId="12"/>
+    <tableColumn id="31" xr3:uid="{B99A133F-7662-49E7-A5C1-41EB7ACF0A1B}" name="ez4" dataDxfId="11"/>
+    <tableColumn id="32" xr3:uid="{6F859D8F-686E-461C-A880-A7F72EDA2CEC}" name="ez5" dataDxfId="10"/>
+    <tableColumn id="33" xr3:uid="{8BFE1D29-926C-40EA-B23E-60D527E142B9}" name="ez6" dataDxfId="9"/>
+    <tableColumn id="34" xr3:uid="{CBEB918A-3E95-4166-881F-467C282888E4}" name="ez7" dataDxfId="8"/>
+    <tableColumn id="35" xr3:uid="{E1368E9B-3BF3-48EB-AA72-9D83EB851788}" name="ez8" dataDxfId="7"/>
+    <tableColumn id="36" xr3:uid="{932B9382-0DCE-4686-837B-3A82E2795AFE}" name="ez9" dataDxfId="6"/>
+    <tableColumn id="37" xr3:uid="{59B3B040-71F9-488E-8E38-E0823893E0E0}" name="ez10" dataDxfId="5"/>
+    <tableColumn id="38" xr3:uid="{7DA40436-A696-461E-A554-6C685A43EB05}" name="ez11" dataDxfId="4"/>
+    <tableColumn id="39" xr3:uid="{04C99ABE-F7C7-4F28-9D5A-28A3A574F094}" name="ez12" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7527,36 +7589,36 @@
   <autoFilter ref="A1:U10" xr:uid="{95E75AE4-0E74-4D08-BD2D-E45E9E2D40EF}"/>
   <tableColumns count="21">
     <tableColumn id="1" xr3:uid="{4DFE2A6A-28EF-4B7D-9D6B-8C7126C474DC}" name="Pier ID"/>
-    <tableColumn id="2" xr3:uid="{E166320C-7F4A-4745-AAD2-3F834A936461}" name="Pile tip EL [m]" dataDxfId="268">
+    <tableColumn id="2" xr3:uid="{E166320C-7F4A-4745-AAD2-3F834A936461}" name="Pile tip EL [m]" dataDxfId="271">
       <calculatedColumnFormula>DBsub[[#This Row],[Pile top EL '[m']]]-#REF!</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{70542207-5AE2-4AE5-871F-64A065E63660}" name="Pile top EL [m]"/>
     <tableColumn id="4" xr3:uid="{FCF6E428-BBCE-4F7D-903F-604422CEE017}" name="Piercap bottom EL [m]"/>
-    <tableColumn id="5" xr3:uid="{DAE1B51C-601F-4A64-9CDF-10D31638D645}" name="Piercap top EL [m]" dataDxfId="267">
+    <tableColumn id="5" xr3:uid="{DAE1B51C-601F-4A64-9CDF-10D31638D645}" name="Piercap top EL [m]" dataDxfId="270">
       <calculatedColumnFormula>DBsub[[#This Row],[Piercap bottom EL '[m']]]+IF(LEFT(DBsub[[#This Row],[Type1]],1)="A",1.5,IF(LEFT(DBsub[[#This Row],[Type1]],1)="C",2,IF(LEFT(DBsub[[#This Row],[Type1]],1)="D",2.5,"check pier type")))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{AE3967D5-10CC-43C3-9B15-5FFA856407A7}" name="Pier column Height H [m]" dataDxfId="266">
+    <tableColumn id="6" xr3:uid="{AE3967D5-10CC-43C3-9B15-5FFA856407A7}" name="Pier column Height H [m]" dataDxfId="269">
       <calculatedColumnFormula>DBsub[[#This Row],[Piercap bottom EL '[m']]]-DBsub[[#This Row],[Pile top EL '[m']]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="7" xr3:uid="{FD7EA8A4-A730-40C7-8C84-E410AC0DEF8B}" name="Mat_pier"/>
     <tableColumn id="8" xr3:uid="{FD56B385-755B-4C44-AD3F-07DC8818C3F5}" name="Mat_pile"/>
     <tableColumn id="11" xr3:uid="{B621D5D1-4C55-49CD-B0D2-33EF37813376}" name="Sec_pier"/>
     <tableColumn id="13" xr3:uid="{EE1A062E-DD00-4171-8919-DBC94009C266}" name="Sec_pile"/>
-    <tableColumn id="15" xr3:uid="{FD4C429D-5B1F-4961-939B-F77EA31BE083}" name="Type1" dataDxfId="265"/>
-    <tableColumn id="16" xr3:uid="{28DB86F1-E9B3-49D7-B76D-CECF4507A73D}" name="L/M" dataDxfId="264"/>
-    <tableColumn id="10" xr3:uid="{B78EC06B-51EF-48AC-B9C1-F1A2B0C3E6DA}" name="(x)sup type" dataDxfId="263"/>
-    <tableColumn id="9" xr3:uid="{11B601B2-732A-406D-92AB-C0364821AE48}" name="track beam top" dataDxfId="262">
+    <tableColumn id="15" xr3:uid="{FD4C429D-5B1F-4961-939B-F77EA31BE083}" name="Type1" dataDxfId="268"/>
+    <tableColumn id="16" xr3:uid="{28DB86F1-E9B3-49D7-B76D-CECF4507A73D}" name="L/M" dataDxfId="267"/>
+    <tableColumn id="10" xr3:uid="{B78EC06B-51EF-48AC-B9C1-F1A2B0C3E6DA}" name="(x)sup type" dataDxfId="266"/>
+    <tableColumn id="9" xr3:uid="{11B601B2-732A-406D-92AB-C0364821AE48}" name="track beam top" dataDxfId="265">
       <calculatedColumnFormula>IF(DBsub[[#This Row],[(x)sup type]]=1,DBsub[[#This Row],[Piercap top EL '[m']]]+2.6,DBsub[[#This Row],[Piercap top EL '[m']]]+2.9)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{7C5548A5-13FD-4855-98F6-B5014DE4B0E5}" name="pier_Dia" dataDxfId="261"/>
-    <tableColumn id="14" xr3:uid="{E8ECF7E9-D495-4A4C-8C68-55D066038CCC}" name="Module id" dataDxfId="260">
+    <tableColumn id="12" xr3:uid="{7C5548A5-13FD-4855-98F6-B5014DE4B0E5}" name="pier_Dia" dataDxfId="264"/>
+    <tableColumn id="14" xr3:uid="{E8ECF7E9-D495-4A4C-8C68-55D066038CCC}" name="Module id" dataDxfId="263">
       <calculatedColumnFormula>DBsup[[#This Row],[Module id]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{F0C1C14A-B64A-4145-B852-FDC4C780230C}" name="D_R" dataDxfId="259"/>
-    <tableColumn id="18" xr3:uid="{5B9A37C3-E57D-445B-A657-CCE4082EC8AB}" name="D_L" dataDxfId="258"/>
-    <tableColumn id="19" xr3:uid="{7CC09E29-15F1-47FD-A575-28B73AA7E64D}" name="D_RelAng" dataDxfId="257"/>
-    <tableColumn id="20" xr3:uid="{0200CE47-AFC1-41A7-B7B9-4398F0048C67}" name="D_R2" dataDxfId="256"/>
-    <tableColumn id="21" xr3:uid="{2EBAB4DF-A07B-4A6A-AF4F-3600F803F3C4}" name="D_L2" dataDxfId="255"/>
+    <tableColumn id="17" xr3:uid="{F0C1C14A-B64A-4145-B852-FDC4C780230C}" name="D_R" dataDxfId="262"/>
+    <tableColumn id="18" xr3:uid="{5B9A37C3-E57D-445B-A657-CCE4082EC8AB}" name="D_L" dataDxfId="261"/>
+    <tableColumn id="19" xr3:uid="{7CC09E29-15F1-47FD-A575-28B73AA7E64D}" name="D_RelAng" dataDxfId="260"/>
+    <tableColumn id="20" xr3:uid="{0200CE47-AFC1-41A7-B7B9-4398F0048C67}" name="D_R2" dataDxfId="259"/>
+    <tableColumn id="21" xr3:uid="{2EBAB4DF-A07B-4A6A-AF4F-3600F803F3C4}" name="D_L2" dataDxfId="258"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7609,7 +7671,7 @@
     <tableColumn id="6" xr3:uid="{82DA9565-3FBA-4490-B1A4-2860668FF4B9}" name="kh">
       <calculatedColumnFormula>V5</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{122E9988-DE0C-4EAC-9EAA-93FB06A5638D}" name="Pile_length" dataDxfId="254">
+    <tableColumn id="7" xr3:uid="{122E9988-DE0C-4EAC-9EAA-93FB06A5638D}" name="Pile_length" dataDxfId="257">
       <calculatedColumnFormula>VLOOKUP(DBsoil[[#This Row],[Pile id]],$X$5:$Y$20,2)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7618,128 +7680,128 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{62BA4E00-CEB4-4DAB-8A91-5FAADABAB13A}" name="DBtendonA" displayName="DBtendonA" ref="A1:AQ16" totalsRowShown="0" headerRowDxfId="253" dataDxfId="252" tableBorderDxfId="251">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{62BA4E00-CEB4-4DAB-8A91-5FAADABAB13A}" name="DBtendonA" displayName="DBtendonA" ref="A1:AQ16" totalsRowShown="0" headerRowDxfId="256" dataDxfId="255" tableBorderDxfId="254">
   <autoFilter ref="A1:AQ16" xr:uid="{1A0B75A0-2768-4BBA-BFEC-060DE896EFA7}"/>
   <tableColumns count="43">
     <tableColumn id="15" xr3:uid="{811FA365-41C6-4509-BE4F-E36CB71C70A6}" name="seg id"/>
-    <tableColumn id="17" xr3:uid="{38DAA9C9-06FF-499E-9FFB-71B770A610B8}" name="pier type start" dataDxfId="250">
+    <tableColumn id="17" xr3:uid="{38DAA9C9-06FF-499E-9FFB-71B770A610B8}" name="pier type start" dataDxfId="253">
       <calculatedColumnFormula>VLOOKUP(DBtendonA[[#This Row],[seg id]],DBsup[],6,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{34920153-5FE0-45EF-A8F1-4AF0CCBF3C56}" name="pier type end" dataDxfId="249">
+    <tableColumn id="18" xr3:uid="{34920153-5FE0-45EF-A8F1-4AF0CCBF3C56}" name="pier type end" dataDxfId="252">
       <calculatedColumnFormula>VLOOKUP(DBtendonA[[#This Row],[seg id]],DBsup[],7,0)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="16" xr3:uid="{9501789E-B933-498C-A686-270F6BBCC183}" name="PT type"/>
     <tableColumn id="1" xr3:uid="{56635030-100B-41D4-945E-3A46D6AC2D10}" name="PT id">
       <calculatedColumnFormula>"A"&amp;DBtendonA[[#This Row],[seg id]]&amp;"-"&amp;DBtendonA[[#This Row],[PT type]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{8221A0F6-37F7-42D3-9966-955EA4B80FDB}" name="tendon_prop_A" dataDxfId="248"/>
-    <tableColumn id="45" xr3:uid="{D77542C7-C5C4-46AA-BA88-D26FB5A26B90}" name="PS" dataDxfId="247"/>
-    <tableColumn id="5" xr3:uid="{A56A2439-CEF3-4B7B-B6F9-40F6C4E5C36F}" name="dLez1" dataDxfId="246">
+    <tableColumn id="2" xr3:uid="{8221A0F6-37F7-42D3-9966-955EA4B80FDB}" name="tendon_prop_A" dataDxfId="251"/>
+    <tableColumn id="45" xr3:uid="{D77542C7-C5C4-46AA-BA88-D26FB5A26B90}" name="PS" dataDxfId="250"/>
+    <tableColumn id="5" xr3:uid="{A56A2439-CEF3-4B7B-B6F9-40F6C4E5C36F}" name="dLez1" dataDxfId="249">
       <calculatedColumnFormula array="1">INDEX(PTprofA[],MATCH(1,(LEFT(LEFT(DBtendonA[[#This Row],[pier type start]],1),1)=PTprofA[Ptyp_s])*(LEFT(LEFT(DBtendonA[[#This Row],[pier type end]],1),1)=PTprofA[Ptyp_e])*(DBtendonA[[#This Row],[PT type]]=PTprofA[PT type]),0),MATCH(DBtendonA[[#Headers],[dLez1]],PTprofA[#Headers],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{9DD9D9A4-5EB3-4C2D-967E-8C396F444F4B}" name="dLez2" dataDxfId="245">
+    <tableColumn id="6" xr3:uid="{9DD9D9A4-5EB3-4C2D-967E-8C396F444F4B}" name="dLez2" dataDxfId="248">
       <calculatedColumnFormula array="1">INDEX(PTprofA[],MATCH(1,(LEFT(DBtendonA[[#This Row],[pier type start]],1)=PTprofA[Ptyp_s])*(LEFT(DBtendonA[[#This Row],[pier type end]],1)=PTprofA[Ptyp_e])*(DBtendonA[[#This Row],[PT type]]=PTprofA[PT type]),0),MATCH(DBtendonA[[#Headers],[dLez2]],PTprofA[#Headers],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{B3721BE2-8FDF-4308-A2B0-CF024B465F34}" name="dLez3" dataDxfId="244">
+    <tableColumn id="7" xr3:uid="{B3721BE2-8FDF-4308-A2B0-CF024B465F34}" name="dLez3" dataDxfId="247">
       <calculatedColumnFormula array="1">INDEX(PTprofA[],MATCH(1,(LEFT(DBtendonA[[#This Row],[pier type start]],1)=PTprofA[Ptyp_s])*(LEFT(DBtendonA[[#This Row],[pier type end]],1)=PTprofA[Ptyp_e])*(DBtendonA[[#This Row],[PT type]]=PTprofA[PT type]),0),MATCH(DBtendonA[[#Headers],[dLez3]],PTprofA[#Headers],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{B18A078E-08B3-4629-A5CB-EE541614FEE8}" name="dLez4" dataDxfId="243">
+    <tableColumn id="8" xr3:uid="{B18A078E-08B3-4629-A5CB-EE541614FEE8}" name="dLez4" dataDxfId="246">
       <calculatedColumnFormula array="1">INDEX(PTprofA[],MATCH(1,(LEFT(DBtendonA[[#This Row],[pier type start]],1)=PTprofA[Ptyp_s])*(LEFT(DBtendonA[[#This Row],[pier type end]],1)=PTprofA[Ptyp_e])*(DBtendonA[[#This Row],[PT type]]=PTprofA[PT type]),0),MATCH(DBtendonA[[#Headers],[dLez4]],PTprofA[#Headers],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{A9139C04-AD4A-4555-9F27-7A21983216BB}" name="dLez5" dataDxfId="242">
+    <tableColumn id="9" xr3:uid="{A9139C04-AD4A-4555-9F27-7A21983216BB}" name="dLez5" dataDxfId="245">
       <calculatedColumnFormula array="1">INDEX(PTprofA[],MATCH(1,(LEFT(DBtendonA[[#This Row],[pier type start]],1)=PTprofA[Ptyp_s])*(LEFT(DBtendonA[[#This Row],[pier type end]],1)=PTprofA[Ptyp_e])*(DBtendonA[[#This Row],[PT type]]=PTprofA[PT type]),0),MATCH(DBtendonA[[#Headers],[dLez5]],PTprofA[#Headers],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{4D1E631C-9D36-40BF-A09F-B9411E20192D}" name="dLez6" dataDxfId="241">
+    <tableColumn id="10" xr3:uid="{4D1E631C-9D36-40BF-A09F-B9411E20192D}" name="dLez6" dataDxfId="244">
       <calculatedColumnFormula array="1">INDEX(PTprofA[],MATCH(1,(LEFT(DBtendonA[[#This Row],[pier type start]],1)=PTprofA[Ptyp_s])*(LEFT(DBtendonA[[#This Row],[pier type end]],1)=PTprofA[Ptyp_e])*(DBtendonA[[#This Row],[PT type]]=PTprofA[PT type]),0),MATCH(DBtendonA[[#Headers],[dLez6]],PTprofA[#Headers],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{785DD70D-D76A-4346-BDA2-2C26B20815C1}" name="dLez7" dataDxfId="240">
+    <tableColumn id="11" xr3:uid="{785DD70D-D76A-4346-BDA2-2C26B20815C1}" name="dLez7" dataDxfId="243">
       <calculatedColumnFormula array="1">INDEX(PTprofA[],MATCH(1,(LEFT(DBtendonA[[#This Row],[pier type start]],1)=PTprofA[Ptyp_s])*(LEFT(DBtendonA[[#This Row],[pier type end]],1)=PTprofA[Ptyp_e])*(DBtendonA[[#This Row],[PT type]]=PTprofA[PT type]),0),MATCH(DBtendonA[[#Headers],[dLez7]],PTprofA[#Headers],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{8E25A657-C0BD-4DAA-AF26-18310661493F}" name="dLez8" dataDxfId="239">
+    <tableColumn id="12" xr3:uid="{8E25A657-C0BD-4DAA-AF26-18310661493F}" name="dLez8" dataDxfId="242">
       <calculatedColumnFormula array="1">INDEX(PTprofA[],MATCH(1,(LEFT(DBtendonA[[#This Row],[pier type start]],1)=PTprofA[Ptyp_s])*(LEFT(DBtendonA[[#This Row],[pier type end]],1)=PTprofA[Ptyp_e])*(DBtendonA[[#This Row],[PT type]]=PTprofA[PT type]),0),MATCH(DBtendonA[[#Headers],[dLez8]],PTprofA[#Headers],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{4DA8D1F3-9C85-47F4-BE79-455BD7E31743}" name="dLez9" dataDxfId="238">
+    <tableColumn id="13" xr3:uid="{4DA8D1F3-9C85-47F4-BE79-455BD7E31743}" name="dLez9" dataDxfId="241">
       <calculatedColumnFormula array="1">INDEX(PTprofA[],MATCH(1,(LEFT(DBtendonA[[#This Row],[pier type start]],1)=PTprofA[Ptyp_s])*(LEFT(DBtendonA[[#This Row],[pier type end]],1)=PTprofA[Ptyp_e])*(DBtendonA[[#This Row],[PT type]]=PTprofA[PT type]),0),MATCH(DBtendonA[[#Headers],[dLez9]],PTprofA[#Headers],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{0BD4C576-FF09-48B4-9647-A9B2709E93E8}" name="dLez10" dataDxfId="237">
+    <tableColumn id="14" xr3:uid="{0BD4C576-FF09-48B4-9647-A9B2709E93E8}" name="dLez10" dataDxfId="240">
       <calculatedColumnFormula array="1">INDEX(PTprofA[],MATCH(1,(LEFT(DBtendonA[[#This Row],[pier type start]],1)=PTprofA[Ptyp_s])*(LEFT(DBtendonA[[#This Row],[pier type end]],1)=PTprofA[Ptyp_e])*(DBtendonA[[#This Row],[PT type]]=PTprofA[PT type]),0),MATCH(DBtendonA[[#Headers],[dLez10]],PTprofA[#Headers],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{D8F2208D-0DA2-43D1-BA83-C13BF9AECCFA}" name="dLez11" dataDxfId="236">
+    <tableColumn id="19" xr3:uid="{D8F2208D-0DA2-43D1-BA83-C13BF9AECCFA}" name="dLez11" dataDxfId="239">
       <calculatedColumnFormula array="1">INDEX(PTprofA[],MATCH(1,(LEFT(DBtendonA[[#This Row],[pier type start]],1)=PTprofA[Ptyp_s])*(LEFT(DBtendonA[[#This Row],[pier type end]],1)=PTprofA[Ptyp_e])*(DBtendonA[[#This Row],[PT type]]=PTprofA[PT type]),0),MATCH(DBtendonA[[#Headers],[dLez11]],PTprofA[#Headers],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{B86820FB-FBB9-4688-B859-4C83220C026F}" name="dLez12" dataDxfId="235">
+    <tableColumn id="20" xr3:uid="{B86820FB-FBB9-4688-B859-4C83220C026F}" name="dLez12" dataDxfId="238">
       <calculatedColumnFormula array="1">INDEX(PTprofA[],MATCH(1,(LEFT(DBtendonA[[#This Row],[pier type start]],1)=PTprofA[Ptyp_s])*(LEFT(DBtendonA[[#This Row],[pier type end]],1)=PTprofA[Ptyp_e])*(DBtendonA[[#This Row],[PT type]]=PTprofA[PT type]),0),MATCH(DBtendonA[[#Headers],[dLez12]],PTprofA[#Headers],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" xr3:uid="{16BD8BAD-D7A0-4302-9BBF-F1353E2FE8DF}" name="ey1" dataDxfId="234">
+    <tableColumn id="21" xr3:uid="{16BD8BAD-D7A0-4302-9BBF-F1353E2FE8DF}" name="ey1" dataDxfId="237">
       <calculatedColumnFormula array="1">INDEX(PTprofA[],MATCH(1,(LEFT(DBtendonA[[#This Row],[pier type start]],1)=PTprofA[Ptyp_s])*(LEFT(DBtendonA[[#This Row],[pier type end]],1)=PTprofA[Ptyp_e])*(DBtendonA[[#This Row],[PT type]]=PTprofA[PT type]),0),MATCH(DBtendonA[[#Headers],[ey1]],PTprofA[#Headers],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" xr3:uid="{814ACB84-093B-4E3A-90E7-3D7EE2D67E5F}" name="ey2" dataDxfId="233">
+    <tableColumn id="22" xr3:uid="{814ACB84-093B-4E3A-90E7-3D7EE2D67E5F}" name="ey2" dataDxfId="236">
       <calculatedColumnFormula array="1">INDEX(PTprofA[],MATCH(1,(LEFT(DBtendonA[[#This Row],[pier type start]],1)=PTprofA[Ptyp_s])*(LEFT(DBtendonA[[#This Row],[pier type end]],1)=PTprofA[Ptyp_e])*(DBtendonA[[#This Row],[PT type]]=PTprofA[PT type]),0),MATCH(DBtendonA[[#Headers],[ey2]],PTprofA[#Headers],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" xr3:uid="{92AB5FB7-D194-4AE6-A92D-E2B21EE4D87C}" name="ey3" dataDxfId="232">
+    <tableColumn id="23" xr3:uid="{92AB5FB7-D194-4AE6-A92D-E2B21EE4D87C}" name="ey3" dataDxfId="235">
       <calculatedColumnFormula array="1">INDEX(PTprofA[],MATCH(1,(LEFT(DBtendonA[[#This Row],[pier type start]],1)=PTprofA[Ptyp_s])*(LEFT(DBtendonA[[#This Row],[pier type end]],1)=PTprofA[Ptyp_e])*(DBtendonA[[#This Row],[PT type]]=PTprofA[PT type]),0),MATCH(DBtendonA[[#Headers],[ey3]],PTprofA[#Headers],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="24" xr3:uid="{2C7588A7-92FF-45D7-8910-67B1C2558207}" name="ey4" dataDxfId="231">
+    <tableColumn id="24" xr3:uid="{2C7588A7-92FF-45D7-8910-67B1C2558207}" name="ey4" dataDxfId="234">
       <calculatedColumnFormula array="1">INDEX(PTprofA[],MATCH(1,(LEFT(DBtendonA[[#This Row],[pier type start]],1)=PTprofA[Ptyp_s])*(LEFT(DBtendonA[[#This Row],[pier type end]],1)=PTprofA[Ptyp_e])*(DBtendonA[[#This Row],[PT type]]=PTprofA[PT type]),0),MATCH(DBtendonA[[#Headers],[ey4]],PTprofA[#Headers],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="25" xr3:uid="{9F89B6ED-BCE8-4087-BDA6-43C5CEA65903}" name="ey5" dataDxfId="230">
+    <tableColumn id="25" xr3:uid="{9F89B6ED-BCE8-4087-BDA6-43C5CEA65903}" name="ey5" dataDxfId="233">
       <calculatedColumnFormula array="1">INDEX(PTprofA[],MATCH(1,(LEFT(DBtendonA[[#This Row],[pier type start]],1)=PTprofA[Ptyp_s])*(LEFT(DBtendonA[[#This Row],[pier type end]],1)=PTprofA[Ptyp_e])*(DBtendonA[[#This Row],[PT type]]=PTprofA[PT type]),0),MATCH(DBtendonA[[#Headers],[ey5]],PTprofA[#Headers],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="26" xr3:uid="{F0CD750D-CFFF-4037-A9D4-1C90D69067E1}" name="ey6" dataDxfId="229">
+    <tableColumn id="26" xr3:uid="{F0CD750D-CFFF-4037-A9D4-1C90D69067E1}" name="ey6" dataDxfId="232">
       <calculatedColumnFormula array="1">INDEX(PTprofA[],MATCH(1,(LEFT(DBtendonA[[#This Row],[pier type start]],1)=PTprofA[Ptyp_s])*(LEFT(DBtendonA[[#This Row],[pier type end]],1)=PTprofA[Ptyp_e])*(DBtendonA[[#This Row],[PT type]]=PTprofA[PT type]),0),MATCH(DBtendonA[[#Headers],[ey6]],PTprofA[#Headers],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="27" xr3:uid="{A49C24F3-7D12-423C-A69D-7B98032D4B95}" name="ey7" dataDxfId="228">
+    <tableColumn id="27" xr3:uid="{A49C24F3-7D12-423C-A69D-7B98032D4B95}" name="ey7" dataDxfId="231">
       <calculatedColumnFormula array="1">INDEX(PTprofA[],MATCH(1,(LEFT(DBtendonA[[#This Row],[pier type start]],1)=PTprofA[Ptyp_s])*(LEFT(DBtendonA[[#This Row],[pier type end]],1)=PTprofA[Ptyp_e])*(DBtendonA[[#This Row],[PT type]]=PTprofA[PT type]),0),MATCH(DBtendonA[[#Headers],[ey7]],PTprofA[#Headers],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="28" xr3:uid="{B9D91571-DEDD-4A74-A126-492C00EE4006}" name="ey8" dataDxfId="227">
+    <tableColumn id="28" xr3:uid="{B9D91571-DEDD-4A74-A126-492C00EE4006}" name="ey8" dataDxfId="230">
       <calculatedColumnFormula array="1">INDEX(PTprofA[],MATCH(1,(LEFT(DBtendonA[[#This Row],[pier type start]],1)=PTprofA[Ptyp_s])*(LEFT(DBtendonA[[#This Row],[pier type end]],1)=PTprofA[Ptyp_e])*(DBtendonA[[#This Row],[PT type]]=PTprofA[PT type]),0),MATCH(DBtendonA[[#Headers],[ey8]],PTprofA[#Headers],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="29" xr3:uid="{CB815FE1-3353-4EAA-B961-504A3D7E8763}" name="ey9" dataDxfId="226">
+    <tableColumn id="29" xr3:uid="{CB815FE1-3353-4EAA-B961-504A3D7E8763}" name="ey9" dataDxfId="229">
       <calculatedColumnFormula array="1">INDEX(PTprofA[],MATCH(1,(LEFT(DBtendonA[[#This Row],[pier type start]],1)=PTprofA[Ptyp_s])*(LEFT(DBtendonA[[#This Row],[pier type end]],1)=PTprofA[Ptyp_e])*(DBtendonA[[#This Row],[PT type]]=PTprofA[PT type]),0),MATCH(DBtendonA[[#Headers],[ey9]],PTprofA[#Headers],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="30" xr3:uid="{848A40CA-7C96-45D8-8149-0DDC4F9932FC}" name="ey10" dataDxfId="225">
+    <tableColumn id="30" xr3:uid="{848A40CA-7C96-45D8-8149-0DDC4F9932FC}" name="ey10" dataDxfId="228">
       <calculatedColumnFormula array="1">INDEX(PTprofA[],MATCH(1,(LEFT(DBtendonA[[#This Row],[pier type start]],1)=PTprofA[Ptyp_s])*(LEFT(DBtendonA[[#This Row],[pier type end]],1)=PTprofA[Ptyp_e])*(DBtendonA[[#This Row],[PT type]]=PTprofA[PT type]),0),MATCH(DBtendonA[[#Headers],[ey10]],PTprofA[#Headers],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="31" xr3:uid="{1A1F5636-9675-44E4-AE07-5261DD5CFA55}" name="ey11" dataDxfId="224">
+    <tableColumn id="31" xr3:uid="{1A1F5636-9675-44E4-AE07-5261DD5CFA55}" name="ey11" dataDxfId="227">
       <calculatedColumnFormula array="1">INDEX(PTprofA[],MATCH(1,(LEFT(DBtendonA[[#This Row],[pier type start]],1)=PTprofA[Ptyp_s])*(LEFT(DBtendonA[[#This Row],[pier type end]],1)=PTprofA[Ptyp_e])*(DBtendonA[[#This Row],[PT type]]=PTprofA[PT type]),0),MATCH(DBtendonA[[#Headers],[ey11]],PTprofA[#Headers],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="32" xr3:uid="{A53AA3BE-550B-4652-91E7-DF14667F5B7C}" name="ey12" dataDxfId="223">
+    <tableColumn id="32" xr3:uid="{A53AA3BE-550B-4652-91E7-DF14667F5B7C}" name="ey12" dataDxfId="226">
       <calculatedColumnFormula array="1">INDEX(PTprofA[],MATCH(1,(LEFT(DBtendonA[[#This Row],[pier type start]],1)=PTprofA[Ptyp_s])*(LEFT(DBtendonA[[#This Row],[pier type end]],1)=PTprofA[Ptyp_e])*(DBtendonA[[#This Row],[PT type]]=PTprofA[PT type]),0),MATCH(DBtendonA[[#Headers],[ey12]],PTprofA[#Headers],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="33" xr3:uid="{D236A36C-A97C-4A1A-8334-A7515EEA9C7C}" name="ez1" dataDxfId="222">
+    <tableColumn id="33" xr3:uid="{D236A36C-A97C-4A1A-8334-A7515EEA9C7C}" name="ez1" dataDxfId="225">
       <calculatedColumnFormula array="1">INDEX(PTprofA[],MATCH(1,(LEFT(DBtendonA[[#This Row],[pier type start]],1)=PTprofA[Ptyp_s])*(LEFT(DBtendonA[[#This Row],[pier type end]],1)=PTprofA[Ptyp_e])*(DBtendonA[[#This Row],[PT type]]=PTprofA[PT type]),0),MATCH(DBtendonA[[#Headers],[ez1]],PTprofA[#Headers],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="34" xr3:uid="{AE2B7364-956B-4610-827F-FB2F8F4AFEB9}" name="ez2" dataDxfId="221">
+    <tableColumn id="34" xr3:uid="{AE2B7364-956B-4610-827F-FB2F8F4AFEB9}" name="ez2" dataDxfId="224">
       <calculatedColumnFormula array="1">INDEX(PTprofA[],MATCH(1,(LEFT(DBtendonA[[#This Row],[pier type start]],1)=PTprofA[Ptyp_s])*(LEFT(DBtendonA[[#This Row],[pier type end]],1)=PTprofA[Ptyp_e])*(DBtendonA[[#This Row],[PT type]]=PTprofA[PT type]),0),MATCH(DBtendonA[[#Headers],[ez2]],PTprofA[#Headers],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="35" xr3:uid="{3E3B832B-2A25-4752-B3E1-5E2EAA6ABC6B}" name="ez3" dataDxfId="220">
+    <tableColumn id="35" xr3:uid="{3E3B832B-2A25-4752-B3E1-5E2EAA6ABC6B}" name="ez3" dataDxfId="223">
       <calculatedColumnFormula array="1">INDEX(PTprofA[],MATCH(1,(LEFT(DBtendonA[[#This Row],[pier type start]],1)=PTprofA[Ptyp_s])*(LEFT(DBtendonA[[#This Row],[pier type end]],1)=PTprofA[Ptyp_e])*(DBtendonA[[#This Row],[PT type]]=PTprofA[PT type]),0),MATCH(DBtendonA[[#Headers],[ez3]],PTprofA[#Headers],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="36" xr3:uid="{000189AD-8595-44AE-AC3A-FB8903F42C9C}" name="ez4" dataDxfId="219">
+    <tableColumn id="36" xr3:uid="{000189AD-8595-44AE-AC3A-FB8903F42C9C}" name="ez4" dataDxfId="222">
       <calculatedColumnFormula array="1">INDEX(PTprofA[],MATCH(1,(LEFT(DBtendonA[[#This Row],[pier type start]],1)=PTprofA[Ptyp_s])*(LEFT(DBtendonA[[#This Row],[pier type end]],1)=PTprofA[Ptyp_e])*(DBtendonA[[#This Row],[PT type]]=PTprofA[PT type]),0),MATCH(DBtendonA[[#Headers],[ez4]],PTprofA[#Headers],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="37" xr3:uid="{D52370BB-7A69-42A1-BC11-2CB24341F784}" name="ez5" dataDxfId="218">
+    <tableColumn id="37" xr3:uid="{D52370BB-7A69-42A1-BC11-2CB24341F784}" name="ez5" dataDxfId="221">
       <calculatedColumnFormula array="1">INDEX(PTprofA[],MATCH(1,(LEFT(DBtendonA[[#This Row],[pier type start]],1)=PTprofA[Ptyp_s])*(LEFT(DBtendonA[[#This Row],[pier type end]],1)=PTprofA[Ptyp_e])*(DBtendonA[[#This Row],[PT type]]=PTprofA[PT type]),0),MATCH(DBtendonA[[#Headers],[ez5]],PTprofA[#Headers],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="38" xr3:uid="{F22D5E80-09FA-4F0E-A8CE-05C099CD2F76}" name="ez6" dataDxfId="217">
+    <tableColumn id="38" xr3:uid="{F22D5E80-09FA-4F0E-A8CE-05C099CD2F76}" name="ez6" dataDxfId="220">
       <calculatedColumnFormula array="1">INDEX(PTprofA[],MATCH(1,(LEFT(DBtendonA[[#This Row],[pier type start]],1)=PTprofA[Ptyp_s])*(LEFT(DBtendonA[[#This Row],[pier type end]],1)=PTprofA[Ptyp_e])*(DBtendonA[[#This Row],[PT type]]=PTprofA[PT type]),0),MATCH(DBtendonA[[#Headers],[ez6]],PTprofA[#Headers],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="39" xr3:uid="{116A6B86-DFE2-400B-947A-AC68645E93BA}" name="ez7" dataDxfId="216">
+    <tableColumn id="39" xr3:uid="{116A6B86-DFE2-400B-947A-AC68645E93BA}" name="ez7" dataDxfId="219">
       <calculatedColumnFormula array="1">INDEX(PTprofA[],MATCH(1,(LEFT(DBtendonA[[#This Row],[pier type start]],1)=PTprofA[Ptyp_s])*(LEFT(DBtendonA[[#This Row],[pier type end]],1)=PTprofA[Ptyp_e])*(DBtendonA[[#This Row],[PT type]]=PTprofA[PT type]),0),MATCH(DBtendonA[[#Headers],[ez7]],PTprofA[#Headers],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="40" xr3:uid="{40565957-C3A9-458D-BD70-FCC7436277BC}" name="ez8" dataDxfId="215">
+    <tableColumn id="40" xr3:uid="{40565957-C3A9-458D-BD70-FCC7436277BC}" name="ez8" dataDxfId="218">
       <calculatedColumnFormula array="1">INDEX(PTprofA[],MATCH(1,(LEFT(DBtendonA[[#This Row],[pier type start]],1)=PTprofA[Ptyp_s])*(LEFT(DBtendonA[[#This Row],[pier type end]],1)=PTprofA[Ptyp_e])*(DBtendonA[[#This Row],[PT type]]=PTprofA[PT type]),0),MATCH(DBtendonA[[#Headers],[ez8]],PTprofA[#Headers],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="41" xr3:uid="{58E2C60A-CF18-44BA-8496-00ECC0824BCD}" name="ez9" dataDxfId="214">
+    <tableColumn id="41" xr3:uid="{58E2C60A-CF18-44BA-8496-00ECC0824BCD}" name="ez9" dataDxfId="217">
       <calculatedColumnFormula array="1">INDEX(PTprofA[],MATCH(1,(LEFT(DBtendonA[[#This Row],[pier type start]],1)=PTprofA[Ptyp_s])*(LEFT(DBtendonA[[#This Row],[pier type end]],1)=PTprofA[Ptyp_e])*(DBtendonA[[#This Row],[PT type]]=PTprofA[PT type]),0),MATCH(DBtendonA[[#Headers],[ez9]],PTprofA[#Headers],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="42" xr3:uid="{9B8A41D3-1A57-4612-9673-519022ABF724}" name="ez10" dataDxfId="213">
+    <tableColumn id="42" xr3:uid="{9B8A41D3-1A57-4612-9673-519022ABF724}" name="ez10" dataDxfId="216">
       <calculatedColumnFormula array="1">INDEX(PTprofA[],MATCH(1,(LEFT(DBtendonA[[#This Row],[pier type start]],1)=PTprofA[Ptyp_s])*(LEFT(DBtendonA[[#This Row],[pier type end]],1)=PTprofA[Ptyp_e])*(DBtendonA[[#This Row],[PT type]]=PTprofA[PT type]),0),MATCH(DBtendonA[[#Headers],[ez10]],PTprofA[#Headers],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="43" xr3:uid="{F9EDE67F-C829-4D08-9376-7419AD100D19}" name="ez11" dataDxfId="212">
+    <tableColumn id="43" xr3:uid="{F9EDE67F-C829-4D08-9376-7419AD100D19}" name="ez11" dataDxfId="215">
       <calculatedColumnFormula array="1">INDEX(PTprofA[],MATCH(1,(LEFT(DBtendonA[[#This Row],[pier type start]],1)=PTprofA[Ptyp_s])*(LEFT(DBtendonA[[#This Row],[pier type end]],1)=PTprofA[Ptyp_e])*(DBtendonA[[#This Row],[PT type]]=PTprofA[PT type]),0),MATCH(DBtendonA[[#Headers],[ez11]],PTprofA[#Headers],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="44" xr3:uid="{932744A7-EA15-48A5-981D-D926BC15B1AD}" name="ez12" dataDxfId="211">
+    <tableColumn id="44" xr3:uid="{932744A7-EA15-48A5-981D-D926BC15B1AD}" name="ez12" dataDxfId="214">
       <calculatedColumnFormula array="1">INDEX(PTprofA[],MATCH(1,(LEFT(DBtendonA[[#This Row],[pier type start]],1)=PTprofA[Ptyp_s])*(LEFT(DBtendonA[[#This Row],[pier type end]],1)=PTprofA[Ptyp_e])*(DBtendonA[[#This Row],[PT type]]=PTprofA[PT type]),0),MATCH(DBtendonA[[#Headers],[ez12]],PTprofA[#Headers],0))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7748,128 +7810,128 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{5E119EFF-40C2-4F17-AA1E-BE07C21F49F8}" name="DBtendonB" displayName="DBtendonB" ref="A1:AQ13" totalsRowShown="0" headerRowDxfId="210" dataDxfId="209" tableBorderDxfId="208">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{5E119EFF-40C2-4F17-AA1E-BE07C21F49F8}" name="DBtendonB" displayName="DBtendonB" ref="A1:AQ13" totalsRowShown="0" headerRowDxfId="213" dataDxfId="212" tableBorderDxfId="211">
   <autoFilter ref="A1:AQ13" xr:uid="{77BC963B-16A4-4B58-90D5-DFB19A55ACCB}"/>
   <tableColumns count="43">
     <tableColumn id="15" xr3:uid="{640322C3-5AA3-411A-9A47-C68ED9C8C921}" name="seg id"/>
-    <tableColumn id="17" xr3:uid="{93265D44-B3FC-4EC5-B495-D4105C03C095}" name="pier type start" dataDxfId="207">
+    <tableColumn id="17" xr3:uid="{93265D44-B3FC-4EC5-B495-D4105C03C095}" name="pier type start" dataDxfId="210">
       <calculatedColumnFormula>VLOOKUP(DBtendonB[[#This Row],[seg id]],DBsup[],6,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{36CD8E8C-90E7-431F-AC0F-5F2E570DAF67}" name="pier type end" dataDxfId="206">
+    <tableColumn id="18" xr3:uid="{36CD8E8C-90E7-431F-AC0F-5F2E570DAF67}" name="pier type end" dataDxfId="209">
       <calculatedColumnFormula>VLOOKUP(DBtendonB[[#This Row],[seg id]],DBsup[],7,0)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="16" xr3:uid="{28EAEDB5-02B5-4C52-A464-4D54280437E7}" name="PT type"/>
-    <tableColumn id="1" xr3:uid="{883695B5-517F-4FF2-BA17-803686EA9F5F}" name="PT id" dataDxfId="205">
+    <tableColumn id="1" xr3:uid="{883695B5-517F-4FF2-BA17-803686EA9F5F}" name="PT id" dataDxfId="208">
       <calculatedColumnFormula>"B"&amp;VLOOKUP(DBtendonB[[#This Row],[seg id]],DBsup[],9,0)&amp;"-"&amp;DBtendonB[[#This Row],[PT type]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{A158255D-81A7-40AA-91FC-312BF7DBCAAB}" name="tendon_prop_A" dataDxfId="204"/>
-    <tableColumn id="45" xr3:uid="{07A05C2E-800F-4C2A-ADA4-4555717637C2}" name="PS" dataDxfId="203"/>
-    <tableColumn id="5" xr3:uid="{E46BD126-629D-4358-A7EB-F5D2BE7168C1}" name="dLez1" dataDxfId="202">
+    <tableColumn id="2" xr3:uid="{A158255D-81A7-40AA-91FC-312BF7DBCAAB}" name="tendon_prop_A" dataDxfId="207"/>
+    <tableColumn id="45" xr3:uid="{07A05C2E-800F-4C2A-ADA4-4555717637C2}" name="PS" dataDxfId="206"/>
+    <tableColumn id="5" xr3:uid="{E46BD126-629D-4358-A7EB-F5D2BE7168C1}" name="dLez1" dataDxfId="205">
       <calculatedColumnFormula array="1">INDEX(PTprofB[],MATCH(1,(LEFT(DBtendonB[[#This Row],[pier type start]],1)=PTprofB[Ptyp_s])*(LEFT(DBtendonB[[#This Row],[pier type end]],1)=PTprofB[Ptyp_e])*(DBtendonB[[#This Row],[PT type]]=PTprofB[PT type]),0),MATCH(DBtendonB[[#Headers],[dLez1]],PTprofB[#Headers],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{605F1880-249F-4A38-AF6D-FE635B271357}" name="dLez2" dataDxfId="201">
+    <tableColumn id="6" xr3:uid="{605F1880-249F-4A38-AF6D-FE635B271357}" name="dLez2" dataDxfId="204">
       <calculatedColumnFormula array="1">INDEX(PTprofB[],MATCH(1,(LEFT(DBtendonB[[#This Row],[pier type start]],1)=PTprofB[Ptyp_s])*(LEFT(DBtendonB[[#This Row],[pier type end]],1)=PTprofB[Ptyp_e])*(DBtendonB[[#This Row],[PT type]]=PTprofB[PT type]),0),MATCH(DBtendonB[[#Headers],[dLez2]],PTprofB[#Headers],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{3135D95F-E988-4768-AC9C-B50DCCD0D2AC}" name="dLez3" dataDxfId="200">
+    <tableColumn id="7" xr3:uid="{3135D95F-E988-4768-AC9C-B50DCCD0D2AC}" name="dLez3" dataDxfId="203">
       <calculatedColumnFormula array="1">INDEX(PTprofB[],MATCH(1,(LEFT(DBtendonB[[#This Row],[pier type start]],1)=PTprofB[Ptyp_s])*(LEFT(DBtendonB[[#This Row],[pier type end]],1)=PTprofB[Ptyp_e])*(DBtendonB[[#This Row],[PT type]]=PTprofB[PT type]),0),MATCH(DBtendonB[[#Headers],[dLez3]],PTprofB[#Headers],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{E74FE8CC-9673-442C-B6C8-961F7EB7654E}" name="dLez4" dataDxfId="199">
+    <tableColumn id="8" xr3:uid="{E74FE8CC-9673-442C-B6C8-961F7EB7654E}" name="dLez4" dataDxfId="202">
       <calculatedColumnFormula array="1">INDEX(PTprofB[],MATCH(1,(LEFT(DBtendonB[[#This Row],[pier type start]],1)=PTprofB[Ptyp_s])*(LEFT(DBtendonB[[#This Row],[pier type end]],1)=PTprofB[Ptyp_e])*(DBtendonB[[#This Row],[PT type]]=PTprofB[PT type]),0),MATCH(DBtendonB[[#Headers],[dLez4]],PTprofB[#Headers],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{5770F02F-23E8-46F0-B3C2-BF471C6D203B}" name="dLez5" dataDxfId="198">
+    <tableColumn id="9" xr3:uid="{5770F02F-23E8-46F0-B3C2-BF471C6D203B}" name="dLez5" dataDxfId="201">
       <calculatedColumnFormula array="1">INDEX(PTprofB[],MATCH(1,(LEFT(DBtendonB[[#This Row],[pier type start]],1)=PTprofB[Ptyp_s])*(LEFT(DBtendonB[[#This Row],[pier type end]],1)=PTprofB[Ptyp_e])*(DBtendonB[[#This Row],[PT type]]=PTprofB[PT type]),0),MATCH(DBtendonB[[#Headers],[dLez5]],PTprofB[#Headers],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{0FF22714-E3CD-4800-A722-52D3DA61675B}" name="dLez6" dataDxfId="197">
+    <tableColumn id="10" xr3:uid="{0FF22714-E3CD-4800-A722-52D3DA61675B}" name="dLez6" dataDxfId="200">
       <calculatedColumnFormula array="1">INDEX(PTprofB[],MATCH(1,(LEFT(DBtendonB[[#This Row],[pier type start]],1)=PTprofB[Ptyp_s])*(LEFT(DBtendonB[[#This Row],[pier type end]],1)=PTprofB[Ptyp_e])*(DBtendonB[[#This Row],[PT type]]=PTprofB[PT type]),0),MATCH(DBtendonB[[#Headers],[dLez6]],PTprofB[#Headers],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{E9011EE1-6F01-4480-83B1-0984A0DC8D15}" name="dLez7" dataDxfId="196">
+    <tableColumn id="11" xr3:uid="{E9011EE1-6F01-4480-83B1-0984A0DC8D15}" name="dLez7" dataDxfId="199">
       <calculatedColumnFormula array="1">INDEX(PTprofB[],MATCH(1,(LEFT(DBtendonB[[#This Row],[pier type start]],1)=PTprofB[Ptyp_s])*(LEFT(DBtendonB[[#This Row],[pier type end]],1)=PTprofB[Ptyp_e])*(DBtendonB[[#This Row],[PT type]]=PTprofB[PT type]),0),MATCH(DBtendonB[[#Headers],[dLez7]],PTprofB[#Headers],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{F8DFDBD8-51C8-4695-8A38-1C9B0BD10F0E}" name="dLez8" dataDxfId="195">
+    <tableColumn id="12" xr3:uid="{F8DFDBD8-51C8-4695-8A38-1C9B0BD10F0E}" name="dLez8" dataDxfId="198">
       <calculatedColumnFormula array="1">INDEX(PTprofB[],MATCH(1,(LEFT(DBtendonB[[#This Row],[pier type start]],1)=PTprofB[Ptyp_s])*(LEFT(DBtendonB[[#This Row],[pier type end]],1)=PTprofB[Ptyp_e])*(DBtendonB[[#This Row],[PT type]]=PTprofB[PT type]),0),MATCH(DBtendonB[[#Headers],[dLez8]],PTprofB[#Headers],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{C2C4F202-F0B9-43C9-8E24-D18296596278}" name="dLez9" dataDxfId="194">
+    <tableColumn id="13" xr3:uid="{C2C4F202-F0B9-43C9-8E24-D18296596278}" name="dLez9" dataDxfId="197">
       <calculatedColumnFormula array="1">INDEX(PTprofB[],MATCH(1,(LEFT(DBtendonB[[#This Row],[pier type start]],1)=PTprofB[Ptyp_s])*(LEFT(DBtendonB[[#This Row],[pier type end]],1)=PTprofB[Ptyp_e])*(DBtendonB[[#This Row],[PT type]]=PTprofB[PT type]),0),MATCH(DBtendonB[[#Headers],[dLez9]],PTprofB[#Headers],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{78AFF8F8-3B96-4D10-AB2D-AD8155299563}" name="dLez10" dataDxfId="193">
+    <tableColumn id="14" xr3:uid="{78AFF8F8-3B96-4D10-AB2D-AD8155299563}" name="dLez10" dataDxfId="196">
       <calculatedColumnFormula array="1">INDEX(PTprofB[],MATCH(1,(LEFT(DBtendonB[[#This Row],[pier type start]],1)=PTprofB[Ptyp_s])*(LEFT(DBtendonB[[#This Row],[pier type end]],1)=PTprofB[Ptyp_e])*(DBtendonB[[#This Row],[PT type]]=PTprofB[PT type]),0),MATCH(DBtendonB[[#Headers],[dLez10]],PTprofB[#Headers],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{1EE490AB-FFB2-4808-826C-BD566A54B7D9}" name="dLez11" dataDxfId="192">
+    <tableColumn id="19" xr3:uid="{1EE490AB-FFB2-4808-826C-BD566A54B7D9}" name="dLez11" dataDxfId="195">
       <calculatedColumnFormula array="1">INDEX(PTprofB[],MATCH(1,(LEFT(DBtendonB[[#This Row],[pier type start]],1)=PTprofB[Ptyp_s])*(LEFT(DBtendonB[[#This Row],[pier type end]],1)=PTprofB[Ptyp_e])*(DBtendonB[[#This Row],[PT type]]=PTprofB[PT type]),0),MATCH(DBtendonB[[#Headers],[dLez11]],PTprofB[#Headers],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{C8D947A1-93FE-4C04-820D-7D2B11EDBFC3}" name="dLez12" dataDxfId="191">
+    <tableColumn id="20" xr3:uid="{C8D947A1-93FE-4C04-820D-7D2B11EDBFC3}" name="dLez12" dataDxfId="194">
       <calculatedColumnFormula array="1">INDEX(PTprofB[],MATCH(1,(LEFT(DBtendonB[[#This Row],[pier type start]],1)=PTprofB[Ptyp_s])*(LEFT(DBtendonB[[#This Row],[pier type end]],1)=PTprofB[Ptyp_e])*(DBtendonB[[#This Row],[PT type]]=PTprofB[PT type]),0),MATCH(DBtendonB[[#Headers],[dLez12]],PTprofB[#Headers],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" xr3:uid="{B9A9F102-C659-4535-89F9-E61C61BE1C5E}" name="ey1" dataDxfId="190">
+    <tableColumn id="21" xr3:uid="{B9A9F102-C659-4535-89F9-E61C61BE1C5E}" name="ey1" dataDxfId="193">
       <calculatedColumnFormula array="1">INDEX(PTprofB[],MATCH(1,(LEFT(DBtendonB[[#This Row],[pier type start]],1)=PTprofB[Ptyp_s])*(LEFT(DBtendonB[[#This Row],[pier type end]],1)=PTprofB[Ptyp_e])*(DBtendonB[[#This Row],[PT type]]=PTprofB[PT type]),0),MATCH(DBtendonB[[#Headers],[ey1]],PTprofB[#Headers],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" xr3:uid="{6AB87AA6-4ABD-4CEF-B315-49E60B5341B7}" name="ey2" dataDxfId="189">
+    <tableColumn id="22" xr3:uid="{6AB87AA6-4ABD-4CEF-B315-49E60B5341B7}" name="ey2" dataDxfId="192">
       <calculatedColumnFormula array="1">INDEX(PTprofB[],MATCH(1,(LEFT(DBtendonB[[#This Row],[pier type start]],1)=PTprofB[Ptyp_s])*(LEFT(DBtendonB[[#This Row],[pier type end]],1)=PTprofB[Ptyp_e])*(DBtendonB[[#This Row],[PT type]]=PTprofB[PT type]),0),MATCH(DBtendonB[[#Headers],[ey2]],PTprofB[#Headers],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" xr3:uid="{ABC43CD1-D857-44F1-A7A9-07CEE137EA00}" name="ey3" dataDxfId="188">
+    <tableColumn id="23" xr3:uid="{ABC43CD1-D857-44F1-A7A9-07CEE137EA00}" name="ey3" dataDxfId="191">
       <calculatedColumnFormula array="1">INDEX(PTprofB[],MATCH(1,(LEFT(DBtendonB[[#This Row],[pier type start]],1)=PTprofB[Ptyp_s])*(LEFT(DBtendonB[[#This Row],[pier type end]],1)=PTprofB[Ptyp_e])*(DBtendonB[[#This Row],[PT type]]=PTprofB[PT type]),0),MATCH(DBtendonB[[#Headers],[ey3]],PTprofB[#Headers],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="24" xr3:uid="{35BC41D3-B5A7-45CB-83D7-B7377B4A7004}" name="ey4" dataDxfId="187">
+    <tableColumn id="24" xr3:uid="{35BC41D3-B5A7-45CB-83D7-B7377B4A7004}" name="ey4" dataDxfId="190">
       <calculatedColumnFormula array="1">INDEX(PTprofB[],MATCH(1,(LEFT(DBtendonB[[#This Row],[pier type start]],1)=PTprofB[Ptyp_s])*(LEFT(DBtendonB[[#This Row],[pier type end]],1)=PTprofB[Ptyp_e])*(DBtendonB[[#This Row],[PT type]]=PTprofB[PT type]),0),MATCH(DBtendonB[[#Headers],[ey4]],PTprofB[#Headers],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="25" xr3:uid="{CE105E0B-255D-43F9-BC55-108DFD0DD1FE}" name="ey5" dataDxfId="186">
+    <tableColumn id="25" xr3:uid="{CE105E0B-255D-43F9-BC55-108DFD0DD1FE}" name="ey5" dataDxfId="189">
       <calculatedColumnFormula array="1">INDEX(PTprofB[],MATCH(1,(LEFT(DBtendonB[[#This Row],[pier type start]],1)=PTprofB[Ptyp_s])*(LEFT(DBtendonB[[#This Row],[pier type end]],1)=PTprofB[Ptyp_e])*(DBtendonB[[#This Row],[PT type]]=PTprofB[PT type]),0),MATCH(DBtendonB[[#Headers],[ey5]],PTprofB[#Headers],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="26" xr3:uid="{E8DA4B76-DCCB-438D-AC1C-5CA6C03A2626}" name="ey6" dataDxfId="185">
+    <tableColumn id="26" xr3:uid="{E8DA4B76-DCCB-438D-AC1C-5CA6C03A2626}" name="ey6" dataDxfId="188">
       <calculatedColumnFormula array="1">INDEX(PTprofB[],MATCH(1,(LEFT(DBtendonB[[#This Row],[pier type start]],1)=PTprofB[Ptyp_s])*(LEFT(DBtendonB[[#This Row],[pier type end]],1)=PTprofB[Ptyp_e])*(DBtendonB[[#This Row],[PT type]]=PTprofB[PT type]),0),MATCH(DBtendonB[[#Headers],[ey6]],PTprofB[#Headers],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="27" xr3:uid="{C177A002-D483-4E50-B79E-808DC104E4BC}" name="ey7" dataDxfId="184">
+    <tableColumn id="27" xr3:uid="{C177A002-D483-4E50-B79E-808DC104E4BC}" name="ey7" dataDxfId="187">
       <calculatedColumnFormula array="1">INDEX(PTprofB[],MATCH(1,(LEFT(DBtendonB[[#This Row],[pier type start]],1)=PTprofB[Ptyp_s])*(LEFT(DBtendonB[[#This Row],[pier type end]],1)=PTprofB[Ptyp_e])*(DBtendonB[[#This Row],[PT type]]=PTprofB[PT type]),0),MATCH(DBtendonB[[#Headers],[ey7]],PTprofB[#Headers],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="28" xr3:uid="{E64F9FC4-5863-4DAD-9273-3AD10BEC6E52}" name="ey8" dataDxfId="183">
+    <tableColumn id="28" xr3:uid="{E64F9FC4-5863-4DAD-9273-3AD10BEC6E52}" name="ey8" dataDxfId="186">
       <calculatedColumnFormula array="1">INDEX(PTprofB[],MATCH(1,(LEFT(DBtendonB[[#This Row],[pier type start]],1)=PTprofB[Ptyp_s])*(LEFT(DBtendonB[[#This Row],[pier type end]],1)=PTprofB[Ptyp_e])*(DBtendonB[[#This Row],[PT type]]=PTprofB[PT type]),0),MATCH(DBtendonB[[#Headers],[ey8]],PTprofB[#Headers],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="29" xr3:uid="{C825C75C-DA77-4891-8B62-3710B817BF42}" name="ey9" dataDxfId="182">
+    <tableColumn id="29" xr3:uid="{C825C75C-DA77-4891-8B62-3710B817BF42}" name="ey9" dataDxfId="185">
       <calculatedColumnFormula array="1">INDEX(PTprofB[],MATCH(1,(LEFT(DBtendonB[[#This Row],[pier type start]],1)=PTprofB[Ptyp_s])*(LEFT(DBtendonB[[#This Row],[pier type end]],1)=PTprofB[Ptyp_e])*(DBtendonB[[#This Row],[PT type]]=PTprofB[PT type]),0),MATCH(DBtendonB[[#Headers],[ey9]],PTprofB[#Headers],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="30" xr3:uid="{8B584F5C-3FBD-4562-A3D3-B7BB21000369}" name="ey10" dataDxfId="181">
+    <tableColumn id="30" xr3:uid="{8B584F5C-3FBD-4562-A3D3-B7BB21000369}" name="ey10" dataDxfId="184">
       <calculatedColumnFormula array="1">INDEX(PTprofB[],MATCH(1,(LEFT(DBtendonB[[#This Row],[pier type start]],1)=PTprofB[Ptyp_s])*(LEFT(DBtendonB[[#This Row],[pier type end]],1)=PTprofB[Ptyp_e])*(DBtendonB[[#This Row],[PT type]]=PTprofB[PT type]),0),MATCH(DBtendonB[[#Headers],[ey10]],PTprofB[#Headers],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="31" xr3:uid="{EA5CBF64-8240-45B0-8A96-4F683FAAE995}" name="ey11" dataDxfId="180">
+    <tableColumn id="31" xr3:uid="{EA5CBF64-8240-45B0-8A96-4F683FAAE995}" name="ey11" dataDxfId="183">
       <calculatedColumnFormula array="1">INDEX(PTprofB[],MATCH(1,(LEFT(DBtendonB[[#This Row],[pier type start]],1)=PTprofB[Ptyp_s])*(LEFT(DBtendonB[[#This Row],[pier type end]],1)=PTprofB[Ptyp_e])*(DBtendonB[[#This Row],[PT type]]=PTprofB[PT type]),0),MATCH(DBtendonB[[#Headers],[ey11]],PTprofB[#Headers],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="32" xr3:uid="{006FF932-F32C-41B7-B984-76C128DDAC87}" name="ey12" dataDxfId="179">
+    <tableColumn id="32" xr3:uid="{006FF932-F32C-41B7-B984-76C128DDAC87}" name="ey12" dataDxfId="182">
       <calculatedColumnFormula array="1">INDEX(PTprofB[],MATCH(1,(LEFT(DBtendonB[[#This Row],[pier type start]],1)=PTprofB[Ptyp_s])*(LEFT(DBtendonB[[#This Row],[pier type end]],1)=PTprofB[Ptyp_e])*(DBtendonB[[#This Row],[PT type]]=PTprofB[PT type]),0),MATCH(DBtendonB[[#Headers],[ey12]],PTprofB[#Headers],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="33" xr3:uid="{9AAB57AD-2BC5-47D2-950B-86A0291902E6}" name="ez1" dataDxfId="178">
+    <tableColumn id="33" xr3:uid="{9AAB57AD-2BC5-47D2-950B-86A0291902E6}" name="ez1" dataDxfId="181">
       <calculatedColumnFormula array="1">INDEX(PTprofB[],MATCH(1,(LEFT(DBtendonB[[#This Row],[pier type start]],1)=PTprofB[Ptyp_s])*(LEFT(DBtendonB[[#This Row],[pier type end]],1)=PTprofB[Ptyp_e])*(DBtendonB[[#This Row],[PT type]]=PTprofB[PT type]),0),MATCH(DBtendonB[[#Headers],[ez1]],PTprofB[#Headers],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="34" xr3:uid="{0D39C60B-8E83-4B73-BFA9-FC0F1CB0B528}" name="ez2" dataDxfId="177">
+    <tableColumn id="34" xr3:uid="{0D39C60B-8E83-4B73-BFA9-FC0F1CB0B528}" name="ez2" dataDxfId="180">
       <calculatedColumnFormula array="1">INDEX(PTprofB[],MATCH(1,(LEFT(DBtendonB[[#This Row],[pier type start]],1)=PTprofB[Ptyp_s])*(LEFT(DBtendonB[[#This Row],[pier type end]],1)=PTprofB[Ptyp_e])*(DBtendonB[[#This Row],[PT type]]=PTprofB[PT type]),0),MATCH(DBtendonB[[#Headers],[ez2]],PTprofB[#Headers],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="35" xr3:uid="{3D92B16F-E556-462F-92F9-F9FA8A9CCC3D}" name="ez3" dataDxfId="176">
+    <tableColumn id="35" xr3:uid="{3D92B16F-E556-462F-92F9-F9FA8A9CCC3D}" name="ez3" dataDxfId="179">
       <calculatedColumnFormula array="1">INDEX(PTprofB[],MATCH(1,(LEFT(DBtendonB[[#This Row],[pier type start]],1)=PTprofB[Ptyp_s])*(LEFT(DBtendonB[[#This Row],[pier type end]],1)=PTprofB[Ptyp_e])*(DBtendonB[[#This Row],[PT type]]=PTprofB[PT type]),0),MATCH(DBtendonB[[#Headers],[ez3]],PTprofB[#Headers],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="36" xr3:uid="{6F53449F-FE1A-43B6-A48C-E9D8BB22F059}" name="ez4" dataDxfId="175">
+    <tableColumn id="36" xr3:uid="{6F53449F-FE1A-43B6-A48C-E9D8BB22F059}" name="ez4" dataDxfId="178">
       <calculatedColumnFormula array="1">INDEX(PTprofB[],MATCH(1,(LEFT(DBtendonB[[#This Row],[pier type start]],1)=PTprofB[Ptyp_s])*(LEFT(DBtendonB[[#This Row],[pier type end]],1)=PTprofB[Ptyp_e])*(DBtendonB[[#This Row],[PT type]]=PTprofB[PT type]),0),MATCH(DBtendonB[[#Headers],[ez4]],PTprofB[#Headers],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="37" xr3:uid="{0A32099C-046E-4261-A95B-DEBB7D37D8FB}" name="ez5" dataDxfId="174">
+    <tableColumn id="37" xr3:uid="{0A32099C-046E-4261-A95B-DEBB7D37D8FB}" name="ez5" dataDxfId="177">
       <calculatedColumnFormula array="1">INDEX(PTprofB[],MATCH(1,(LEFT(DBtendonB[[#This Row],[pier type start]],1)=PTprofB[Ptyp_s])*(LEFT(DBtendonB[[#This Row],[pier type end]],1)=PTprofB[Ptyp_e])*(DBtendonB[[#This Row],[PT type]]=PTprofB[PT type]),0),MATCH(DBtendonB[[#Headers],[ez5]],PTprofB[#Headers],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="38" xr3:uid="{A0600EA4-0343-4862-B138-3114745B9792}" name="ez6" dataDxfId="173">
+    <tableColumn id="38" xr3:uid="{A0600EA4-0343-4862-B138-3114745B9792}" name="ez6" dataDxfId="176">
       <calculatedColumnFormula array="1">INDEX(PTprofB[],MATCH(1,(LEFT(DBtendonB[[#This Row],[pier type start]],1)=PTprofB[Ptyp_s])*(LEFT(DBtendonB[[#This Row],[pier type end]],1)=PTprofB[Ptyp_e])*(DBtendonB[[#This Row],[PT type]]=PTprofB[PT type]),0),MATCH(DBtendonB[[#Headers],[ez6]],PTprofB[#Headers],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="39" xr3:uid="{E5479E58-E989-4FC1-848D-B2683BB2FF39}" name="ez7" dataDxfId="172">
+    <tableColumn id="39" xr3:uid="{E5479E58-E989-4FC1-848D-B2683BB2FF39}" name="ez7" dataDxfId="175">
       <calculatedColumnFormula array="1">INDEX(PTprofB[],MATCH(1,(LEFT(DBtendonB[[#This Row],[pier type start]],1)=PTprofB[Ptyp_s])*(LEFT(DBtendonB[[#This Row],[pier type end]],1)=PTprofB[Ptyp_e])*(DBtendonB[[#This Row],[PT type]]=PTprofB[PT type]),0),MATCH(DBtendonB[[#Headers],[ez7]],PTprofB[#Headers],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="40" xr3:uid="{3BFABD98-304B-492A-BF70-7AFBF13F16EE}" name="ez8" dataDxfId="171">
+    <tableColumn id="40" xr3:uid="{3BFABD98-304B-492A-BF70-7AFBF13F16EE}" name="ez8" dataDxfId="174">
       <calculatedColumnFormula array="1">INDEX(PTprofB[],MATCH(1,(LEFT(DBtendonB[[#This Row],[pier type start]],1)=PTprofB[Ptyp_s])*(LEFT(DBtendonB[[#This Row],[pier type end]],1)=PTprofB[Ptyp_e])*(DBtendonB[[#This Row],[PT type]]=PTprofB[PT type]),0),MATCH(DBtendonB[[#Headers],[ez8]],PTprofB[#Headers],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="41" xr3:uid="{30463E36-26EA-4DBE-AD82-58C4CEA8337B}" name="ez9" dataDxfId="170">
+    <tableColumn id="41" xr3:uid="{30463E36-26EA-4DBE-AD82-58C4CEA8337B}" name="ez9" dataDxfId="173">
       <calculatedColumnFormula array="1">INDEX(PTprofB[],MATCH(1,(LEFT(DBtendonB[[#This Row],[pier type start]],1)=PTprofB[Ptyp_s])*(LEFT(DBtendonB[[#This Row],[pier type end]],1)=PTprofB[Ptyp_e])*(DBtendonB[[#This Row],[PT type]]=PTprofB[PT type]),0),MATCH(DBtendonB[[#Headers],[ez9]],PTprofB[#Headers],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="42" xr3:uid="{6482A14B-E441-420B-858F-1E700CEC6032}" name="ez10" dataDxfId="169">
+    <tableColumn id="42" xr3:uid="{6482A14B-E441-420B-858F-1E700CEC6032}" name="ez10" dataDxfId="172">
       <calculatedColumnFormula array="1">INDEX(PTprofB[],MATCH(1,(LEFT(DBtendonB[[#This Row],[pier type start]],1)=PTprofB[Ptyp_s])*(LEFT(DBtendonB[[#This Row],[pier type end]],1)=PTprofB[Ptyp_e])*(DBtendonB[[#This Row],[PT type]]=PTprofB[PT type]),0),MATCH(DBtendonB[[#Headers],[ez10]],PTprofB[#Headers],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="43" xr3:uid="{36459A3C-6BB2-4837-B434-D6577F29BF42}" name="ez11" dataDxfId="168">
+    <tableColumn id="43" xr3:uid="{36459A3C-6BB2-4837-B434-D6577F29BF42}" name="ez11" dataDxfId="171">
       <calculatedColumnFormula array="1">INDEX(PTprofB[],MATCH(1,(LEFT(DBtendonB[[#This Row],[pier type start]],1)=PTprofB[Ptyp_s])*(LEFT(DBtendonB[[#This Row],[pier type end]],1)=PTprofB[Ptyp_e])*(DBtendonB[[#This Row],[PT type]]=PTprofB[PT type]),0),MATCH(DBtendonB[[#Headers],[ez11]],PTprofB[#Headers],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="44" xr3:uid="{89277C02-DF27-4E52-914C-23F55169CBD6}" name="ez12" dataDxfId="167">
+    <tableColumn id="44" xr3:uid="{89277C02-DF27-4E52-914C-23F55169CBD6}" name="ez12" dataDxfId="170">
       <calculatedColumnFormula array="1">INDEX(PTprofB[],MATCH(1,(LEFT(DBtendonB[[#This Row],[pier type start]],1)=PTprofB[Ptyp_s])*(LEFT(DBtendonB[[#This Row],[pier type end]],1)=PTprofB[Ptyp_e])*(DBtendonB[[#This Row],[PT type]]=PTprofB[PT type]),0),MATCH(DBtendonB[[#Headers],[ez12]],PTprofB[#Headers],0))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7878,128 +7940,128 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{C2023D16-8CB7-4C2F-AAD1-8469A3D932C0}" name="DBtendonC" displayName="DBtendonC" ref="A1:AQ13" totalsRowShown="0" headerRowDxfId="166" dataDxfId="165" tableBorderDxfId="164">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{C2023D16-8CB7-4C2F-AAD1-8469A3D932C0}" name="DBtendonC" displayName="DBtendonC" ref="A1:AQ13" totalsRowShown="0" headerRowDxfId="169" dataDxfId="168" tableBorderDxfId="167">
   <autoFilter ref="A1:AQ13" xr:uid="{77EDBAEF-E545-4B94-868C-7A80C440A067}"/>
   <tableColumns count="43">
     <tableColumn id="15" xr3:uid="{0B5A9AA2-39B1-498C-AB21-78E0D9087C41}" name="seg id"/>
-    <tableColumn id="17" xr3:uid="{71CA6B67-72BB-431D-83EA-4F3C0D896513}" name="pier type start" dataDxfId="163">
+    <tableColumn id="17" xr3:uid="{71CA6B67-72BB-431D-83EA-4F3C0D896513}" name="pier type start" dataDxfId="166">
       <calculatedColumnFormula>VLOOKUP(DBtendonC[[#This Row],[seg id]],DBsup[],6,0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{D2C1FD21-665E-4A47-9C18-EB41D95E660E}" name="pier type end" dataDxfId="162">
+    <tableColumn id="18" xr3:uid="{D2C1FD21-665E-4A47-9C18-EB41D95E660E}" name="pier type end" dataDxfId="165">
       <calculatedColumnFormula>VLOOKUP(DBtendonC[[#This Row],[seg id]],DBsup[],7,0)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="16" xr3:uid="{A958F2D8-69E8-4CB4-A6A3-7E5D1A4E4A68}" name="PT type"/>
-    <tableColumn id="1" xr3:uid="{1F4640E2-2A32-412F-953B-B1022025C3CD}" name="PT id" dataDxfId="161">
+    <tableColumn id="1" xr3:uid="{1F4640E2-2A32-412F-953B-B1022025C3CD}" name="PT id" dataDxfId="164">
       <calculatedColumnFormula>"C"&amp;VLOOKUP(DBtendonC[[#This Row],[seg id]],DBsup[],9,0)&amp;"-"&amp;DBtendonC[[#This Row],[PT type]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{FD84794D-E5FD-4E82-9329-B76035C908F5}" name="tendon_prop_A" dataDxfId="160"/>
-    <tableColumn id="45" xr3:uid="{548134F3-DF0E-4CE2-B351-89EC9E2185C1}" name="PS" dataDxfId="159"/>
-    <tableColumn id="5" xr3:uid="{4CF8E61B-A26A-48CC-8790-08386D63A060}" name="dLez1" dataDxfId="158">
+    <tableColumn id="2" xr3:uid="{FD84794D-E5FD-4E82-9329-B76035C908F5}" name="tendon_prop_A" dataDxfId="163"/>
+    <tableColumn id="45" xr3:uid="{548134F3-DF0E-4CE2-B351-89EC9E2185C1}" name="PS" dataDxfId="162"/>
+    <tableColumn id="5" xr3:uid="{4CF8E61B-A26A-48CC-8790-08386D63A060}" name="dLez1" dataDxfId="161">
       <calculatedColumnFormula array="1">INDEX(PTprofC[],MATCH(1,(LEFT(DBtendonC[[#This Row],[pier type start]],1)=PTprofC[Ptyp_s])*(LEFT(DBtendonC[[#This Row],[pier type end]],1)=PTprofC[Ptyp_e])*(DBtendonC[[#This Row],[PT type]]=PTprofC[PT type]),0),MATCH(DBtendonC[[#Headers],[dLez1]],PTprofC[#Headers],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{94353EFA-98DD-421E-A262-11236D36C21B}" name="dLez2" dataDxfId="157">
+    <tableColumn id="6" xr3:uid="{94353EFA-98DD-421E-A262-11236D36C21B}" name="dLez2" dataDxfId="160">
       <calculatedColumnFormula array="1">INDEX(PTprofC[],MATCH(1,(LEFT(DBtendonC[[#This Row],[pier type start]],1)=PTprofC[Ptyp_s])*(LEFT(DBtendonC[[#This Row],[pier type end]],1)=PTprofC[Ptyp_e])*(DBtendonC[[#This Row],[PT type]]=PTprofC[PT type]),0),MATCH(DBtendonC[[#Headers],[dLez2]],PTprofC[#Headers],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{793D9D24-1ED0-40B0-A3CF-17B1ACD671C1}" name="dLez3" dataDxfId="156">
+    <tableColumn id="7" xr3:uid="{793D9D24-1ED0-40B0-A3CF-17B1ACD671C1}" name="dLez3" dataDxfId="159">
       <calculatedColumnFormula array="1">INDEX(PTprofC[],MATCH(1,(LEFT(DBtendonC[[#This Row],[pier type start]],1)=PTprofC[Ptyp_s])*(LEFT(DBtendonC[[#This Row],[pier type end]],1)=PTprofC[Ptyp_e])*(DBtendonC[[#This Row],[PT type]]=PTprofC[PT type]),0),MATCH(DBtendonC[[#Headers],[dLez3]],PTprofC[#Headers],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{34D1C664-88E3-4BE5-B3FA-D5BD2E098E68}" name="dLez4" dataDxfId="155">
+    <tableColumn id="8" xr3:uid="{34D1C664-88E3-4BE5-B3FA-D5BD2E098E68}" name="dLez4" dataDxfId="158">
       <calculatedColumnFormula array="1">INDEX(PTprofC[],MATCH(1,(LEFT(DBtendonC[[#This Row],[pier type start]],1)=PTprofC[Ptyp_s])*(LEFT(DBtendonC[[#This Row],[pier type end]],1)=PTprofC[Ptyp_e])*(DBtendonC[[#This Row],[PT type]]=PTprofC[PT type]),0),MATCH(DBtendonC[[#Headers],[dLez4]],PTprofC[#Headers],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{33201880-79EF-4DF0-9B8F-F1063C0281FE}" name="dLez5" dataDxfId="154">
+    <tableColumn id="9" xr3:uid="{33201880-79EF-4DF0-9B8F-F1063C0281FE}" name="dLez5" dataDxfId="157">
       <calculatedColumnFormula array="1">INDEX(PTprofC[],MATCH(1,(LEFT(DBtendonC[[#This Row],[pier type start]],1)=PTprofC[Ptyp_s])*(LEFT(DBtendonC[[#This Row],[pier type end]],1)=PTprofC[Ptyp_e])*(DBtendonC[[#This Row],[PT type]]=PTprofC[PT type]),0),MATCH(DBtendonC[[#Headers],[dLez5]],PTprofC[#Headers],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{889C762D-5495-4FE6-99D0-57298655277D}" name="dLez6" dataDxfId="153">
+    <tableColumn id="10" xr3:uid="{889C762D-5495-4FE6-99D0-57298655277D}" name="dLez6" dataDxfId="156">
       <calculatedColumnFormula array="1">INDEX(PTprofC[],MATCH(1,(LEFT(DBtendonC[[#This Row],[pier type start]],1)=PTprofC[Ptyp_s])*(LEFT(DBtendonC[[#This Row],[pier type end]],1)=PTprofC[Ptyp_e])*(DBtendonC[[#This Row],[PT type]]=PTprofC[PT type]),0),MATCH(DBtendonC[[#Headers],[dLez6]],PTprofC[#Headers],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{6B032C32-C5FE-40F7-9C79-0E432AE48AFE}" name="dLez7" dataDxfId="152">
+    <tableColumn id="11" xr3:uid="{6B032C32-C5FE-40F7-9C79-0E432AE48AFE}" name="dLez7" dataDxfId="155">
       <calculatedColumnFormula array="1">INDEX(PTprofC[],MATCH(1,(LEFT(DBtendonC[[#This Row],[pier type start]],1)=PTprofC[Ptyp_s])*(LEFT(DBtendonC[[#This Row],[pier type end]],1)=PTprofC[Ptyp_e])*(DBtendonC[[#This Row],[PT type]]=PTprofC[PT type]),0),MATCH(DBtendonC[[#Headers],[dLez7]],PTprofC[#Headers],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{B832CB40-7A35-4DC8-A53D-4071DC0F1237}" name="dLez8" dataDxfId="151">
+    <tableColumn id="12" xr3:uid="{B832CB40-7A35-4DC8-A53D-4071DC0F1237}" name="dLez8" dataDxfId="154">
       <calculatedColumnFormula array="1">INDEX(PTprofC[],MATCH(1,(LEFT(DBtendonC[[#This Row],[pier type start]],1)=PTprofC[Ptyp_s])*(LEFT(DBtendonC[[#This Row],[pier type end]],1)=PTprofC[Ptyp_e])*(DBtendonC[[#This Row],[PT type]]=PTprofC[PT type]),0),MATCH(DBtendonC[[#Headers],[dLez8]],PTprofC[#Headers],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{BF8274F4-630A-41A7-A6AD-4544C7CA29CF}" name="dLez9" dataDxfId="150">
+    <tableColumn id="13" xr3:uid="{BF8274F4-630A-41A7-A6AD-4544C7CA29CF}" name="dLez9" dataDxfId="153">
       <calculatedColumnFormula array="1">INDEX(PTprofC[],MATCH(1,(LEFT(DBtendonC[[#This Row],[pier type start]],1)=PTprofC[Ptyp_s])*(LEFT(DBtendonC[[#This Row],[pier type end]],1)=PTprofC[Ptyp_e])*(DBtendonC[[#This Row],[PT type]]=PTprofC[PT type]),0),MATCH(DBtendonC[[#Headers],[dLez9]],PTprofC[#Headers],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{9FB4C196-411E-4974-BEAA-AA98C95F7FAB}" name="dLez10" dataDxfId="149">
+    <tableColumn id="14" xr3:uid="{9FB4C196-411E-4974-BEAA-AA98C95F7FAB}" name="dLez10" dataDxfId="152">
       <calculatedColumnFormula array="1">INDEX(PTprofC[],MATCH(1,(LEFT(DBtendonC[[#This Row],[pier type start]],1)=PTprofC[Ptyp_s])*(LEFT(DBtendonC[[#This Row],[pier type end]],1)=PTprofC[Ptyp_e])*(DBtendonC[[#This Row],[PT type]]=PTprofC[PT type]),0),MATCH(DBtendonC[[#Headers],[dLez10]],PTprofC[#Headers],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{427A3E50-967D-4A18-8396-56C388EDD85F}" name="dLez11" dataDxfId="148">
+    <tableColumn id="19" xr3:uid="{427A3E50-967D-4A18-8396-56C388EDD85F}" name="dLez11" dataDxfId="151">
       <calculatedColumnFormula array="1">INDEX(PTprofC[],MATCH(1,(LEFT(DBtendonC[[#This Row],[pier type start]],1)=PTprofC[Ptyp_s])*(LEFT(DBtendonC[[#This Row],[pier type end]],1)=PTprofC[Ptyp_e])*(DBtendonC[[#This Row],[PT type]]=PTprofC[PT type]),0),MATCH(DBtendonC[[#Headers],[dLez11]],PTprofC[#Headers],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{345B503B-3589-4C22-85B9-84789B7D32F8}" name="dLez12" dataDxfId="147">
+    <tableColumn id="20" xr3:uid="{345B503B-3589-4C22-85B9-84789B7D32F8}" name="dLez12" dataDxfId="150">
       <calculatedColumnFormula array="1">INDEX(PTprofC[],MATCH(1,(LEFT(DBtendonC[[#This Row],[pier type start]],1)=PTprofC[Ptyp_s])*(LEFT(DBtendonC[[#This Row],[pier type end]],1)=PTprofC[Ptyp_e])*(DBtendonC[[#This Row],[PT type]]=PTprofC[PT type]),0),MATCH(DBtendonC[[#Headers],[dLez12]],PTprofC[#Headers],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="21" xr3:uid="{3CD3D1D2-5DFA-4266-AEBD-89729EC24D55}" name="ey1" dataDxfId="146">
+    <tableColumn id="21" xr3:uid="{3CD3D1D2-5DFA-4266-AEBD-89729EC24D55}" name="ey1" dataDxfId="149">
       <calculatedColumnFormula array="1">INDEX(PTprofC[],MATCH(1,(LEFT(DBtendonC[[#This Row],[pier type start]],1)=PTprofC[Ptyp_s])*(LEFT(DBtendonC[[#This Row],[pier type end]],1)=PTprofC[Ptyp_e])*(DBtendonC[[#This Row],[PT type]]=PTprofC[PT type]),0),MATCH(DBtendonC[[#Headers],[ey1]],PTprofC[#Headers],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" xr3:uid="{EAAEF4E1-008A-413C-B4EE-99CF6636D7A5}" name="ey2" dataDxfId="145">
+    <tableColumn id="22" xr3:uid="{EAAEF4E1-008A-413C-B4EE-99CF6636D7A5}" name="ey2" dataDxfId="148">
       <calculatedColumnFormula array="1">INDEX(PTprofC[],MATCH(1,(LEFT(DBtendonC[[#This Row],[pier type start]],1)=PTprofC[Ptyp_s])*(LEFT(DBtendonC[[#This Row],[pier type end]],1)=PTprofC[Ptyp_e])*(DBtendonC[[#This Row],[PT type]]=PTprofC[PT type]),0),MATCH(DBtendonC[[#Headers],[ey2]],PTprofC[#Headers],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="23" xr3:uid="{86EBF14F-FEB0-4364-BE34-D8D69C99B310}" name="ey3" dataDxfId="144">
+    <tableColumn id="23" xr3:uid="{86EBF14F-FEB0-4364-BE34-D8D69C99B310}" name="ey3" dataDxfId="147">
       <calculatedColumnFormula array="1">INDEX(PTprofC[],MATCH(1,(LEFT(DBtendonC[[#This Row],[pier type start]],1)=PTprofC[Ptyp_s])*(LEFT(DBtendonC[[#This Row],[pier type end]],1)=PTprofC[Ptyp_e])*(DBtendonC[[#This Row],[PT type]]=PTprofC[PT type]),0),MATCH(DBtendonC[[#Headers],[ey3]],PTprofC[#Headers],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="24" xr3:uid="{6437F059-4AC0-4FA3-90F5-DFE5225EB0B2}" name="ey4" dataDxfId="143">
+    <tableColumn id="24" xr3:uid="{6437F059-4AC0-4FA3-90F5-DFE5225EB0B2}" name="ey4" dataDxfId="146">
       <calculatedColumnFormula array="1">INDEX(PTprofC[],MATCH(1,(LEFT(DBtendonC[[#This Row],[pier type start]],1)=PTprofC[Ptyp_s])*(LEFT(DBtendonC[[#This Row],[pier type end]],1)=PTprofC[Ptyp_e])*(DBtendonC[[#This Row],[PT type]]=PTprofC[PT type]),0),MATCH(DBtendonC[[#Headers],[ey4]],PTprofC[#Headers],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="25" xr3:uid="{855B192C-2B10-44C1-B0A9-14BFA33E3DBF}" name="ey5" dataDxfId="142">
+    <tableColumn id="25" xr3:uid="{855B192C-2B10-44C1-B0A9-14BFA33E3DBF}" name="ey5" dataDxfId="145">
       <calculatedColumnFormula array="1">INDEX(PTprofC[],MATCH(1,(LEFT(DBtendonC[[#This Row],[pier type start]],1)=PTprofC[Ptyp_s])*(LEFT(DBtendonC[[#This Row],[pier type end]],1)=PTprofC[Ptyp_e])*(DBtendonC[[#This Row],[PT type]]=PTprofC[PT type]),0),MATCH(DBtendonC[[#Headers],[ey5]],PTprofC[#Headers],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="26" xr3:uid="{5E91E70D-07BA-4FA4-B275-801581493A43}" name="ey6" dataDxfId="141">
+    <tableColumn id="26" xr3:uid="{5E91E70D-07BA-4FA4-B275-801581493A43}" name="ey6" dataDxfId="144">
       <calculatedColumnFormula array="1">INDEX(PTprofC[],MATCH(1,(LEFT(DBtendonC[[#This Row],[pier type start]],1)=PTprofC[Ptyp_s])*(LEFT(DBtendonC[[#This Row],[pier type end]],1)=PTprofC[Ptyp_e])*(DBtendonC[[#This Row],[PT type]]=PTprofC[PT type]),0),MATCH(DBtendonC[[#Headers],[ey6]],PTprofC[#Headers],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="27" xr3:uid="{D242F723-2BB1-4B71-8E2B-F4791F2BAE94}" name="ey7" dataDxfId="140">
+    <tableColumn id="27" xr3:uid="{D242F723-2BB1-4B71-8E2B-F4791F2BAE94}" name="ey7" dataDxfId="143">
       <calculatedColumnFormula array="1">INDEX(PTprofC[],MATCH(1,(LEFT(DBtendonC[[#This Row],[pier type start]],1)=PTprofC[Ptyp_s])*(LEFT(DBtendonC[[#This Row],[pier type end]],1)=PTprofC[Ptyp_e])*(DBtendonC[[#This Row],[PT type]]=PTprofC[PT type]),0),MATCH(DBtendonC[[#Headers],[ey7]],PTprofC[#Headers],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="28" xr3:uid="{E369BD89-AC4C-431C-A03B-9504D70372FF}" name="ey8" dataDxfId="139">
+    <tableColumn id="28" xr3:uid="{E369BD89-AC4C-431C-A03B-9504D70372FF}" name="ey8" dataDxfId="142">
       <calculatedColumnFormula array="1">INDEX(PTprofC[],MATCH(1,(LEFT(DBtendonC[[#This Row],[pier type start]],1)=PTprofC[Ptyp_s])*(LEFT(DBtendonC[[#This Row],[pier type end]],1)=PTprofC[Ptyp_e])*(DBtendonC[[#This Row],[PT type]]=PTprofC[PT type]),0),MATCH(DBtendonC[[#Headers],[ey8]],PTprofC[#Headers],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="29" xr3:uid="{8EE76328-90D5-4AD2-A37A-AC6F0A1B27AD}" name="ey9" dataDxfId="138">
+    <tableColumn id="29" xr3:uid="{8EE76328-90D5-4AD2-A37A-AC6F0A1B27AD}" name="ey9" dataDxfId="141">
       <calculatedColumnFormula array="1">INDEX(PTprofC[],MATCH(1,(LEFT(DBtendonC[[#This Row],[pier type start]],1)=PTprofC[Ptyp_s])*(LEFT(DBtendonC[[#This Row],[pier type end]],1)=PTprofC[Ptyp_e])*(DBtendonC[[#This Row],[PT type]]=PTprofC[PT type]),0),MATCH(DBtendonC[[#Headers],[ey9]],PTprofC[#Headers],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="30" xr3:uid="{54FF703B-28B7-48BF-8D0E-0D464CE4F888}" name="ey10" dataDxfId="137">
+    <tableColumn id="30" xr3:uid="{54FF703B-28B7-48BF-8D0E-0D464CE4F888}" name="ey10" dataDxfId="140">
       <calculatedColumnFormula array="1">INDEX(PTprofC[],MATCH(1,(LEFT(DBtendonC[[#This Row],[pier type start]],1)=PTprofC[Ptyp_s])*(LEFT(DBtendonC[[#This Row],[pier type end]],1)=PTprofC[Ptyp_e])*(DBtendonC[[#This Row],[PT type]]=PTprofC[PT type]),0),MATCH(DBtendonC[[#Headers],[ey10]],PTprofC[#Headers],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="31" xr3:uid="{B3429C76-DADB-4634-92BE-FD9FEA736583}" name="ey11" dataDxfId="136">
+    <tableColumn id="31" xr3:uid="{B3429C76-DADB-4634-92BE-FD9FEA736583}" name="ey11" dataDxfId="139">
       <calculatedColumnFormula array="1">INDEX(PTprofC[],MATCH(1,(LEFT(DBtendonC[[#This Row],[pier type start]],1)=PTprofC[Ptyp_s])*(LEFT(DBtendonC[[#This Row],[pier type end]],1)=PTprofC[Ptyp_e])*(DBtendonC[[#This Row],[PT type]]=PTprofC[PT type]),0),MATCH(DBtendonC[[#Headers],[ey11]],PTprofC[#Headers],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="32" xr3:uid="{E638AEE8-82F7-4DD0-9E63-98DE7EFDAFB8}" name="ey12" dataDxfId="135">
+    <tableColumn id="32" xr3:uid="{E638AEE8-82F7-4DD0-9E63-98DE7EFDAFB8}" name="ey12" dataDxfId="138">
       <calculatedColumnFormula array="1">INDEX(PTprofC[],MATCH(1,(LEFT(DBtendonC[[#This Row],[pier type start]],1)=PTprofC[Ptyp_s])*(LEFT(DBtendonC[[#This Row],[pier type end]],1)=PTprofC[Ptyp_e])*(DBtendonC[[#This Row],[PT type]]=PTprofC[PT type]),0),MATCH(DBtendonC[[#Headers],[ey12]],PTprofC[#Headers],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="33" xr3:uid="{F0F888BF-ED8A-4274-8871-F67688A87462}" name="ez1" dataDxfId="134">
+    <tableColumn id="33" xr3:uid="{F0F888BF-ED8A-4274-8871-F67688A87462}" name="ez1" dataDxfId="137">
       <calculatedColumnFormula array="1">INDEX(PTprofC[],MATCH(1,(LEFT(DBtendonC[[#This Row],[pier type start]],1)=PTprofC[Ptyp_s])*(LEFT(DBtendonC[[#This Row],[pier type end]],1)=PTprofC[Ptyp_e])*(DBtendonC[[#This Row],[PT type]]=PTprofC[PT type]),0),MATCH(DBtendonC[[#Headers],[ez1]],PTprofC[#Headers],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="34" xr3:uid="{33627EB0-4525-47CD-B60C-8F652B28CCD4}" name="ez2" dataDxfId="133">
+    <tableColumn id="34" xr3:uid="{33627EB0-4525-47CD-B60C-8F652B28CCD4}" name="ez2" dataDxfId="136">
       <calculatedColumnFormula array="1">INDEX(PTprofC[],MATCH(1,(LEFT(DBtendonC[[#This Row],[pier type start]],1)=PTprofC[Ptyp_s])*(LEFT(DBtendonC[[#This Row],[pier type end]],1)=PTprofC[Ptyp_e])*(DBtendonC[[#This Row],[PT type]]=PTprofC[PT type]),0),MATCH(DBtendonC[[#Headers],[ez2]],PTprofC[#Headers],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="35" xr3:uid="{341626E9-B3F6-422A-9034-7FD1CE3D8DD9}" name="ez3" dataDxfId="132">
+    <tableColumn id="35" xr3:uid="{341626E9-B3F6-422A-9034-7FD1CE3D8DD9}" name="ez3" dataDxfId="135">
       <calculatedColumnFormula array="1">INDEX(PTprofC[],MATCH(1,(LEFT(DBtendonC[[#This Row],[pier type start]],1)=PTprofC[Ptyp_s])*(LEFT(DBtendonC[[#This Row],[pier type end]],1)=PTprofC[Ptyp_e])*(DBtendonC[[#This Row],[PT type]]=PTprofC[PT type]),0),MATCH(DBtendonC[[#Headers],[ez3]],PTprofC[#Headers],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="36" xr3:uid="{8F5D43BD-1C9D-4D84-821B-8237DFDE12D6}" name="ez4" dataDxfId="131">
+    <tableColumn id="36" xr3:uid="{8F5D43BD-1C9D-4D84-821B-8237DFDE12D6}" name="ez4" dataDxfId="134">
       <calculatedColumnFormula array="1">INDEX(PTprofC[],MATCH(1,(LEFT(DBtendonC[[#This Row],[pier type start]],1)=PTprofC[Ptyp_s])*(LEFT(DBtendonC[[#This Row],[pier type end]],1)=PTprofC[Ptyp_e])*(DBtendonC[[#This Row],[PT type]]=PTprofC[PT type]),0),MATCH(DBtendonC[[#Headers],[ez4]],PTprofC[#Headers],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="37" xr3:uid="{C40A4032-6B59-414F-AFE7-A763567F40AF}" name="ez5" dataDxfId="130">
+    <tableColumn id="37" xr3:uid="{C40A4032-6B59-414F-AFE7-A763567F40AF}" name="ez5" dataDxfId="133">
       <calculatedColumnFormula array="1">INDEX(PTprofC[],MATCH(1,(LEFT(DBtendonC[[#This Row],[pier type start]],1)=PTprofC[Ptyp_s])*(LEFT(DBtendonC[[#This Row],[pier type end]],1)=PTprofC[Ptyp_e])*(DBtendonC[[#This Row],[PT type]]=PTprofC[PT type]),0),MATCH(DBtendonC[[#Headers],[ez5]],PTprofC[#Headers],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="38" xr3:uid="{856278A3-26E1-47CF-8A34-CA33D390F34B}" name="ez6" dataDxfId="129">
+    <tableColumn id="38" xr3:uid="{856278A3-26E1-47CF-8A34-CA33D390F34B}" name="ez6" dataDxfId="132">
       <calculatedColumnFormula array="1">INDEX(PTprofC[],MATCH(1,(LEFT(DBtendonC[[#This Row],[pier type start]],1)=PTprofC[Ptyp_s])*(LEFT(DBtendonC[[#This Row],[pier type end]],1)=PTprofC[Ptyp_e])*(DBtendonC[[#This Row],[PT type]]=PTprofC[PT type]),0),MATCH(DBtendonC[[#Headers],[ez6]],PTprofC[#Headers],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="39" xr3:uid="{61DF8255-782C-4F8D-8BE7-B6CA7743F33D}" name="ez7" dataDxfId="128">
+    <tableColumn id="39" xr3:uid="{61DF8255-782C-4F8D-8BE7-B6CA7743F33D}" name="ez7" dataDxfId="131">
       <calculatedColumnFormula array="1">INDEX(PTprofC[],MATCH(1,(LEFT(DBtendonC[[#This Row],[pier type start]],1)=PTprofC[Ptyp_s])*(LEFT(DBtendonC[[#This Row],[pier type end]],1)=PTprofC[Ptyp_e])*(DBtendonC[[#This Row],[PT type]]=PTprofC[PT type]),0),MATCH(DBtendonC[[#Headers],[ez7]],PTprofC[#Headers],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="40" xr3:uid="{3CDF6D38-47D2-4E17-8E9C-69AC7D1FBEF4}" name="ez8" dataDxfId="127">
+    <tableColumn id="40" xr3:uid="{3CDF6D38-47D2-4E17-8E9C-69AC7D1FBEF4}" name="ez8" dataDxfId="130">
       <calculatedColumnFormula array="1">INDEX(PTprofC[],MATCH(1,(LEFT(DBtendonC[[#This Row],[pier type start]],1)=PTprofC[Ptyp_s])*(LEFT(DBtendonC[[#This Row],[pier type end]],1)=PTprofC[Ptyp_e])*(DBtendonC[[#This Row],[PT type]]=PTprofC[PT type]),0),MATCH(DBtendonC[[#Headers],[ez8]],PTprofC[#Headers],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="41" xr3:uid="{FB3C2253-DD3B-4C6C-8E47-7D3CE8ADF72F}" name="ez9" dataDxfId="126">
+    <tableColumn id="41" xr3:uid="{FB3C2253-DD3B-4C6C-8E47-7D3CE8ADF72F}" name="ez9" dataDxfId="129">
       <calculatedColumnFormula array="1">INDEX(PTprofC[],MATCH(1,(LEFT(DBtendonC[[#This Row],[pier type start]],1)=PTprofC[Ptyp_s])*(LEFT(DBtendonC[[#This Row],[pier type end]],1)=PTprofC[Ptyp_e])*(DBtendonC[[#This Row],[PT type]]=PTprofC[PT type]),0),MATCH(DBtendonC[[#Headers],[ez9]],PTprofC[#Headers],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="42" xr3:uid="{1078D06D-3DB1-4BC6-A089-57CF61AC0BCC}" name="ez10" dataDxfId="125">
+    <tableColumn id="42" xr3:uid="{1078D06D-3DB1-4BC6-A089-57CF61AC0BCC}" name="ez10" dataDxfId="128">
       <calculatedColumnFormula array="1">INDEX(PTprofC[],MATCH(1,(LEFT(DBtendonC[[#This Row],[pier type start]],1)=PTprofC[Ptyp_s])*(LEFT(DBtendonC[[#This Row],[pier type end]],1)=PTprofC[Ptyp_e])*(DBtendonC[[#This Row],[PT type]]=PTprofC[PT type]),0),MATCH(DBtendonC[[#Headers],[ez10]],PTprofC[#Headers],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="43" xr3:uid="{B56B6F2B-F903-4611-91A4-9014951C25FB}" name="ez11" dataDxfId="124">
+    <tableColumn id="43" xr3:uid="{B56B6F2B-F903-4611-91A4-9014951C25FB}" name="ez11" dataDxfId="127">
       <calculatedColumnFormula array="1">INDEX(PTprofC[],MATCH(1,(LEFT(DBtendonC[[#This Row],[pier type start]],1)=PTprofC[Ptyp_s])*(LEFT(DBtendonC[[#This Row],[pier type end]],1)=PTprofC[Ptyp_e])*(DBtendonC[[#This Row],[PT type]]=PTprofC[PT type]),0),MATCH(DBtendonC[[#Headers],[ez11]],PTprofC[#Headers],0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="44" xr3:uid="{CE5041F9-3D4E-47C4-A0EB-26A32C9B4757}" name="ez12" dataDxfId="123">
+    <tableColumn id="44" xr3:uid="{CE5041F9-3D4E-47C4-A0EB-26A32C9B4757}" name="ez12" dataDxfId="126">
       <calculatedColumnFormula array="1">INDEX(PTprofC[],MATCH(1,(LEFT(DBtendonC[[#This Row],[pier type start]],1)=PTprofC[Ptyp_s])*(LEFT(DBtendonC[[#This Row],[pier type end]],1)=PTprofC[Ptyp_e])*(DBtendonC[[#This Row],[PT type]]=PTprofC[PT type]),0),MATCH(DBtendonC[[#Headers],[ez12]],PTprofC[#Headers],0))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -8261,10 +8323,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE6A97DB-73F4-4BF9-B571-45464DF7E5C4}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -8311,11 +8373,11 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D2" s="4">
-        <f>ROUND(B3-alignment[[#This Row],[Station PK]],3)+24+25+24</f>
-        <v>103.748</v>
+        <f>ROUND(B3-[1]!alignment[[#This Row],[Station PK]],3)</f>
+        <v>16.670000000000002</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -8323,17 +8385,17 @@
         <v>159</v>
       </c>
       <c r="B3" s="24">
-        <v>30.748000000000001</v>
+        <v>16.670000000000002</v>
       </c>
       <c r="C3" t="s">
         <v>55</v>
       </c>
       <c r="D3" s="4">
-        <f>ROUND(B4-alignment[[#This Row],[Station PK]],3)</f>
-        <v>48</v>
+        <f>ROUND(B4-[1]!alignment[[#This Row],[Station PK]],3)</f>
+        <v>44</v>
       </c>
       <c r="E3">
-        <v>630</v>
+        <v>350</v>
       </c>
       <c r="F3">
         <v>-1</v>
@@ -8350,17 +8412,17 @@
         <v>158</v>
       </c>
       <c r="B4" s="24">
-        <v>78.748000000000005</v>
+        <v>60.670099999999998</v>
       </c>
       <c r="C4" t="s">
         <v>56</v>
       </c>
       <c r="D4" s="4">
-        <f>ROUND(B5-alignment[[#This Row],[Station PK]],3)</f>
-        <v>19.361000000000001</v>
+        <f>ROUND(B5-[1]!alignment[[#This Row],[Station PK]],3)</f>
+        <v>18.056999999999999</v>
       </c>
       <c r="E4">
-        <v>630</v>
+        <v>350</v>
       </c>
       <c r="F4">
         <v>-1</v>
@@ -8377,17 +8439,17 @@
         <v>157</v>
       </c>
       <c r="B5" s="24">
-        <v>98.108999999999995</v>
+        <v>78.726900000000001</v>
       </c>
       <c r="C5" t="s">
         <v>58</v>
       </c>
       <c r="D5" s="4">
-        <f>ROUND(B6-alignment[[#This Row],[Station PK]],3)</f>
-        <v>48</v>
+        <f>ROUND(B6-[1]!alignment[[#This Row],[Station PK]],3)</f>
+        <v>56</v>
       </c>
       <c r="E5">
-        <v>630</v>
+        <v>350</v>
       </c>
       <c r="F5">
         <v>-1</v>
@@ -8404,42 +8466,316 @@
         <v>156</v>
       </c>
       <c r="B6" s="24">
-        <v>146.10900000000001</v>
+        <v>134.7269</v>
       </c>
       <c r="C6" t="s">
+        <v>190</v>
+      </c>
+      <c r="D6" s="4">
+        <f>ROUND(B7-[1]!alignment[[#This Row],[Station PK]],3)</f>
+        <v>178.24700000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="23" t="s">
         <v>191</v>
       </c>
-      <c r="D6" s="4">
-        <f>ROUND(B7-alignment[[#This Row],[Station PK]],3)</f>
-        <v>20.890999999999998</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="43" t="s">
-        <v>185</v>
-      </c>
-      <c r="B7" s="44">
-        <f>B6+20.891</f>
-        <v>167</v>
+      <c r="B7" s="63">
+        <v>312.97430000000003</v>
       </c>
       <c r="C7" t="s">
-        <v>191</v>
-      </c>
-      <c r="D7" s="45"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
+        <v>55</v>
+      </c>
+      <c r="D7" s="4">
+        <f>ROUND(B8-[1]!alignment[[#This Row],[Station PK]],3)</f>
+        <v>60</v>
+      </c>
+      <c r="E7">
+        <v>500</v>
+      </c>
+      <c r="F7">
+        <v>-1</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="23" t="s">
+        <v>192</v>
+      </c>
+      <c r="B8" s="24">
+        <v>372.97430000000003</v>
+      </c>
+      <c r="C8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="4">
+        <f>ROUND(B9-[1]!alignment[[#This Row],[Station PK]],3)</f>
+        <v>38.567</v>
+      </c>
+      <c r="E8">
+        <v>500</v>
+      </c>
+      <c r="F8">
+        <v>-1</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <v>75</v>
+      </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="B9" s="4"/>
+      <c r="A9" s="23" t="s">
+        <v>193</v>
+      </c>
+      <c r="B9" s="24">
+        <v>411.54090000000002</v>
+      </c>
+      <c r="C9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="4">
+        <f>ROUND(B10-[1]!alignment[[#This Row],[Station PK]],3)</f>
+        <v>60</v>
+      </c>
+      <c r="E9">
+        <v>500</v>
+      </c>
+      <c r="F9">
+        <v>-1</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9">
+        <v>75</v>
+      </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="B10" s="29"/>
-      <c r="H10" s="4"/>
+      <c r="A10" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="B10" s="24">
+        <v>471.54090000000002</v>
+      </c>
+      <c r="C10" t="s">
+        <v>190</v>
+      </c>
+      <c r="D10" s="4">
+        <f>ROUND(B11-[1]!alignment[[#This Row],[Station PK]],3)</f>
+        <v>121.967</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="23" t="s">
+        <v>195</v>
+      </c>
+      <c r="B11" s="24">
+        <v>593.50789999999995</v>
+      </c>
+      <c r="C11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="4">
+        <f>ROUND(B12-[1]!alignment[[#This Row],[Station PK]],3)</f>
+        <v>73</v>
+      </c>
+      <c r="E11">
+        <v>163</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>3</v>
+      </c>
+      <c r="H11">
+        <v>55</v>
+      </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="H12" s="26"/>
+      <c r="A12" s="64" t="s">
+        <v>196</v>
+      </c>
+      <c r="B12" s="24">
+        <v>666.5077</v>
+      </c>
+      <c r="C12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="4">
+        <f>ROUND(B13-[1]!alignment[[#This Row],[Station PK]],3)</f>
+        <v>122.738</v>
+      </c>
+      <c r="E12">
+        <v>163</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>3</v>
+      </c>
+      <c r="H12">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="64" t="s">
+        <v>197</v>
+      </c>
+      <c r="B13" s="65">
+        <v>789.24540000000002</v>
+      </c>
+      <c r="C13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="4">
+        <f>ROUND(B14-[1]!alignment[[#This Row],[Station PK]],3)</f>
+        <v>73</v>
+      </c>
+      <c r="E13">
+        <v>163</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>3</v>
+      </c>
+      <c r="H13">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="64" t="s">
+        <v>198</v>
+      </c>
+      <c r="B14" s="65">
+        <v>862.24530000000004</v>
+      </c>
+      <c r="C14" t="s">
+        <v>190</v>
+      </c>
+      <c r="D14" s="4">
+        <f>ROUND(B15-[1]!alignment[[#This Row],[Station PK]],3)</f>
+        <v>70.953999999999994</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="64" t="s">
+        <v>199</v>
+      </c>
+      <c r="B15" s="65">
+        <v>933.19899999999996</v>
+      </c>
+      <c r="C15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="4">
+        <f>ROUND(B16-[1]!alignment[[#This Row],[Station PK]],3)</f>
+        <v>115</v>
+      </c>
+      <c r="E15">
+        <v>175</v>
+      </c>
+      <c r="F15">
+        <v>-1</v>
+      </c>
+      <c r="G15">
+        <v>4</v>
+      </c>
+      <c r="H15">
+        <v>58.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="B16" s="24">
+        <v>1048.1987999999999</v>
+      </c>
+      <c r="C16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="4">
+        <f>ROUND(B17-[1]!alignment[[#This Row],[Station PK]],3)</f>
+        <v>99.260999999999996</v>
+      </c>
+      <c r="E16">
+        <v>175</v>
+      </c>
+      <c r="F16">
+        <v>-1</v>
+      </c>
+      <c r="G16">
+        <v>4</v>
+      </c>
+      <c r="H16">
+        <v>58.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="B17" s="24">
+        <v>1147.4599000000001</v>
+      </c>
+      <c r="C17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="4">
+        <f>ROUND(B18-[1]!alignment[[#This Row],[Station PK]],3)</f>
+        <v>80</v>
+      </c>
+      <c r="E17">
+        <v>175</v>
+      </c>
+      <c r="F17">
+        <v>-1</v>
+      </c>
+      <c r="G17">
+        <v>4</v>
+      </c>
+      <c r="H17">
+        <v>58.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="64" t="s">
+        <v>202</v>
+      </c>
+      <c r="B18" s="65">
+        <v>1227.4597000000001</v>
+      </c>
+      <c r="C18" t="s">
+        <v>190</v>
+      </c>
+      <c r="D18" s="4">
+        <f>ROUND(B19-[1]!alignment[[#This Row],[Station PK]],3)</f>
+        <v>17.151</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="64" t="s">
+        <v>184</v>
+      </c>
+      <c r="B19" s="65">
+        <f>B18+17.151</f>
+        <v>1244.6107000000002</v>
+      </c>
+      <c r="C19" t="s">
+        <v>190</v>
+      </c>
+      <c r="D19" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -8669,7 +9005,7 @@
       <c r="M2" s="1">
         <v>2</v>
       </c>
-      <c r="N2" s="42">
+      <c r="N2" s="40">
         <v>30.393000000000001</v>
       </c>
       <c r="O2" s="1">
@@ -8729,7 +9065,7 @@
       <c r="M3">
         <v>2</v>
       </c>
-      <c r="N3" s="42">
+      <c r="N3" s="40">
         <v>31.260999999999999</v>
       </c>
       <c r="O3">
@@ -8784,7 +9120,7 @@
         <v>153</v>
       </c>
       <c r="L4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M4">
         <v>1</v>
@@ -9175,7 +9511,7 @@
       <c r="M10">
         <v>2</v>
       </c>
-      <c r="N10" s="42">
+      <c r="N10" s="40">
         <v>36.75</v>
       </c>
       <c r="O10">
@@ -9661,64 +9997,64 @@
       <c r="V1" s="5"/>
     </row>
     <row r="2" spans="1:37" ht="12.75">
-      <c r="I2" s="49" t="s">
+      <c r="I2" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="J2" s="49" t="s">
+      <c r="J2" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="K2" s="63" t="s">
+      <c r="K2" s="58" t="s">
         <v>68</v>
       </c>
-      <c r="L2" s="64"/>
-      <c r="M2" s="65"/>
-      <c r="N2" s="66" t="s">
+      <c r="L2" s="59"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="61" t="s">
         <v>69</v>
       </c>
-      <c r="O2" s="67"/>
-      <c r="P2" s="67"/>
-      <c r="Q2" s="67"/>
-      <c r="R2" s="67"/>
-      <c r="S2" s="67"/>
-      <c r="T2" s="47" t="s">
+      <c r="O2" s="62"/>
+      <c r="P2" s="62"/>
+      <c r="Q2" s="62"/>
+      <c r="R2" s="62"/>
+      <c r="S2" s="62"/>
+      <c r="T2" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="U2" s="48"/>
-      <c r="V2" s="51" t="s">
+      <c r="U2" s="43"/>
+      <c r="V2" s="46" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:37" ht="12.75">
-      <c r="I3" s="50"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="53" t="s">
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="48" t="s">
         <v>79</v>
       </c>
-      <c r="L3" s="55" t="s">
+      <c r="L3" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="M3" s="53" t="s">
+      <c r="M3" s="48" t="s">
         <v>80</v>
       </c>
-      <c r="N3" s="57" t="s">
+      <c r="N3" s="52" t="s">
         <v>72</v>
       </c>
-      <c r="O3" s="57"/>
-      <c r="P3" s="57"/>
-      <c r="Q3" s="57"/>
-      <c r="R3" s="58" t="s">
+      <c r="O3" s="52"/>
+      <c r="P3" s="52"/>
+      <c r="Q3" s="52"/>
+      <c r="R3" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="S3" s="57" t="s">
+      <c r="S3" s="52" t="s">
         <v>74</v>
       </c>
-      <c r="T3" s="60" t="s">
+      <c r="T3" s="55" t="s">
         <v>81</v>
       </c>
-      <c r="U3" s="62" t="s">
+      <c r="U3" s="57" t="s">
         <v>75</v>
       </c>
-      <c r="V3" s="52"/>
+      <c r="V3" s="47"/>
     </row>
     <row r="4" spans="1:37" ht="12.75">
       <c r="A4" t="s">
@@ -9742,24 +10078,24 @@
       <c r="G4" t="s">
         <v>60</v>
       </c>
-      <c r="I4" s="50"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="53"/>
-      <c r="M4" s="56"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="51"/>
       <c r="N4" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="O4" s="59" t="s">
+      <c r="O4" s="54" t="s">
         <v>77</v>
       </c>
-      <c r="P4" s="59"/>
-      <c r="Q4" s="59"/>
-      <c r="R4" s="59"/>
-      <c r="S4" s="59"/>
-      <c r="T4" s="61"/>
-      <c r="U4" s="61"/>
-      <c r="V4" s="52"/>
+      <c r="P4" s="54"/>
+      <c r="Q4" s="54"/>
+      <c r="R4" s="54"/>
+      <c r="S4" s="54"/>
+      <c r="T4" s="56"/>
+      <c r="U4" s="56"/>
+      <c r="V4" s="47"/>
       <c r="X4" t="s">
         <v>162</v>
       </c>
@@ -9791,67 +10127,67 @@
         <f>VLOOKUP(DBsoil[[#This Row],[Pile id]],$X$5:$Y$20,2)</f>
         <v>14</v>
       </c>
-      <c r="I5" s="32" t="s">
+      <c r="I5" s="30" t="s">
         <v>165</v>
       </c>
-      <c r="J5" s="32" t="s">
+      <c r="J5" s="30" t="s">
         <v>166</v>
       </c>
-      <c r="K5" s="32">
+      <c r="K5" s="30">
         <v>29409000</v>
       </c>
-      <c r="L5" s="32">
+      <c r="L5" s="30">
         <v>2.5</v>
       </c>
-      <c r="M5" s="32">
+      <c r="M5" s="30">
         <v>1.91747598485705</v>
       </c>
-      <c r="N5" s="32">
+      <c r="N5" s="30">
         <v>25.3</v>
       </c>
-      <c r="O5" s="32">
-        <v>0</v>
-      </c>
-      <c r="P5" s="32" t="s">
+      <c r="O5" s="30">
+        <v>0</v>
+      </c>
+      <c r="P5" s="30" t="s">
         <v>151</v>
       </c>
-      <c r="Q5" s="32">
+      <c r="Q5" s="30">
         <v>0.5</v>
       </c>
-      <c r="R5" s="32">
+      <c r="R5" s="30">
         <v>0.5</v>
       </c>
-      <c r="S5" s="32" t="s">
+      <c r="S5" s="30" t="s">
         <v>152</v>
       </c>
-      <c r="T5" s="32">
+      <c r="T5" s="30">
         <v>29000</v>
       </c>
-      <c r="U5" s="32">
+      <c r="U5" s="30">
         <v>0.3</v>
       </c>
-      <c r="V5" s="28">
+      <c r="V5" s="27">
         <v>5982.8613772736016</v>
       </c>
-      <c r="W5" s="28"/>
-      <c r="X5" s="32">
+      <c r="W5" s="27"/>
+      <c r="X5" s="30">
         <v>73</v>
       </c>
-      <c r="Y5" s="32">
+      <c r="Y5" s="30">
         <v>14</v>
       </c>
-      <c r="Z5" s="32"/>
-      <c r="AA5" s="33"/>
-      <c r="AB5" s="34"/>
-      <c r="AC5" s="37"/>
-      <c r="AD5" s="31"/>
-      <c r="AE5" s="30"/>
-      <c r="AF5" s="31"/>
-      <c r="AG5" s="38"/>
-      <c r="AH5" s="30"/>
-      <c r="AI5" s="30"/>
-      <c r="AJ5" s="39"/>
-      <c r="AK5" s="41"/>
+      <c r="Z5" s="30"/>
+      <c r="AA5" s="31"/>
+      <c r="AB5" s="32"/>
+      <c r="AC5" s="35"/>
+      <c r="AD5" s="29"/>
+      <c r="AE5" s="28"/>
+      <c r="AF5" s="29"/>
+      <c r="AG5" s="36"/>
+      <c r="AH5" s="28"/>
+      <c r="AI5" s="28"/>
+      <c r="AJ5" s="37"/>
+      <c r="AK5" s="39"/>
     </row>
     <row r="6" spans="1:37" ht="14.25">
       <c r="A6">
@@ -9882,55 +10218,55 @@
         <f>VLOOKUP(DBsoil[[#This Row],[Pile id]],$X$5:$Y$20,2)</f>
         <v>14</v>
       </c>
-      <c r="I6" s="32"/>
-      <c r="J6" s="32"/>
-      <c r="K6" s="32"/>
-      <c r="L6" s="32"/>
-      <c r="M6" s="32"/>
-      <c r="N6" s="32"/>
-      <c r="O6" s="32">
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30">
         <v>0.5</v>
       </c>
-      <c r="P6" s="32" t="s">
+      <c r="P6" s="30" t="s">
         <v>151</v>
       </c>
-      <c r="Q6" s="32">
+      <c r="Q6" s="30">
         <v>2.9</v>
       </c>
-      <c r="R6" s="32">
+      <c r="R6" s="30">
         <v>2.4</v>
       </c>
-      <c r="S6" s="32" t="s">
+      <c r="S6" s="30" t="s">
         <v>163</v>
       </c>
-      <c r="T6" s="32">
+      <c r="T6" s="30">
         <v>120000</v>
       </c>
-      <c r="U6" s="32">
+      <c r="U6" s="30">
         <v>0.25</v>
       </c>
-      <c r="V6" s="28">
+      <c r="V6" s="27">
         <v>27049.603808964719</v>
       </c>
-      <c r="W6" s="28"/>
-      <c r="X6" s="32">
+      <c r="W6" s="27"/>
+      <c r="X6" s="30">
         <v>74</v>
       </c>
-      <c r="Y6" s="32">
+      <c r="Y6" s="30">
         <v>10</v>
       </c>
-      <c r="Z6" s="32"/>
-      <c r="AA6" s="33"/>
-      <c r="AB6" s="34"/>
-      <c r="AC6" s="37"/>
-      <c r="AD6" s="31"/>
-      <c r="AE6" s="30"/>
-      <c r="AF6" s="31"/>
-      <c r="AG6" s="38"/>
-      <c r="AH6" s="30"/>
-      <c r="AI6" s="30"/>
-      <c r="AJ6" s="40"/>
-      <c r="AK6" s="41"/>
+      <c r="Z6" s="30"/>
+      <c r="AA6" s="31"/>
+      <c r="AB6" s="32"/>
+      <c r="AC6" s="35"/>
+      <c r="AD6" s="29"/>
+      <c r="AE6" s="28"/>
+      <c r="AF6" s="29"/>
+      <c r="AG6" s="36"/>
+      <c r="AH6" s="28"/>
+      <c r="AI6" s="28"/>
+      <c r="AJ6" s="38"/>
+      <c r="AK6" s="39"/>
     </row>
     <row r="7" spans="1:37" ht="14.25">
       <c r="A7">
@@ -9961,55 +10297,55 @@
         <f>VLOOKUP(DBsoil[[#This Row],[Pile id]],$X$5:$Y$20,2)</f>
         <v>14</v>
       </c>
-      <c r="I7" s="32"/>
-      <c r="J7" s="32"/>
-      <c r="K7" s="32"/>
-      <c r="L7" s="32"/>
-      <c r="M7" s="32"/>
-      <c r="N7" s="32"/>
-      <c r="O7" s="32">
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="30"/>
+      <c r="O7" s="30">
         <v>2.9</v>
       </c>
-      <c r="P7" s="32" t="s">
+      <c r="P7" s="30" t="s">
         <v>151</v>
       </c>
-      <c r="Q7" s="32">
+      <c r="Q7" s="30">
         <v>9.8000000000000007</v>
       </c>
-      <c r="R7" s="32">
+      <c r="R7" s="30">
         <v>6.9</v>
       </c>
-      <c r="S7" s="32" t="s">
+      <c r="S7" s="30" t="s">
         <v>163</v>
       </c>
-      <c r="T7" s="32">
+      <c r="T7" s="30">
         <v>120000</v>
       </c>
-      <c r="U7" s="32">
+      <c r="U7" s="30">
         <v>0.25</v>
       </c>
-      <c r="V7" s="28">
+      <c r="V7" s="27">
         <v>27049.603808964719</v>
       </c>
-      <c r="W7" s="28"/>
-      <c r="X7" s="32">
+      <c r="W7" s="27"/>
+      <c r="X7" s="30">
         <v>75</v>
       </c>
-      <c r="Y7" s="32">
+      <c r="Y7" s="30">
         <v>10</v>
       </c>
-      <c r="Z7" s="32"/>
-      <c r="AA7" s="33"/>
-      <c r="AB7" s="34"/>
-      <c r="AC7" s="37"/>
-      <c r="AD7" s="31"/>
-      <c r="AE7" s="30"/>
-      <c r="AF7" s="31"/>
-      <c r="AG7" s="38"/>
-      <c r="AH7" s="30"/>
-      <c r="AI7" s="30"/>
-      <c r="AJ7" s="30"/>
-      <c r="AK7" s="41"/>
+      <c r="Z7" s="30"/>
+      <c r="AA7" s="31"/>
+      <c r="AB7" s="32"/>
+      <c r="AC7" s="35"/>
+      <c r="AD7" s="29"/>
+      <c r="AE7" s="28"/>
+      <c r="AF7" s="29"/>
+      <c r="AG7" s="36"/>
+      <c r="AH7" s="28"/>
+      <c r="AI7" s="28"/>
+      <c r="AJ7" s="28"/>
+      <c r="AK7" s="39"/>
     </row>
     <row r="8" spans="1:37" ht="14.25">
       <c r="A8">
@@ -10040,55 +10376,55 @@
         <f>VLOOKUP(DBsoil[[#This Row],[Pile id]],$X$5:$Y$20,2)</f>
         <v>14</v>
       </c>
-      <c r="I8" s="32"/>
-      <c r="J8" s="32"/>
-      <c r="K8" s="32"/>
-      <c r="L8" s="32"/>
-      <c r="M8" s="32"/>
-      <c r="N8" s="32"/>
-      <c r="O8" s="32">
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="30"/>
+      <c r="O8" s="30">
         <v>9.8000000000000007</v>
       </c>
-      <c r="P8" s="32" t="s">
+      <c r="P8" s="30" t="s">
         <v>151</v>
       </c>
-      <c r="Q8" s="32">
+      <c r="Q8" s="30">
         <v>14</v>
       </c>
-      <c r="R8" s="32">
+      <c r="R8" s="30">
         <v>4.1999999999999993</v>
       </c>
-      <c r="S8" s="32" t="s">
+      <c r="S8" s="30" t="s">
         <v>164</v>
       </c>
-      <c r="T8" s="32">
+      <c r="T8" s="30">
         <v>792000</v>
       </c>
-      <c r="U8" s="32">
+      <c r="U8" s="30">
         <v>0.22</v>
       </c>
-      <c r="V8" s="28">
+      <c r="V8" s="27">
         <v>205833.95315332906</v>
       </c>
-      <c r="W8" s="28"/>
-      <c r="X8" s="32">
+      <c r="W8" s="27"/>
+      <c r="X8" s="30">
         <v>76</v>
       </c>
-      <c r="Y8" s="32">
+      <c r="Y8" s="30">
         <v>10</v>
       </c>
-      <c r="Z8" s="32"/>
-      <c r="AA8" s="33"/>
-      <c r="AB8" s="34"/>
-      <c r="AC8" s="31"/>
-      <c r="AD8" s="31"/>
-      <c r="AE8" s="30"/>
-      <c r="AF8" s="31"/>
-      <c r="AG8" s="38"/>
-      <c r="AH8" s="30"/>
-      <c r="AI8" s="30"/>
-      <c r="AJ8" s="30"/>
-      <c r="AK8" s="41"/>
+      <c r="Z8" s="30"/>
+      <c r="AA8" s="31"/>
+      <c r="AB8" s="32"/>
+      <c r="AC8" s="29"/>
+      <c r="AD8" s="29"/>
+      <c r="AE8" s="28"/>
+      <c r="AF8" s="29"/>
+      <c r="AG8" s="36"/>
+      <c r="AH8" s="28"/>
+      <c r="AI8" s="28"/>
+      <c r="AJ8" s="28"/>
+      <c r="AK8" s="39"/>
     </row>
     <row r="9" spans="1:37" ht="14.25">
       <c r="A9">
@@ -10119,67 +10455,67 @@
         <f>VLOOKUP(DBsoil[[#This Row],[Pile id]],$X$5:$Y$20,2)</f>
         <v>10</v>
       </c>
-      <c r="I9" s="32" t="s">
+      <c r="I9" s="30" t="s">
         <v>167</v>
       </c>
-      <c r="J9" s="32" t="s">
+      <c r="J9" s="30" t="s">
         <v>168</v>
       </c>
-      <c r="K9" s="32">
+      <c r="K9" s="30">
         <v>29409000</v>
       </c>
-      <c r="L9" s="32">
+      <c r="L9" s="30">
         <v>2.5</v>
       </c>
-      <c r="M9" s="32">
+      <c r="M9" s="30">
         <v>1.91747598485705</v>
       </c>
-      <c r="N9" s="32">
+      <c r="N9" s="30">
         <v>26.2</v>
       </c>
-      <c r="O9" s="32">
-        <v>0</v>
-      </c>
-      <c r="P9" s="32" t="s">
+      <c r="O9" s="30">
+        <v>0</v>
+      </c>
+      <c r="P9" s="30" t="s">
         <v>151</v>
       </c>
-      <c r="Q9" s="32">
+      <c r="Q9" s="30">
         <v>1.7</v>
       </c>
-      <c r="R9" s="32">
+      <c r="R9" s="30">
         <v>1.7</v>
       </c>
-      <c r="S9" s="32" t="s">
+      <c r="S9" s="30" t="s">
         <v>163</v>
       </c>
-      <c r="T9" s="32">
+      <c r="T9" s="30">
         <v>288000</v>
       </c>
-      <c r="U9" s="32">
+      <c r="U9" s="30">
         <v>0.25</v>
       </c>
-      <c r="V9" s="28">
+      <c r="V9" s="27">
         <v>69832.311912323465</v>
       </c>
-      <c r="W9" s="28"/>
-      <c r="X9" s="32">
+      <c r="W9" s="27"/>
+      <c r="X9" s="30">
         <v>77</v>
       </c>
-      <c r="Y9" s="32">
+      <c r="Y9" s="30">
         <v>10</v>
       </c>
-      <c r="Z9" s="35"/>
-      <c r="AA9" s="35"/>
-      <c r="AB9" s="34"/>
-      <c r="AC9" s="37"/>
-      <c r="AD9" s="31"/>
-      <c r="AE9" s="30"/>
-      <c r="AF9" s="31"/>
-      <c r="AG9" s="38"/>
-      <c r="AH9" s="30"/>
-      <c r="AI9" s="30"/>
-      <c r="AJ9" s="39"/>
-      <c r="AK9" s="41"/>
+      <c r="Z9" s="33"/>
+      <c r="AA9" s="33"/>
+      <c r="AB9" s="32"/>
+      <c r="AC9" s="35"/>
+      <c r="AD9" s="29"/>
+      <c r="AE9" s="28"/>
+      <c r="AF9" s="29"/>
+      <c r="AG9" s="36"/>
+      <c r="AH9" s="28"/>
+      <c r="AI9" s="28"/>
+      <c r="AJ9" s="37"/>
+      <c r="AK9" s="39"/>
     </row>
     <row r="10" spans="1:37" ht="14.25">
       <c r="A10">
@@ -10210,55 +10546,55 @@
         <f>VLOOKUP(DBsoil[[#This Row],[Pile id]],$X$5:$Y$20,2)</f>
         <v>10</v>
       </c>
-      <c r="I10" s="32"/>
-      <c r="J10" s="32"/>
-      <c r="K10" s="32"/>
-      <c r="L10" s="32"/>
-      <c r="M10" s="32"/>
-      <c r="N10" s="32"/>
-      <c r="O10" s="32">
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="30"/>
+      <c r="O10" s="30">
         <v>1.7</v>
       </c>
-      <c r="P10" s="32" t="s">
+      <c r="P10" s="30" t="s">
         <v>151</v>
       </c>
-      <c r="Q10" s="32">
+      <c r="Q10" s="30">
         <v>3</v>
       </c>
-      <c r="R10" s="32">
+      <c r="R10" s="30">
         <v>1.3</v>
       </c>
-      <c r="S10" s="32" t="s">
+      <c r="S10" s="30" t="s">
         <v>163</v>
       </c>
-      <c r="T10" s="32">
+      <c r="T10" s="30">
         <v>288000</v>
       </c>
-      <c r="U10" s="32">
+      <c r="U10" s="30">
         <v>0.25</v>
       </c>
-      <c r="V10" s="28">
+      <c r="V10" s="27">
         <v>69832.311912323465</v>
       </c>
-      <c r="W10" s="28"/>
-      <c r="X10" s="32">
+      <c r="W10" s="27"/>
+      <c r="X10" s="30">
         <v>78</v>
       </c>
-      <c r="Y10" s="32">
+      <c r="Y10" s="30">
         <v>10</v>
       </c>
-      <c r="Z10" s="35"/>
-      <c r="AA10" s="35"/>
-      <c r="AB10" s="34"/>
-      <c r="AC10" s="37"/>
-      <c r="AD10" s="31"/>
-      <c r="AE10" s="30"/>
-      <c r="AF10" s="31"/>
-      <c r="AG10" s="38"/>
-      <c r="AH10" s="30"/>
-      <c r="AI10" s="30"/>
-      <c r="AJ10" s="39"/>
-      <c r="AK10" s="41"/>
+      <c r="Z10" s="33"/>
+      <c r="AA10" s="33"/>
+      <c r="AB10" s="32"/>
+      <c r="AC10" s="35"/>
+      <c r="AD10" s="29"/>
+      <c r="AE10" s="28"/>
+      <c r="AF10" s="29"/>
+      <c r="AG10" s="36"/>
+      <c r="AH10" s="28"/>
+      <c r="AI10" s="28"/>
+      <c r="AJ10" s="37"/>
+      <c r="AK10" s="39"/>
     </row>
     <row r="11" spans="1:37" ht="14.25">
       <c r="A11">
@@ -10289,55 +10625,55 @@
         <f>VLOOKUP(DBsoil[[#This Row],[Pile id]],$X$5:$Y$20,2)</f>
         <v>10</v>
       </c>
-      <c r="I11" s="32"/>
-      <c r="J11" s="32"/>
-      <c r="K11" s="32"/>
-      <c r="L11" s="32"/>
-      <c r="M11" s="32"/>
-      <c r="N11" s="32"/>
-      <c r="O11" s="32">
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="30">
         <v>3</v>
       </c>
-      <c r="P11" s="32" t="s">
+      <c r="P11" s="30" t="s">
         <v>151</v>
       </c>
-      <c r="Q11" s="32">
+      <c r="Q11" s="30">
         <v>10</v>
       </c>
-      <c r="R11" s="32">
+      <c r="R11" s="30">
         <v>7</v>
       </c>
-      <c r="S11" s="32" t="s">
+      <c r="S11" s="30" t="s">
         <v>164</v>
       </c>
-      <c r="T11" s="32">
+      <c r="T11" s="30">
         <v>1762000</v>
       </c>
-      <c r="U11" s="32">
+      <c r="U11" s="30">
         <v>0.22</v>
       </c>
-      <c r="V11" s="28">
+      <c r="V11" s="27">
         <v>489483.20800782082</v>
       </c>
-      <c r="W11" s="28"/>
-      <c r="X11" s="32">
+      <c r="W11" s="27"/>
+      <c r="X11" s="30">
         <v>79</v>
       </c>
-      <c r="Y11" s="32">
+      <c r="Y11" s="30">
         <v>10</v>
       </c>
-      <c r="Z11" s="35"/>
-      <c r="AA11" s="35"/>
-      <c r="AB11" s="34"/>
-      <c r="AC11" s="37"/>
-      <c r="AD11" s="31"/>
-      <c r="AE11" s="30"/>
-      <c r="AF11" s="31"/>
-      <c r="AG11" s="38"/>
-      <c r="AH11" s="30"/>
-      <c r="AI11" s="30"/>
-      <c r="AJ11" s="40"/>
-      <c r="AK11" s="41"/>
+      <c r="Z11" s="33"/>
+      <c r="AA11" s="33"/>
+      <c r="AB11" s="32"/>
+      <c r="AC11" s="35"/>
+      <c r="AD11" s="29"/>
+      <c r="AE11" s="28"/>
+      <c r="AF11" s="29"/>
+      <c r="AG11" s="36"/>
+      <c r="AH11" s="28"/>
+      <c r="AI11" s="28"/>
+      <c r="AJ11" s="38"/>
+      <c r="AK11" s="39"/>
     </row>
     <row r="12" spans="1:37" ht="14.25" customHeight="1">
       <c r="A12">
@@ -10368,67 +10704,67 @@
         <f>VLOOKUP(DBsoil[[#This Row],[Pile id]],$X$5:$Y$20,2)</f>
         <v>10</v>
       </c>
-      <c r="I12" s="32" t="s">
+      <c r="I12" s="30" t="s">
         <v>169</v>
       </c>
-      <c r="J12" s="32" t="s">
+      <c r="J12" s="30" t="s">
         <v>170</v>
       </c>
-      <c r="K12" s="32">
+      <c r="K12" s="30">
         <v>29409000</v>
       </c>
-      <c r="L12" s="32">
+      <c r="L12" s="30">
         <v>2.5</v>
       </c>
-      <c r="M12" s="32">
+      <c r="M12" s="30">
         <v>1.91747598485705</v>
       </c>
-      <c r="N12" s="32">
+      <c r="N12" s="30">
         <v>22.6</v>
       </c>
-      <c r="O12" s="32">
-        <v>0</v>
-      </c>
-      <c r="P12" s="32" t="s">
+      <c r="O12" s="30">
+        <v>0</v>
+      </c>
+      <c r="P12" s="30" t="s">
         <v>151</v>
       </c>
-      <c r="Q12" s="32">
+      <c r="Q12" s="30">
         <v>0.8</v>
       </c>
-      <c r="R12" s="32">
+      <c r="R12" s="30">
         <v>0.8</v>
       </c>
-      <c r="S12" s="32" t="s">
+      <c r="S12" s="30" t="s">
         <v>163</v>
       </c>
-      <c r="T12" s="32">
+      <c r="T12" s="30">
         <v>288000</v>
       </c>
-      <c r="U12" s="32">
+      <c r="U12" s="30">
         <v>0.25</v>
       </c>
-      <c r="V12" s="28">
+      <c r="V12" s="27">
         <v>69832.311912323465</v>
       </c>
-      <c r="W12" s="28"/>
-      <c r="X12" s="32">
+      <c r="W12" s="27"/>
+      <c r="X12" s="30">
         <v>80</v>
       </c>
-      <c r="Y12" s="32">
+      <c r="Y12" s="30">
         <v>10</v>
       </c>
-      <c r="Z12" s="35"/>
-      <c r="AA12" s="35"/>
-      <c r="AB12" s="34"/>
-      <c r="AC12" s="31"/>
-      <c r="AD12" s="31"/>
-      <c r="AE12" s="30"/>
-      <c r="AF12" s="31"/>
-      <c r="AG12" s="38"/>
-      <c r="AH12" s="30"/>
-      <c r="AI12" s="30"/>
-      <c r="AJ12" s="30"/>
-      <c r="AK12" s="41"/>
+      <c r="Z12" s="33"/>
+      <c r="AA12" s="33"/>
+      <c r="AB12" s="32"/>
+      <c r="AC12" s="29"/>
+      <c r="AD12" s="29"/>
+      <c r="AE12" s="28"/>
+      <c r="AF12" s="29"/>
+      <c r="AG12" s="36"/>
+      <c r="AH12" s="28"/>
+      <c r="AI12" s="28"/>
+      <c r="AJ12" s="28"/>
+      <c r="AK12" s="39"/>
     </row>
     <row r="13" spans="1:37" ht="14.25">
       <c r="A13">
@@ -10459,55 +10795,55 @@
         <f>VLOOKUP(DBsoil[[#This Row],[Pile id]],$X$5:$Y$20,2)</f>
         <v>10</v>
       </c>
-      <c r="I13" s="32"/>
-      <c r="J13" s="32"/>
-      <c r="K13" s="32"/>
-      <c r="L13" s="32"/>
-      <c r="M13" s="32"/>
-      <c r="N13" s="32"/>
-      <c r="O13" s="32">
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="30"/>
+      <c r="N13" s="30"/>
+      <c r="O13" s="30">
         <v>0.8</v>
       </c>
-      <c r="P13" s="32" t="s">
+      <c r="P13" s="30" t="s">
         <v>151</v>
       </c>
-      <c r="Q13" s="32">
+      <c r="Q13" s="30">
         <v>10</v>
       </c>
-      <c r="R13" s="32">
+      <c r="R13" s="30">
         <v>9.1999999999999993</v>
       </c>
-      <c r="S13" s="32" t="s">
+      <c r="S13" s="30" t="s">
         <v>164</v>
       </c>
-      <c r="T13" s="32">
+      <c r="T13" s="30">
         <v>1762000</v>
       </c>
-      <c r="U13" s="32">
+      <c r="U13" s="30">
         <v>0.22</v>
       </c>
-      <c r="V13" s="28">
+      <c r="V13" s="27">
         <v>489483.20800782082</v>
       </c>
-      <c r="W13" s="28"/>
-      <c r="X13" s="32">
+      <c r="W13" s="27"/>
+      <c r="X13" s="30">
         <v>81</v>
       </c>
-      <c r="Y13" s="32">
+      <c r="Y13" s="30">
         <v>10</v>
       </c>
-      <c r="Z13" s="35"/>
-      <c r="AA13" s="35"/>
-      <c r="AB13" s="34"/>
-      <c r="AC13" s="31"/>
-      <c r="AD13" s="31"/>
-      <c r="AE13" s="30"/>
-      <c r="AF13" s="31"/>
-      <c r="AG13" s="38"/>
-      <c r="AH13" s="30"/>
-      <c r="AI13" s="30"/>
-      <c r="AJ13" s="30"/>
-      <c r="AK13" s="41"/>
+      <c r="Z13" s="33"/>
+      <c r="AA13" s="33"/>
+      <c r="AB13" s="32"/>
+      <c r="AC13" s="29"/>
+      <c r="AD13" s="29"/>
+      <c r="AE13" s="28"/>
+      <c r="AF13" s="29"/>
+      <c r="AG13" s="36"/>
+      <c r="AH13" s="28"/>
+      <c r="AI13" s="28"/>
+      <c r="AJ13" s="28"/>
+      <c r="AK13" s="39"/>
     </row>
     <row r="14" spans="1:37" ht="14.25">
       <c r="A14">
@@ -10538,63 +10874,63 @@
         <f>VLOOKUP(DBsoil[[#This Row],[Pile id]],$X$5:$Y$20,2)</f>
         <v>10</v>
       </c>
-      <c r="I14" s="32" t="s">
+      <c r="I14" s="30" t="s">
         <v>171</v>
       </c>
-      <c r="J14" s="32" t="s">
+      <c r="J14" s="30" t="s">
         <v>172</v>
       </c>
-      <c r="K14" s="32">
+      <c r="K14" s="30">
         <v>29409000</v>
       </c>
-      <c r="L14" s="32">
+      <c r="L14" s="30">
         <v>2.25</v>
       </c>
-      <c r="M14" s="32">
+      <c r="M14" s="30">
         <v>1.91747598485705</v>
       </c>
-      <c r="N14" s="32">
+      <c r="N14" s="30">
         <v>22.1</v>
       </c>
-      <c r="O14" s="32">
-        <v>0</v>
-      </c>
-      <c r="P14" s="32" t="s">
+      <c r="O14" s="30">
+        <v>0</v>
+      </c>
+      <c r="P14" s="30" t="s">
         <v>151</v>
       </c>
-      <c r="Q14" s="32">
+      <c r="Q14" s="30">
         <v>4.0999999999999996</v>
       </c>
-      <c r="R14" s="32">
+      <c r="R14" s="30">
         <v>4.0999999999999996</v>
       </c>
-      <c r="S14" s="32" t="s">
+      <c r="S14" s="30" t="s">
         <v>163</v>
       </c>
-      <c r="T14" s="32">
+      <c r="T14" s="30">
         <v>288000</v>
       </c>
-      <c r="U14" s="32">
+      <c r="U14" s="30">
         <v>0.25</v>
       </c>
-      <c r="V14" s="28">
+      <c r="V14" s="27">
         <v>74913.728726463974</v>
       </c>
-      <c r="W14" s="28"/>
-      <c r="X14" s="32"/>
-      <c r="Y14" s="32"/>
-      <c r="Z14" s="35"/>
-      <c r="AA14" s="35"/>
-      <c r="AB14" s="34"/>
-      <c r="AC14" s="31"/>
-      <c r="AD14" s="31"/>
-      <c r="AE14" s="30"/>
-      <c r="AF14" s="31"/>
-      <c r="AG14" s="38"/>
-      <c r="AH14" s="30"/>
-      <c r="AI14" s="30"/>
-      <c r="AJ14" s="30"/>
-      <c r="AK14" s="41"/>
+      <c r="W14" s="27"/>
+      <c r="X14" s="30"/>
+      <c r="Y14" s="30"/>
+      <c r="Z14" s="33"/>
+      <c r="AA14" s="33"/>
+      <c r="AB14" s="32"/>
+      <c r="AC14" s="29"/>
+      <c r="AD14" s="29"/>
+      <c r="AE14" s="28"/>
+      <c r="AF14" s="29"/>
+      <c r="AG14" s="36"/>
+      <c r="AH14" s="28"/>
+      <c r="AI14" s="28"/>
+      <c r="AJ14" s="28"/>
+      <c r="AK14" s="39"/>
     </row>
     <row r="15" spans="1:37" ht="14.25">
       <c r="A15">
@@ -10625,51 +10961,51 @@
         <f>VLOOKUP(DBsoil[[#This Row],[Pile id]],$X$5:$Y$20,2)</f>
         <v>10</v>
       </c>
-      <c r="I15" s="32"/>
-      <c r="J15" s="32"/>
-      <c r="K15" s="32"/>
-      <c r="L15" s="32"/>
-      <c r="M15" s="32"/>
-      <c r="N15" s="32"/>
-      <c r="O15" s="32">
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="30"/>
+      <c r="M15" s="30"/>
+      <c r="N15" s="30"/>
+      <c r="O15" s="30">
         <v>4.0999999999999996</v>
       </c>
-      <c r="P15" s="32" t="s">
+      <c r="P15" s="30" t="s">
         <v>151</v>
       </c>
-      <c r="Q15" s="32">
+      <c r="Q15" s="30">
         <v>10</v>
       </c>
-      <c r="R15" s="32">
+      <c r="R15" s="30">
         <v>5.9</v>
       </c>
-      <c r="S15" s="32" t="s">
+      <c r="S15" s="30" t="s">
         <v>164</v>
       </c>
-      <c r="T15" s="32">
+      <c r="T15" s="30">
         <v>1762000</v>
       </c>
-      <c r="U15" s="32">
+      <c r="U15" s="30">
         <v>0.22</v>
       </c>
-      <c r="V15" s="28">
+      <c r="V15" s="27">
         <v>525100.93474917824</v>
       </c>
-      <c r="W15" s="28"/>
-      <c r="X15" s="32"/>
-      <c r="Y15" s="32"/>
-      <c r="Z15" s="35"/>
-      <c r="AA15" s="35"/>
-      <c r="AB15" s="34"/>
-      <c r="AC15" s="37"/>
-      <c r="AD15" s="31"/>
-      <c r="AE15" s="30"/>
-      <c r="AF15" s="31"/>
-      <c r="AG15" s="38"/>
-      <c r="AH15" s="30"/>
-      <c r="AI15" s="39"/>
-      <c r="AJ15" s="40"/>
-      <c r="AK15" s="41"/>
+      <c r="W15" s="27"/>
+      <c r="X15" s="30"/>
+      <c r="Y15" s="30"/>
+      <c r="Z15" s="33"/>
+      <c r="AA15" s="33"/>
+      <c r="AB15" s="32"/>
+      <c r="AC15" s="35"/>
+      <c r="AD15" s="29"/>
+      <c r="AE15" s="28"/>
+      <c r="AF15" s="29"/>
+      <c r="AG15" s="36"/>
+      <c r="AH15" s="28"/>
+      <c r="AI15" s="37"/>
+      <c r="AJ15" s="38"/>
+      <c r="AK15" s="39"/>
     </row>
     <row r="16" spans="1:37" ht="14.25">
       <c r="A16">
@@ -10700,63 +11036,63 @@
         <f>VLOOKUP(DBsoil[[#This Row],[Pile id]],$X$5:$Y$20,2)</f>
         <v>10</v>
       </c>
-      <c r="I16" s="32" t="s">
+      <c r="I16" s="30" t="s">
         <v>173</v>
       </c>
-      <c r="J16" s="32" t="s">
+      <c r="J16" s="30" t="s">
         <v>174</v>
       </c>
-      <c r="K16" s="32">
+      <c r="K16" s="30">
         <v>29409000</v>
       </c>
-      <c r="L16" s="32">
+      <c r="L16" s="30">
         <v>2.5</v>
       </c>
-      <c r="M16" s="32">
+      <c r="M16" s="30">
         <v>1.91747598485705</v>
       </c>
-      <c r="N16" s="32">
+      <c r="N16" s="30">
         <v>22.1</v>
       </c>
-      <c r="O16" s="32">
-        <v>0</v>
-      </c>
-      <c r="P16" s="32" t="s">
+      <c r="O16" s="30">
+        <v>0</v>
+      </c>
+      <c r="P16" s="30" t="s">
         <v>151</v>
       </c>
-      <c r="Q16" s="32">
+      <c r="Q16" s="30">
         <v>0.3</v>
       </c>
-      <c r="R16" s="32">
+      <c r="R16" s="30">
         <v>0.3</v>
       </c>
-      <c r="S16" s="32" t="s">
+      <c r="S16" s="30" t="s">
         <v>163</v>
       </c>
-      <c r="T16" s="32">
+      <c r="T16" s="30">
         <v>288000</v>
       </c>
-      <c r="U16" s="32">
+      <c r="U16" s="30">
         <v>0.25</v>
       </c>
-      <c r="V16" s="28">
+      <c r="V16" s="27">
         <v>69832.311912323465</v>
       </c>
-      <c r="W16" s="28"/>
-      <c r="X16" s="32"/>
-      <c r="Y16" s="32"/>
-      <c r="Z16" s="35"/>
-      <c r="AA16" s="35"/>
-      <c r="AB16" s="34"/>
-      <c r="AC16" s="37"/>
-      <c r="AD16" s="31"/>
-      <c r="AE16" s="30"/>
-      <c r="AF16" s="31"/>
-      <c r="AG16" s="38"/>
-      <c r="AH16" s="30"/>
-      <c r="AI16" s="30"/>
-      <c r="AJ16" s="39"/>
-      <c r="AK16" s="41"/>
+      <c r="W16" s="27"/>
+      <c r="X16" s="30"/>
+      <c r="Y16" s="30"/>
+      <c r="Z16" s="33"/>
+      <c r="AA16" s="33"/>
+      <c r="AB16" s="32"/>
+      <c r="AC16" s="35"/>
+      <c r="AD16" s="29"/>
+      <c r="AE16" s="28"/>
+      <c r="AF16" s="29"/>
+      <c r="AG16" s="36"/>
+      <c r="AH16" s="28"/>
+      <c r="AI16" s="28"/>
+      <c r="AJ16" s="37"/>
+      <c r="AK16" s="39"/>
     </row>
     <row r="17" spans="1:37" ht="14.25">
       <c r="A17">
@@ -10787,51 +11123,51 @@
         <f>VLOOKUP(DBsoil[[#This Row],[Pile id]],$X$5:$Y$20,2)</f>
         <v>10</v>
       </c>
-      <c r="I17" s="32"/>
-      <c r="J17" s="32"/>
-      <c r="K17" s="32"/>
-      <c r="L17" s="32"/>
-      <c r="M17" s="32"/>
-      <c r="N17" s="32"/>
-      <c r="O17" s="32">
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="30"/>
+      <c r="N17" s="30"/>
+      <c r="O17" s="30">
         <v>0.3</v>
       </c>
-      <c r="P17" s="32" t="s">
+      <c r="P17" s="30" t="s">
         <v>151</v>
       </c>
-      <c r="Q17" s="32">
+      <c r="Q17" s="30">
         <v>2.6</v>
       </c>
-      <c r="R17" s="32">
+      <c r="R17" s="30">
         <v>2.3000000000000003</v>
       </c>
-      <c r="S17" s="32" t="s">
+      <c r="S17" s="30" t="s">
         <v>163</v>
       </c>
-      <c r="T17" s="32">
+      <c r="T17" s="30">
         <v>288000</v>
       </c>
-      <c r="U17" s="32">
+      <c r="U17" s="30">
         <v>0.25</v>
       </c>
-      <c r="V17" s="28">
+      <c r="V17" s="27">
         <v>69832.311912323465</v>
       </c>
-      <c r="W17" s="28"/>
-      <c r="X17" s="32"/>
-      <c r="Y17" s="32"/>
-      <c r="Z17" s="35"/>
-      <c r="AA17" s="35"/>
-      <c r="AB17" s="34"/>
-      <c r="AC17" s="37"/>
-      <c r="AD17" s="31"/>
-      <c r="AE17" s="30"/>
-      <c r="AF17" s="31"/>
-      <c r="AG17" s="38"/>
-      <c r="AH17" s="30"/>
-      <c r="AI17" s="30"/>
-      <c r="AJ17" s="40"/>
-      <c r="AK17" s="41"/>
+      <c r="W17" s="27"/>
+      <c r="X17" s="30"/>
+      <c r="Y17" s="30"/>
+      <c r="Z17" s="33"/>
+      <c r="AA17" s="33"/>
+      <c r="AB17" s="32"/>
+      <c r="AC17" s="35"/>
+      <c r="AD17" s="29"/>
+      <c r="AE17" s="28"/>
+      <c r="AF17" s="29"/>
+      <c r="AG17" s="36"/>
+      <c r="AH17" s="28"/>
+      <c r="AI17" s="28"/>
+      <c r="AJ17" s="38"/>
+      <c r="AK17" s="39"/>
     </row>
     <row r="18" spans="1:37" ht="14.25">
       <c r="A18">
@@ -10862,51 +11198,51 @@
         <f>VLOOKUP(DBsoil[[#This Row],[Pile id]],$X$5:$Y$20,2)</f>
         <v>10</v>
       </c>
-      <c r="I18" s="32"/>
-      <c r="J18" s="32"/>
-      <c r="K18" s="32"/>
-      <c r="L18" s="32"/>
-      <c r="M18" s="32"/>
-      <c r="N18" s="32"/>
-      <c r="O18" s="32">
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="30"/>
+      <c r="M18" s="30"/>
+      <c r="N18" s="30"/>
+      <c r="O18" s="30">
         <v>2.6</v>
       </c>
-      <c r="P18" s="32" t="s">
+      <c r="P18" s="30" t="s">
         <v>151</v>
       </c>
-      <c r="Q18" s="32">
+      <c r="Q18" s="30">
         <v>10</v>
       </c>
-      <c r="R18" s="32">
+      <c r="R18" s="30">
         <v>7.4</v>
       </c>
-      <c r="S18" s="32" t="s">
+      <c r="S18" s="30" t="s">
         <v>164</v>
       </c>
-      <c r="T18" s="32">
+      <c r="T18" s="30">
         <v>1762000</v>
       </c>
-      <c r="U18" s="32">
+      <c r="U18" s="30">
         <v>0.22</v>
       </c>
-      <c r="V18" s="28">
+      <c r="V18" s="27">
         <v>489483.20800782082</v>
       </c>
-      <c r="W18" s="28"/>
-      <c r="X18" s="32"/>
-      <c r="Y18" s="32"/>
-      <c r="Z18" s="35"/>
-      <c r="AA18" s="35"/>
-      <c r="AB18" s="34"/>
-      <c r="AC18" s="31"/>
-      <c r="AD18" s="31"/>
-      <c r="AE18" s="30"/>
-      <c r="AF18" s="31"/>
-      <c r="AG18" s="38"/>
-      <c r="AH18" s="30"/>
-      <c r="AI18" s="30"/>
-      <c r="AJ18" s="30"/>
-      <c r="AK18" s="41"/>
+      <c r="W18" s="27"/>
+      <c r="X18" s="30"/>
+      <c r="Y18" s="30"/>
+      <c r="Z18" s="33"/>
+      <c r="AA18" s="33"/>
+      <c r="AB18" s="32"/>
+      <c r="AC18" s="29"/>
+      <c r="AD18" s="29"/>
+      <c r="AE18" s="28"/>
+      <c r="AF18" s="29"/>
+      <c r="AG18" s="36"/>
+      <c r="AH18" s="28"/>
+      <c r="AI18" s="28"/>
+      <c r="AJ18" s="28"/>
+      <c r="AK18" s="39"/>
     </row>
     <row r="19" spans="1:37" ht="11.25" customHeight="1">
       <c r="A19">
@@ -10937,63 +11273,63 @@
         <f>VLOOKUP(DBsoil[[#This Row],[Pile id]],$X$5:$Y$20,2)</f>
         <v>10</v>
       </c>
-      <c r="I19" s="32" t="s">
+      <c r="I19" s="30" t="s">
         <v>175</v>
       </c>
-      <c r="J19" s="32" t="s">
+      <c r="J19" s="30" t="s">
         <v>176</v>
       </c>
-      <c r="K19" s="32">
+      <c r="K19" s="30">
         <v>29409000</v>
       </c>
-      <c r="L19" s="32">
+      <c r="L19" s="30">
         <v>2.5</v>
       </c>
-      <c r="M19" s="32">
+      <c r="M19" s="30">
         <v>1.91747598485705</v>
       </c>
-      <c r="N19" s="32">
+      <c r="N19" s="30">
         <v>21.6</v>
       </c>
-      <c r="O19" s="32">
-        <v>0</v>
-      </c>
-      <c r="P19" s="32" t="s">
+      <c r="O19" s="30">
+        <v>0</v>
+      </c>
+      <c r="P19" s="30" t="s">
         <v>151</v>
       </c>
-      <c r="Q19" s="32">
+      <c r="Q19" s="30">
         <v>5.4</v>
       </c>
-      <c r="R19" s="32">
+      <c r="R19" s="30">
         <v>5.4</v>
       </c>
-      <c r="S19" s="32" t="s">
+      <c r="S19" s="30" t="s">
         <v>164</v>
       </c>
-      <c r="T19" s="32">
+      <c r="T19" s="30">
         <v>1762000</v>
       </c>
-      <c r="U19" s="32">
+      <c r="U19" s="30">
         <v>0.22</v>
       </c>
-      <c r="V19" s="28">
+      <c r="V19" s="27">
         <v>489483.20800782082</v>
       </c>
-      <c r="W19" s="28"/>
-      <c r="X19" s="32"/>
-      <c r="Y19" s="32"/>
-      <c r="Z19" s="35"/>
-      <c r="AA19" s="35"/>
-      <c r="AB19" s="36"/>
-      <c r="AC19" s="37"/>
-      <c r="AD19" s="31"/>
-      <c r="AE19" s="30"/>
-      <c r="AF19" s="31"/>
-      <c r="AG19" s="38"/>
-      <c r="AH19" s="30"/>
-      <c r="AI19" s="30"/>
-      <c r="AJ19" s="30"/>
-      <c r="AK19" s="41"/>
+      <c r="W19" s="27"/>
+      <c r="X19" s="30"/>
+      <c r="Y19" s="30"/>
+      <c r="Z19" s="33"/>
+      <c r="AA19" s="33"/>
+      <c r="AB19" s="34"/>
+      <c r="AC19" s="35"/>
+      <c r="AD19" s="29"/>
+      <c r="AE19" s="28"/>
+      <c r="AF19" s="29"/>
+      <c r="AG19" s="36"/>
+      <c r="AH19" s="28"/>
+      <c r="AI19" s="28"/>
+      <c r="AJ19" s="28"/>
+      <c r="AK19" s="39"/>
     </row>
     <row r="20" spans="1:37" ht="11.25" customHeight="1">
       <c r="A20">
@@ -11024,51 +11360,51 @@
         <f>VLOOKUP(DBsoil[[#This Row],[Pile id]],$X$5:$Y$20,2)</f>
         <v>10</v>
       </c>
-      <c r="I20" s="32"/>
-      <c r="J20" s="32"/>
-      <c r="K20" s="32"/>
-      <c r="L20" s="32"/>
-      <c r="M20" s="32"/>
-      <c r="N20" s="32"/>
-      <c r="O20" s="32">
+      <c r="I20" s="30"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="30"/>
+      <c r="L20" s="30"/>
+      <c r="M20" s="30"/>
+      <c r="N20" s="30"/>
+      <c r="O20" s="30">
         <v>5.4</v>
       </c>
-      <c r="P20" s="32" t="s">
+      <c r="P20" s="30" t="s">
         <v>151</v>
       </c>
-      <c r="Q20" s="32">
+      <c r="Q20" s="30">
         <v>10</v>
       </c>
-      <c r="R20" s="32">
+      <c r="R20" s="30">
         <v>4.5999999999999996</v>
       </c>
-      <c r="S20" s="32" t="s">
+      <c r="S20" s="30" t="s">
         <v>164</v>
       </c>
-      <c r="T20" s="32">
+      <c r="T20" s="30">
         <v>1762000</v>
       </c>
-      <c r="U20" s="32">
+      <c r="U20" s="30">
         <v>0.22</v>
       </c>
-      <c r="V20" s="28">
+      <c r="V20" s="27">
         <v>489483.20800782082</v>
       </c>
-      <c r="W20" s="28"/>
-      <c r="X20" s="32"/>
-      <c r="Y20" s="32"/>
-      <c r="Z20" s="35"/>
-      <c r="AA20" s="35"/>
-      <c r="AB20" s="36"/>
-      <c r="AC20" s="37"/>
-      <c r="AD20" s="31"/>
-      <c r="AE20" s="30"/>
-      <c r="AF20" s="31"/>
-      <c r="AG20" s="38"/>
-      <c r="AH20" s="30"/>
-      <c r="AI20" s="30"/>
-      <c r="AJ20" s="30"/>
-      <c r="AK20" s="41"/>
+      <c r="W20" s="27"/>
+      <c r="X20" s="30"/>
+      <c r="Y20" s="30"/>
+      <c r="Z20" s="33"/>
+      <c r="AA20" s="33"/>
+      <c r="AB20" s="34"/>
+      <c r="AC20" s="35"/>
+      <c r="AD20" s="29"/>
+      <c r="AE20" s="28"/>
+      <c r="AF20" s="29"/>
+      <c r="AG20" s="36"/>
+      <c r="AH20" s="28"/>
+      <c r="AI20" s="28"/>
+      <c r="AJ20" s="28"/>
+      <c r="AK20" s="39"/>
     </row>
     <row r="21" spans="1:37" ht="11.25" customHeight="1">
       <c r="A21">
@@ -11099,63 +11435,63 @@
         <f>VLOOKUP(DBsoil[[#This Row],[Pile id]],$X$5:$Y$20,2)</f>
         <v>10</v>
       </c>
-      <c r="I21" s="32" t="s">
+      <c r="I21" s="30" t="s">
         <v>177</v>
       </c>
-      <c r="J21" s="32" t="s">
+      <c r="J21" s="30" t="s">
         <v>178</v>
       </c>
-      <c r="K21" s="32">
+      <c r="K21" s="30">
         <v>29409000</v>
       </c>
-      <c r="L21" s="32">
+      <c r="L21" s="30">
         <v>2.5</v>
       </c>
-      <c r="M21" s="32">
+      <c r="M21" s="30">
         <v>1.91747598485705</v>
       </c>
-      <c r="N21" s="32">
+      <c r="N21" s="30">
         <v>22.4</v>
       </c>
-      <c r="O21" s="32">
-        <v>0</v>
-      </c>
-      <c r="P21" s="32" t="s">
+      <c r="O21" s="30">
+        <v>0</v>
+      </c>
+      <c r="P21" s="30" t="s">
         <v>151</v>
       </c>
-      <c r="Q21" s="32">
+      <c r="Q21" s="30">
         <v>1.9</v>
       </c>
-      <c r="R21" s="32">
+      <c r="R21" s="30">
         <v>1.9</v>
       </c>
-      <c r="S21" s="32" t="s">
+      <c r="S21" s="30" t="s">
         <v>152</v>
       </c>
-      <c r="T21" s="32">
+      <c r="T21" s="30">
         <v>29000</v>
       </c>
-      <c r="U21" s="32">
+      <c r="U21" s="30">
         <v>0.3</v>
       </c>
-      <c r="V21" s="28">
+      <c r="V21" s="27">
         <v>5982.8613772736016</v>
       </c>
-      <c r="W21" s="28"/>
-      <c r="X21" s="32"/>
-      <c r="Y21" s="32"/>
-      <c r="Z21" s="35"/>
-      <c r="AA21" s="35"/>
-      <c r="AB21" s="36"/>
-      <c r="AC21" s="31"/>
-      <c r="AD21" s="31"/>
-      <c r="AE21" s="30"/>
-      <c r="AF21" s="31"/>
-      <c r="AG21" s="38"/>
-      <c r="AH21" s="30"/>
-      <c r="AI21" s="30"/>
-      <c r="AJ21" s="39"/>
-      <c r="AK21" s="41"/>
+      <c r="W21" s="27"/>
+      <c r="X21" s="30"/>
+      <c r="Y21" s="30"/>
+      <c r="Z21" s="33"/>
+      <c r="AA21" s="33"/>
+      <c r="AB21" s="34"/>
+      <c r="AC21" s="29"/>
+      <c r="AD21" s="29"/>
+      <c r="AE21" s="28"/>
+      <c r="AF21" s="29"/>
+      <c r="AG21" s="36"/>
+      <c r="AH21" s="28"/>
+      <c r="AI21" s="28"/>
+      <c r="AJ21" s="37"/>
+      <c r="AK21" s="39"/>
     </row>
     <row r="22" spans="1:37" ht="11.25" customHeight="1">
       <c r="A22">
@@ -11186,51 +11522,51 @@
         <f>VLOOKUP(DBsoil[[#This Row],[Pile id]],$X$5:$Y$20,2)</f>
         <v>10</v>
       </c>
-      <c r="I22" s="32"/>
-      <c r="J22" s="32"/>
-      <c r="K22" s="32"/>
-      <c r="L22" s="32"/>
-      <c r="M22" s="32"/>
-      <c r="N22" s="32"/>
-      <c r="O22" s="32">
+      <c r="I22" s="30"/>
+      <c r="J22" s="30"/>
+      <c r="K22" s="30"/>
+      <c r="L22" s="30"/>
+      <c r="M22" s="30"/>
+      <c r="N22" s="30"/>
+      <c r="O22" s="30">
         <v>1.9</v>
       </c>
-      <c r="P22" s="32" t="s">
+      <c r="P22" s="30" t="s">
         <v>151</v>
       </c>
-      <c r="Q22" s="32">
+      <c r="Q22" s="30">
         <v>4.5</v>
       </c>
-      <c r="R22" s="32">
+      <c r="R22" s="30">
         <v>2.6</v>
       </c>
-      <c r="S22" s="32" t="s">
+      <c r="S22" s="30" t="s">
         <v>164</v>
       </c>
-      <c r="T22" s="32">
+      <c r="T22" s="30">
         <v>3500000</v>
       </c>
-      <c r="U22" s="32">
+      <c r="U22" s="30">
         <v>0.22</v>
       </c>
-      <c r="V22" s="28">
+      <c r="V22" s="27">
         <v>1029528.6804862762</v>
       </c>
-      <c r="W22" s="28"/>
-      <c r="X22" s="32"/>
-      <c r="Y22" s="32"/>
-      <c r="Z22" s="35"/>
-      <c r="AA22" s="35"/>
-      <c r="AB22" s="34"/>
-      <c r="AC22" s="37"/>
-      <c r="AD22" s="31"/>
-      <c r="AE22" s="30"/>
-      <c r="AF22" s="31"/>
-      <c r="AG22" s="38"/>
-      <c r="AH22" s="30"/>
-      <c r="AI22" s="30"/>
-      <c r="AJ22" s="40"/>
-      <c r="AK22" s="41"/>
+      <c r="W22" s="27"/>
+      <c r="X22" s="30"/>
+      <c r="Y22" s="30"/>
+      <c r="Z22" s="33"/>
+      <c r="AA22" s="33"/>
+      <c r="AB22" s="32"/>
+      <c r="AC22" s="35"/>
+      <c r="AD22" s="29"/>
+      <c r="AE22" s="28"/>
+      <c r="AF22" s="29"/>
+      <c r="AG22" s="36"/>
+      <c r="AH22" s="28"/>
+      <c r="AI22" s="28"/>
+      <c r="AJ22" s="38"/>
+      <c r="AK22" s="39"/>
     </row>
     <row r="23" spans="1:37" ht="11.25" customHeight="1">
       <c r="A23">
@@ -11261,51 +11597,51 @@
         <f>VLOOKUP(DBsoil[[#This Row],[Pile id]],$X$5:$Y$20,2)</f>
         <v>10</v>
       </c>
-      <c r="I23" s="32"/>
-      <c r="J23" s="32"/>
-      <c r="K23" s="32"/>
-      <c r="L23" s="32"/>
-      <c r="M23" s="32"/>
-      <c r="N23" s="32"/>
-      <c r="O23" s="32">
+      <c r="I23" s="30"/>
+      <c r="J23" s="30"/>
+      <c r="K23" s="30"/>
+      <c r="L23" s="30"/>
+      <c r="M23" s="30"/>
+      <c r="N23" s="30"/>
+      <c r="O23" s="30">
         <v>4.5</v>
       </c>
-      <c r="P23" s="32" t="s">
+      <c r="P23" s="30" t="s">
         <v>151</v>
       </c>
-      <c r="Q23" s="32">
+      <c r="Q23" s="30">
         <v>10</v>
       </c>
-      <c r="R23" s="32">
+      <c r="R23" s="30">
         <v>5.5</v>
       </c>
-      <c r="S23" s="32" t="s">
+      <c r="S23" s="30" t="s">
         <v>164</v>
       </c>
-      <c r="T23" s="32">
+      <c r="T23" s="30">
         <v>3500000</v>
       </c>
-      <c r="U23" s="32">
+      <c r="U23" s="30">
         <v>0.22</v>
       </c>
-      <c r="V23" s="28">
+      <c r="V23" s="27">
         <v>1029528.6804862762</v>
       </c>
-      <c r="W23" s="28"/>
-      <c r="X23" s="32"/>
-      <c r="Y23" s="32"/>
-      <c r="Z23" s="35"/>
-      <c r="AA23" s="35"/>
-      <c r="AB23" s="34"/>
-      <c r="AC23" s="37"/>
-      <c r="AD23" s="31"/>
-      <c r="AE23" s="30"/>
-      <c r="AF23" s="31"/>
-      <c r="AG23" s="38"/>
-      <c r="AH23" s="30"/>
-      <c r="AI23" s="30"/>
-      <c r="AJ23" s="30"/>
-      <c r="AK23" s="41"/>
+      <c r="W23" s="27"/>
+      <c r="X23" s="30"/>
+      <c r="Y23" s="30"/>
+      <c r="Z23" s="33"/>
+      <c r="AA23" s="33"/>
+      <c r="AB23" s="32"/>
+      <c r="AC23" s="35"/>
+      <c r="AD23" s="29"/>
+      <c r="AE23" s="28"/>
+      <c r="AF23" s="29"/>
+      <c r="AG23" s="36"/>
+      <c r="AH23" s="28"/>
+      <c r="AI23" s="28"/>
+      <c r="AJ23" s="28"/>
+      <c r="AK23" s="39"/>
     </row>
     <row r="24" spans="1:37" ht="11.25" customHeight="1">
       <c r="A24">
@@ -11336,63 +11672,63 @@
         <f>VLOOKUP(DBsoil[[#This Row],[Pile id]],$X$5:$Y$20,2)</f>
         <v>10</v>
       </c>
-      <c r="I24" s="32" t="s">
+      <c r="I24" s="30" t="s">
         <v>179</v>
       </c>
-      <c r="J24" s="32" t="s">
+      <c r="J24" s="30" t="s">
         <v>180</v>
       </c>
-      <c r="K24" s="32">
+      <c r="K24" s="30">
         <v>29409000</v>
       </c>
-      <c r="L24" s="32">
+      <c r="L24" s="30">
         <v>2.5</v>
       </c>
-      <c r="M24" s="32">
+      <c r="M24" s="30">
         <v>1.91747598485705</v>
       </c>
-      <c r="N24" s="32">
+      <c r="N24" s="30">
         <v>20.2</v>
       </c>
-      <c r="O24" s="32">
-        <v>0</v>
-      </c>
-      <c r="P24" s="32" t="s">
+      <c r="O24" s="30">
+        <v>0</v>
+      </c>
+      <c r="P24" s="30" t="s">
         <v>151</v>
       </c>
-      <c r="Q24" s="32">
+      <c r="Q24" s="30">
         <v>0.9</v>
       </c>
-      <c r="R24" s="32">
+      <c r="R24" s="30">
         <v>0.9</v>
       </c>
-      <c r="S24" s="32" t="s">
+      <c r="S24" s="30" t="s">
         <v>152</v>
       </c>
-      <c r="T24" s="32">
+      <c r="T24" s="30">
         <v>29000</v>
       </c>
-      <c r="U24" s="32">
+      <c r="U24" s="30">
         <v>0.3</v>
       </c>
-      <c r="V24" s="28">
+      <c r="V24" s="27">
         <v>5982.8613772736016</v>
       </c>
-      <c r="W24" s="28"/>
-      <c r="X24" s="32"/>
-      <c r="Y24" s="32"/>
-      <c r="Z24" s="35"/>
-      <c r="AA24" s="35"/>
-      <c r="AB24" s="34"/>
-      <c r="AC24" s="37"/>
-      <c r="AD24" s="31"/>
-      <c r="AE24" s="30"/>
-      <c r="AF24" s="31"/>
-      <c r="AG24" s="38"/>
-      <c r="AH24" s="30"/>
-      <c r="AI24" s="30"/>
-      <c r="AJ24" s="30"/>
-      <c r="AK24" s="41"/>
+      <c r="W24" s="27"/>
+      <c r="X24" s="30"/>
+      <c r="Y24" s="30"/>
+      <c r="Z24" s="33"/>
+      <c r="AA24" s="33"/>
+      <c r="AB24" s="32"/>
+      <c r="AC24" s="35"/>
+      <c r="AD24" s="29"/>
+      <c r="AE24" s="28"/>
+      <c r="AF24" s="29"/>
+      <c r="AG24" s="36"/>
+      <c r="AH24" s="28"/>
+      <c r="AI24" s="28"/>
+      <c r="AJ24" s="28"/>
+      <c r="AK24" s="39"/>
     </row>
     <row r="25" spans="1:37" ht="11.25" customHeight="1">
       <c r="A25">
@@ -11423,51 +11759,51 @@
         <f>VLOOKUP(DBsoil[[#This Row],[Pile id]],$X$5:$Y$20,2)</f>
         <v>10</v>
       </c>
-      <c r="I25" s="32"/>
-      <c r="J25" s="32"/>
-      <c r="K25" s="32"/>
-      <c r="L25" s="32"/>
-      <c r="M25" s="32"/>
-      <c r="N25" s="32"/>
-      <c r="O25" s="32">
+      <c r="I25" s="30"/>
+      <c r="J25" s="30"/>
+      <c r="K25" s="30"/>
+      <c r="L25" s="30"/>
+      <c r="M25" s="30"/>
+      <c r="N25" s="30"/>
+      <c r="O25" s="30">
         <v>0.9</v>
       </c>
-      <c r="P25" s="32" t="s">
+      <c r="P25" s="30" t="s">
         <v>151</v>
       </c>
-      <c r="Q25" s="32">
+      <c r="Q25" s="30">
         <v>2.7</v>
       </c>
-      <c r="R25" s="32">
+      <c r="R25" s="30">
         <v>1.8000000000000003</v>
       </c>
-      <c r="S25" s="32" t="s">
+      <c r="S25" s="30" t="s">
         <v>152</v>
       </c>
-      <c r="T25" s="32">
+      <c r="T25" s="30">
         <v>29000</v>
       </c>
-      <c r="U25" s="32">
+      <c r="U25" s="30">
         <v>0.3</v>
       </c>
-      <c r="V25" s="28">
+      <c r="V25" s="27">
         <v>5982.8613772736016</v>
       </c>
-      <c r="W25" s="28"/>
-      <c r="X25" s="32"/>
-      <c r="Y25" s="32"/>
-      <c r="Z25" s="35"/>
-      <c r="AA25" s="35"/>
-      <c r="AB25" s="34"/>
-      <c r="AC25" s="31"/>
-      <c r="AD25" s="31"/>
-      <c r="AE25" s="30"/>
-      <c r="AF25" s="31"/>
-      <c r="AG25" s="38"/>
-      <c r="AH25" s="30"/>
-      <c r="AI25" s="30"/>
-      <c r="AJ25" s="30"/>
-      <c r="AK25" s="41"/>
+      <c r="W25" s="27"/>
+      <c r="X25" s="30"/>
+      <c r="Y25" s="30"/>
+      <c r="Z25" s="33"/>
+      <c r="AA25" s="33"/>
+      <c r="AB25" s="32"/>
+      <c r="AC25" s="29"/>
+      <c r="AD25" s="29"/>
+      <c r="AE25" s="28"/>
+      <c r="AF25" s="29"/>
+      <c r="AG25" s="36"/>
+      <c r="AH25" s="28"/>
+      <c r="AI25" s="28"/>
+      <c r="AJ25" s="28"/>
+      <c r="AK25" s="39"/>
     </row>
     <row r="26" spans="1:37" ht="11.25" customHeight="1">
       <c r="A26">
@@ -11498,51 +11834,51 @@
         <f>VLOOKUP(DBsoil[[#This Row],[Pile id]],$X$5:$Y$20,2)</f>
         <v>10</v>
       </c>
-      <c r="I26" s="32"/>
-      <c r="J26" s="32"/>
-      <c r="K26" s="32"/>
-      <c r="L26" s="32"/>
-      <c r="M26" s="32"/>
-      <c r="N26" s="32"/>
-      <c r="O26" s="32">
+      <c r="I26" s="30"/>
+      <c r="J26" s="30"/>
+      <c r="K26" s="30"/>
+      <c r="L26" s="30"/>
+      <c r="M26" s="30"/>
+      <c r="N26" s="30"/>
+      <c r="O26" s="30">
         <v>2.7</v>
       </c>
-      <c r="P26" s="32" t="s">
+      <c r="P26" s="30" t="s">
         <v>151</v>
       </c>
-      <c r="Q26" s="32">
+      <c r="Q26" s="30">
         <v>5.7</v>
       </c>
-      <c r="R26" s="32">
+      <c r="R26" s="30">
         <v>3</v>
       </c>
-      <c r="S26" s="32" t="s">
+      <c r="S26" s="30" t="s">
         <v>163</v>
       </c>
-      <c r="T26" s="32">
+      <c r="T26" s="30">
         <v>240000</v>
       </c>
-      <c r="U26" s="32">
+      <c r="U26" s="30">
         <v>0.25</v>
       </c>
-      <c r="V26" s="28">
+      <c r="V26" s="27">
         <v>57316.113905277474</v>
       </c>
-      <c r="W26" s="28"/>
-      <c r="X26" s="32"/>
-      <c r="Y26" s="32"/>
-      <c r="Z26" s="35"/>
-      <c r="AA26" s="35"/>
-      <c r="AB26" s="36"/>
-      <c r="AC26" s="37"/>
-      <c r="AD26" s="31"/>
-      <c r="AE26" s="30"/>
-      <c r="AF26" s="31"/>
-      <c r="AG26" s="38"/>
-      <c r="AH26" s="30"/>
-      <c r="AI26" s="30"/>
-      <c r="AJ26" s="39"/>
-      <c r="AK26" s="41"/>
+      <c r="W26" s="27"/>
+      <c r="X26" s="30"/>
+      <c r="Y26" s="30"/>
+      <c r="Z26" s="33"/>
+      <c r="AA26" s="33"/>
+      <c r="AB26" s="34"/>
+      <c r="AC26" s="35"/>
+      <c r="AD26" s="29"/>
+      <c r="AE26" s="28"/>
+      <c r="AF26" s="29"/>
+      <c r="AG26" s="36"/>
+      <c r="AH26" s="28"/>
+      <c r="AI26" s="28"/>
+      <c r="AJ26" s="37"/>
+      <c r="AK26" s="39"/>
     </row>
     <row r="27" spans="1:37" ht="11.25" customHeight="1">
       <c r="A27">
@@ -11573,51 +11909,51 @@
         <f>VLOOKUP(DBsoil[[#This Row],[Pile id]],$X$5:$Y$20,2)</f>
         <v>10</v>
       </c>
-      <c r="I27" s="32"/>
-      <c r="J27" s="32"/>
-      <c r="K27" s="32"/>
-      <c r="L27" s="32"/>
-      <c r="M27" s="32"/>
-      <c r="N27" s="32"/>
-      <c r="O27" s="32">
+      <c r="I27" s="30"/>
+      <c r="J27" s="30"/>
+      <c r="K27" s="30"/>
+      <c r="L27" s="30"/>
+      <c r="M27" s="30"/>
+      <c r="N27" s="30"/>
+      <c r="O27" s="30">
         <v>5.7</v>
       </c>
-      <c r="P27" s="32" t="s">
+      <c r="P27" s="30" t="s">
         <v>151</v>
       </c>
-      <c r="Q27" s="32">
+      <c r="Q27" s="30">
         <v>10</v>
       </c>
-      <c r="R27" s="32">
+      <c r="R27" s="30">
         <v>4.3</v>
       </c>
-      <c r="S27" s="32" t="s">
+      <c r="S27" s="30" t="s">
         <v>164</v>
       </c>
-      <c r="T27" s="32">
+      <c r="T27" s="30">
         <v>3500000</v>
       </c>
-      <c r="U27" s="32">
+      <c r="U27" s="30">
         <v>0.22</v>
       </c>
-      <c r="V27" s="28">
+      <c r="V27" s="27">
         <v>1029528.6804862762</v>
       </c>
-      <c r="W27" s="28"/>
-      <c r="X27" s="32"/>
-      <c r="Y27" s="32"/>
-      <c r="Z27" s="35"/>
-      <c r="AA27" s="35"/>
-      <c r="AB27" s="36"/>
-      <c r="AC27" s="37"/>
-      <c r="AD27" s="31"/>
-      <c r="AE27" s="30"/>
-      <c r="AF27" s="31"/>
-      <c r="AG27" s="38"/>
-      <c r="AH27" s="30"/>
-      <c r="AI27" s="30"/>
-      <c r="AJ27" s="39"/>
-      <c r="AK27" s="41"/>
+      <c r="W27" s="27"/>
+      <c r="X27" s="30"/>
+      <c r="Y27" s="30"/>
+      <c r="Z27" s="33"/>
+      <c r="AA27" s="33"/>
+      <c r="AB27" s="34"/>
+      <c r="AC27" s="35"/>
+      <c r="AD27" s="29"/>
+      <c r="AE27" s="28"/>
+      <c r="AF27" s="29"/>
+      <c r="AG27" s="36"/>
+      <c r="AH27" s="28"/>
+      <c r="AI27" s="28"/>
+      <c r="AJ27" s="37"/>
+      <c r="AK27" s="39"/>
     </row>
     <row r="28" spans="1:37" ht="11.25" customHeight="1">
       <c r="A28">
@@ -11648,63 +11984,63 @@
         <f>VLOOKUP(DBsoil[[#This Row],[Pile id]],$X$5:$Y$20,2)</f>
         <v>10</v>
       </c>
-      <c r="I28" s="32" t="s">
+      <c r="I28" s="30" t="s">
         <v>181</v>
       </c>
-      <c r="J28" s="32" t="s">
+      <c r="J28" s="30" t="s">
         <v>182</v>
       </c>
-      <c r="K28" s="32">
+      <c r="K28" s="30">
         <v>29409000</v>
       </c>
-      <c r="L28" s="32">
+      <c r="L28" s="30">
         <v>2.5</v>
       </c>
-      <c r="M28" s="32">
+      <c r="M28" s="30">
         <v>1.91747598485705</v>
       </c>
-      <c r="N28" s="32">
+      <c r="N28" s="30">
         <v>18.600000000000001</v>
       </c>
-      <c r="O28" s="32">
-        <v>0</v>
-      </c>
-      <c r="P28" s="32" t="s">
+      <c r="O28" s="30">
+        <v>0</v>
+      </c>
+      <c r="P28" s="30" t="s">
         <v>151</v>
       </c>
-      <c r="Q28" s="32">
+      <c r="Q28" s="30">
         <v>1.1000000000000001</v>
       </c>
-      <c r="R28" s="32">
+      <c r="R28" s="30">
         <v>1.1000000000000001</v>
       </c>
-      <c r="S28" s="32" t="s">
+      <c r="S28" s="30" t="s">
         <v>152</v>
       </c>
-      <c r="T28" s="32">
+      <c r="T28" s="30">
         <v>29000</v>
       </c>
-      <c r="U28" s="32">
+      <c r="U28" s="30">
         <v>0.3</v>
       </c>
-      <c r="V28" s="28">
+      <c r="V28" s="27">
         <v>5982.8613772736016</v>
       </c>
-      <c r="W28" s="28"/>
-      <c r="X28" s="32"/>
-      <c r="Y28" s="32"/>
-      <c r="Z28" s="35"/>
-      <c r="AA28" s="35"/>
-      <c r="AB28" s="36"/>
-      <c r="AC28" s="31"/>
-      <c r="AD28" s="31"/>
-      <c r="AE28" s="30"/>
-      <c r="AF28" s="31"/>
-      <c r="AG28" s="38"/>
-      <c r="AH28" s="30"/>
-      <c r="AI28" s="30"/>
-      <c r="AJ28" s="39"/>
-      <c r="AK28" s="41"/>
+      <c r="W28" s="27"/>
+      <c r="X28" s="30"/>
+      <c r="Y28" s="30"/>
+      <c r="Z28" s="33"/>
+      <c r="AA28" s="33"/>
+      <c r="AB28" s="34"/>
+      <c r="AC28" s="29"/>
+      <c r="AD28" s="29"/>
+      <c r="AE28" s="28"/>
+      <c r="AF28" s="29"/>
+      <c r="AG28" s="36"/>
+      <c r="AH28" s="28"/>
+      <c r="AI28" s="28"/>
+      <c r="AJ28" s="37"/>
+      <c r="AK28" s="39"/>
     </row>
     <row r="29" spans="1:37" ht="11.25" customHeight="1">
       <c r="A29">
@@ -11735,51 +12071,51 @@
         <f>VLOOKUP(DBsoil[[#This Row],[Pile id]],$X$5:$Y$20,2)</f>
         <v>10</v>
       </c>
-      <c r="I29" s="32"/>
-      <c r="J29" s="32"/>
-      <c r="K29" s="32"/>
-      <c r="L29" s="32"/>
-      <c r="M29" s="32"/>
-      <c r="N29" s="32"/>
-      <c r="O29" s="32">
+      <c r="I29" s="30"/>
+      <c r="J29" s="30"/>
+      <c r="K29" s="30"/>
+      <c r="L29" s="30"/>
+      <c r="M29" s="30"/>
+      <c r="N29" s="30"/>
+      <c r="O29" s="30">
         <v>1.1000000000000001</v>
       </c>
-      <c r="P29" s="32" t="s">
+      <c r="P29" s="30" t="s">
         <v>151</v>
       </c>
-      <c r="Q29" s="32">
+      <c r="Q29" s="30">
         <v>5</v>
       </c>
-      <c r="R29" s="32">
+      <c r="R29" s="30">
         <v>3.9</v>
       </c>
-      <c r="S29" s="32" t="s">
+      <c r="S29" s="30" t="s">
         <v>163</v>
       </c>
-      <c r="T29" s="32">
+      <c r="T29" s="30">
         <v>240000</v>
       </c>
-      <c r="U29" s="32">
+      <c r="U29" s="30">
         <v>0.25</v>
       </c>
-      <c r="V29" s="28">
+      <c r="V29" s="27">
         <v>57316.113905277474</v>
       </c>
-      <c r="W29" s="28"/>
-      <c r="X29" s="32"/>
-      <c r="Y29" s="32"/>
-      <c r="Z29" s="35"/>
-      <c r="AA29" s="35"/>
-      <c r="AB29" s="34"/>
-      <c r="AC29" s="37"/>
-      <c r="AD29" s="31"/>
-      <c r="AE29" s="30"/>
-      <c r="AF29" s="31"/>
-      <c r="AG29" s="38"/>
-      <c r="AH29" s="30"/>
-      <c r="AI29" s="30"/>
-      <c r="AJ29" s="40"/>
-      <c r="AK29" s="41"/>
+      <c r="W29" s="27"/>
+      <c r="X29" s="30"/>
+      <c r="Y29" s="30"/>
+      <c r="Z29" s="33"/>
+      <c r="AA29" s="33"/>
+      <c r="AB29" s="32"/>
+      <c r="AC29" s="35"/>
+      <c r="AD29" s="29"/>
+      <c r="AE29" s="28"/>
+      <c r="AF29" s="29"/>
+      <c r="AG29" s="36"/>
+      <c r="AH29" s="28"/>
+      <c r="AI29" s="28"/>
+      <c r="AJ29" s="38"/>
+      <c r="AK29" s="39"/>
     </row>
     <row r="30" spans="1:37" ht="11.25" customHeight="1">
       <c r="A30">
@@ -11810,51 +12146,51 @@
         <f>VLOOKUP(DBsoil[[#This Row],[Pile id]],$X$5:$Y$20,2)</f>
         <v>10</v>
       </c>
-      <c r="I30" s="32"/>
-      <c r="J30" s="32"/>
-      <c r="K30" s="32"/>
-      <c r="L30" s="32"/>
-      <c r="M30" s="32"/>
-      <c r="N30" s="32"/>
-      <c r="O30" s="32">
+      <c r="I30" s="30"/>
+      <c r="J30" s="30"/>
+      <c r="K30" s="30"/>
+      <c r="L30" s="30"/>
+      <c r="M30" s="30"/>
+      <c r="N30" s="30"/>
+      <c r="O30" s="30">
         <v>5</v>
       </c>
-      <c r="P30" s="32" t="s">
+      <c r="P30" s="30" t="s">
         <v>151</v>
       </c>
-      <c r="Q30" s="32">
+      <c r="Q30" s="30">
         <v>10</v>
       </c>
-      <c r="R30" s="32">
+      <c r="R30" s="30">
         <v>5</v>
       </c>
-      <c r="S30" s="32" t="s">
+      <c r="S30" s="30" t="s">
         <v>164</v>
       </c>
-      <c r="T30" s="32">
+      <c r="T30" s="30">
         <v>3500000</v>
       </c>
-      <c r="U30" s="32">
+      <c r="U30" s="30">
         <v>0.22</v>
       </c>
-      <c r="V30" s="28">
+      <c r="V30" s="27">
         <v>1029528.6804862762</v>
       </c>
-      <c r="W30" s="28"/>
-      <c r="X30" s="32"/>
-      <c r="Y30" s="32"/>
-      <c r="Z30" s="35"/>
-      <c r="AA30" s="35"/>
-      <c r="AB30" s="34"/>
-      <c r="AC30" s="37"/>
-      <c r="AD30" s="31"/>
-      <c r="AE30" s="30"/>
-      <c r="AF30" s="31"/>
-      <c r="AG30" s="38"/>
-      <c r="AH30" s="30"/>
-      <c r="AI30" s="30"/>
-      <c r="AJ30" s="30"/>
-      <c r="AK30" s="41"/>
+      <c r="W30" s="27"/>
+      <c r="X30" s="30"/>
+      <c r="Y30" s="30"/>
+      <c r="Z30" s="33"/>
+      <c r="AA30" s="33"/>
+      <c r="AB30" s="32"/>
+      <c r="AC30" s="35"/>
+      <c r="AD30" s="29"/>
+      <c r="AE30" s="28"/>
+      <c r="AF30" s="29"/>
+      <c r="AG30" s="36"/>
+      <c r="AH30" s="28"/>
+      <c r="AI30" s="28"/>
+      <c r="AJ30" s="28"/>
+      <c r="AK30" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -15716,7 +16052,7 @@
         <f>"B"&amp;VLOOKUP(DBtendonB[[#This Row],[seg id]],DBsup[],9,0)&amp;"-"&amp;DBtendonB[[#This Row],[PT type]]</f>
         <v>B19-L</v>
       </c>
-      <c r="F8" s="27" t="s">
+      <c r="F8" s="26" t="s">
         <v>84</v>
       </c>
       <c r="G8" s="18" t="s">
@@ -15887,7 +16223,7 @@
         <f>"B"&amp;VLOOKUP(DBtendonB[[#This Row],[seg id]],DBsup[],9,0)&amp;"-"&amp;DBtendonB[[#This Row],[PT type]]</f>
         <v>B19-L</v>
       </c>
-      <c r="F9" s="27" t="s">
+      <c r="F9" s="26" t="s">
         <v>84</v>
       </c>
       <c r="G9" s="18" t="s">
@@ -16058,7 +16394,7 @@
         <f>"B"&amp;VLOOKUP(DBtendonB[[#This Row],[seg id]],DBsup[],9,0)&amp;"-"&amp;DBtendonB[[#This Row],[PT type]]</f>
         <v>B19-L</v>
       </c>
-      <c r="F10" s="27" t="s">
+      <c r="F10" s="26" t="s">
         <v>84</v>
       </c>
       <c r="G10" s="18" t="s">
@@ -16229,7 +16565,7 @@
         <f>"B"&amp;VLOOKUP(DBtendonB[[#This Row],[seg id]],DBsup[],9,0)&amp;"-"&amp;DBtendonB[[#This Row],[PT type]]</f>
         <v>B20-L</v>
       </c>
-      <c r="F11" s="27" t="s">
+      <c r="F11" s="26" t="s">
         <v>84</v>
       </c>
       <c r="G11" s="18" t="s">
@@ -16400,7 +16736,7 @@
         <f>"B"&amp;VLOOKUP(DBtendonB[[#This Row],[seg id]],DBsup[],9,0)&amp;"-"&amp;DBtendonB[[#This Row],[PT type]]</f>
         <v>B20-L</v>
       </c>
-      <c r="F12" s="27" t="s">
+      <c r="F12" s="26" t="s">
         <v>84</v>
       </c>
       <c r="G12" s="18" t="s">
@@ -16571,7 +16907,7 @@
         <f>"B"&amp;VLOOKUP(DBtendonB[[#This Row],[seg id]],DBsup[],9,0)&amp;"-"&amp;DBtendonB[[#This Row],[PT type]]</f>
         <v>B20-L</v>
       </c>
-      <c r="F13" s="27" t="s">
+      <c r="F13" s="26" t="s">
         <v>84</v>
       </c>
       <c r="G13" s="18" t="s">
@@ -22657,13 +22993,13 @@
   <sheetData>
     <row r="3" spans="2:13">
       <c r="B3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C3" t="s">
         <v>187</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>188</v>
-      </c>
-      <c r="D3" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="4" spans="2:13">
@@ -22690,8 +23026,8 @@
         <f>SQRT(E4^2+F4^2)</f>
         <v>0.75</v>
       </c>
-      <c r="J4" s="46" t="s">
-        <v>190</v>
+      <c r="J4" s="41" t="s">
+        <v>189</v>
       </c>
       <c r="K4">
         <f t="shared" ref="K4:M5" si="0">E4*$D4/ABS($H4)</f>
@@ -22730,8 +23066,8 @@
         <f>SQRT(E5^2+F5^2)</f>
         <v>0.39884228712612713</v>
       </c>
-      <c r="J5" s="46" t="s">
-        <v>190</v>
+      <c r="J5" s="41" t="s">
+        <v>189</v>
       </c>
       <c r="K5">
         <f t="shared" si="0"/>
